--- a/test_home_look.xlsx
+++ b/test_home_look.xlsx
@@ -21,16 +21,40 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="89">
   <si>
+    <t>Товарная накладная имеет приложение на</t>
+  </si>
+  <si>
+    <t>Нет</t>
+  </si>
+  <si>
+    <t>листах</t>
+  </si>
+  <si>
     <t>Унифицированная форма № ТОРГ-12</t>
+  </si>
+  <si>
+    <t>и содержит</t>
+  </si>
+  <si>
+    <t>порядковых номеров записей</t>
   </si>
   <si>
     <t>Утверждена постановлением Госкомстата</t>
   </si>
   <si>
+    <t>прописью</t>
+  </si>
+  <si>
     <t>России от 25.12.98 № 132</t>
   </si>
   <si>
+    <t>-</t>
+  </si>
+  <si>
     <t>Код</t>
+  </si>
+  <si>
+    <t>Масса груза (нетто)</t>
   </si>
   <si>
     <t>Форма по ОКУД</t>
@@ -45,19 +69,52 @@
     <t>(организация-грузоотправитель, адрес, телефон, факс, банковские реквизиты)</t>
   </si>
   <si>
+    <t>Всего мест</t>
+  </si>
+  <si>
+    <t>Масса груза (брутто)</t>
+  </si>
+  <si>
     <t>(структурное подразделение)</t>
   </si>
   <si>
     <t>Вид деятельности по ОКДП</t>
   </si>
   <si>
+    <t>Приложение (паспорта, сертификаты и т.п.) на</t>
+  </si>
+  <si>
+    <t>По доверенности №</t>
+  </si>
+  <si>
+    <t>от  «</t>
+  </si>
+  <si>
+    <t>»</t>
+  </si>
+  <si>
+    <t>года,</t>
+  </si>
+  <si>
     <t>Грузополучатель</t>
+  </si>
+  <si>
+    <t>Всего отпущено на сумму</t>
   </si>
   <si>
     <t>(организация, адрес, телефон, факс, банковские реквизиты)</t>
   </si>
   <si>
+    <t>выданной</t>
+  </si>
+  <si>
     <t>Поставщик</t>
+  </si>
+  <si>
+    <t>кем, кому (организация, место работы, должность, фамилия, и., о.)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
   </si>
   <si>
     <t>Плательщик</t>
@@ -66,19 +123,46 @@
     <t>номер</t>
   </si>
   <si>
+    <t>Отпуск разрешил</t>
+  </si>
+  <si>
     <t>Основание</t>
+  </si>
+  <si>
+    <t>должность</t>
   </si>
   <si>
     <t>(договор, заказ-наряд)</t>
   </si>
   <si>
+    <t>подпись</t>
+  </si>
+  <si>
+    <t>расшифровка подписи</t>
+  </si>
+  <si>
     <t>дата</t>
+  </si>
+  <si>
+    <t>Главный (старший) бухгалтер</t>
+  </si>
+  <si>
+    <t>Груз принял</t>
   </si>
   <si>
     <t>Транспортная накладная</t>
   </si>
   <si>
+    <t>Отпуск груза произвел</t>
+  </si>
+  <si>
+    <t>Груз получил грузополучатель</t>
+  </si>
+  <si>
     <t>Вид операции</t>
+  </si>
+  <si>
+    <t>М.П.</t>
   </si>
   <si>
     <t>Номер
@@ -211,90 +295,6 @@
   </si>
   <si>
     <t>val49</t>
-  </si>
-  <si>
-    <t>Товарная накладная имеет приложение на</t>
-  </si>
-  <si>
-    <t>Нет</t>
-  </si>
-  <si>
-    <t>листах</t>
-  </si>
-  <si>
-    <t>и содержит</t>
-  </si>
-  <si>
-    <t>порядковых номеров записей</t>
-  </si>
-  <si>
-    <t>прописью</t>
-  </si>
-  <si>
-    <t>-</t>
-  </si>
-  <si>
-    <t>Масса груза (нетто)</t>
-  </si>
-  <si>
-    <t>Всего мест</t>
-  </si>
-  <si>
-    <t>Масса груза (брутто)</t>
-  </si>
-  <si>
-    <t>Приложение (паспорта, сертификаты и т.п.) на</t>
-  </si>
-  <si>
-    <t>По доверенности №</t>
-  </si>
-  <si>
-    <t>от  «</t>
-  </si>
-  <si>
-    <t>»</t>
-  </si>
-  <si>
-    <t>года,</t>
-  </si>
-  <si>
-    <t>Всего отпущено на сумму</t>
-  </si>
-  <si>
-    <t>выданной</t>
-  </si>
-  <si>
-    <t>кем, кому (организация, место работы, должность, фамилия, и., о.)</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> </t>
-  </si>
-  <si>
-    <t>Отпуск разрешил</t>
-  </si>
-  <si>
-    <t>должность</t>
-  </si>
-  <si>
-    <t>подпись</t>
-  </si>
-  <si>
-    <t>расшифровка подписи</t>
-  </si>
-  <si>
-    <t>Главный (старший) бухгалтер</t>
-  </si>
-  <si>
-    <t>Груз принял</t>
-  </si>
-  <si>
-    <t>Отпуск груза произвел</t>
-  </si>
-  <si>
-    <t>Груз получил грузополучатель</t>
-  </si>
-  <si>
-    <t>М.П.</t>
   </si>
 </sst>
 </file>
@@ -1324,7 +1324,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:CQ94"/>
+  <dimension ref="A1:CQ113"/>
   <sheetViews>
     <sheetView showGridLines="0" showZeros="0" topLeftCell="A17" view="pageBreakPreview" workbookViewId="0" zoomScale="150" zoomScaleNormal="100" zoomScaleSheetLayoutView="150">
       <selection activeCell="I36" sqref="I36"/>
@@ -1347,82 +1347,830 @@
   </cols>
   <sheetData>
     <row customHeight="1" ht="11.25" r="1" s="51" spans="1:95">
-      <c r="BW1" s="8" t="s">
+      <c r="A1" s="16" t="n"/>
+      <c r="B1" s="16" t="n"/>
+      <c r="C1" s="16" t="n"/>
+      <c r="D1" s="16" t="s">
         <v>0</v>
       </c>
+      <c r="E1" s="16" t="n"/>
+      <c r="F1" s="16" t="n"/>
+      <c r="G1" s="16" t="n"/>
+      <c r="H1" s="16" t="n"/>
+      <c r="I1" s="16" t="n"/>
+      <c r="J1" s="16" t="n"/>
+      <c r="K1" s="16" t="n"/>
+      <c r="L1" s="16" t="n"/>
+      <c r="M1" s="16" t="n"/>
+      <c r="N1" s="16" t="n"/>
+      <c r="O1" s="16" t="n"/>
+      <c r="P1" s="16" t="n"/>
+      <c r="Q1" s="16" t="n"/>
+      <c r="R1" s="16" t="n"/>
+      <c r="S1" s="16" t="n"/>
+      <c r="T1" s="16" t="n"/>
+      <c r="U1" s="16" t="n"/>
+      <c r="V1" s="16" t="n"/>
+      <c r="W1" s="16" t="n"/>
+      <c r="X1" s="16" t="n"/>
+      <c r="Y1" s="85" t="s">
+        <v>1</v>
+      </c>
+      <c r="BO1" s="16" t="s">
+        <v>2</v>
+      </c>
+      <c r="BP1" s="16" t="n"/>
+      <c r="BQ1" s="16" t="n"/>
+      <c r="BR1" s="16" t="n"/>
+      <c r="BS1" s="16" t="n"/>
+      <c r="BT1" s="16" t="n"/>
+      <c r="BU1" s="16" t="n"/>
+      <c r="BV1" s="16" t="n"/>
+      <c r="BW1" s="16" t="s">
+        <v>3</v>
+      </c>
+      <c r="BX1" s="16" t="n"/>
+      <c r="BY1" s="16" t="n"/>
+      <c r="BZ1" s="16" t="n"/>
+      <c r="CA1" s="16" t="n"/>
+      <c r="CB1" s="16" t="n"/>
+      <c r="CC1" s="16" t="n"/>
+      <c r="CD1" s="16" t="n"/>
+      <c r="CE1" s="16" t="n"/>
+      <c r="CF1" s="16" t="n"/>
+      <c r="CG1" s="16" t="n"/>
+      <c r="CH1" s="16" t="n"/>
+      <c r="CI1" s="16" t="n"/>
+      <c r="CJ1" s="16" t="n"/>
+      <c r="CK1" s="16" t="n"/>
+      <c r="CL1" s="16" t="n"/>
+      <c r="CM1" s="16" t="n"/>
+      <c r="CN1" s="16" t="n"/>
+      <c r="CO1" s="16" t="n"/>
+      <c r="CP1" s="16" t="n"/>
+      <c r="CQ1" s="16" t="n"/>
     </row>
     <row customHeight="1" ht="10.5" r="2" s="51" spans="1:95">
-      <c r="BW2" s="9" t="s">
-        <v>1</v>
-      </c>
+      <c r="A2" s="16" t="n"/>
+      <c r="B2" s="16" t="n"/>
+      <c r="C2" s="16" t="n"/>
+      <c r="D2" s="16" t="s">
+        <v>4</v>
+      </c>
+      <c r="E2" s="16" t="n"/>
+      <c r="F2" s="16" t="n"/>
+      <c r="G2" s="16" t="n"/>
+      <c r="H2" s="16" t="n"/>
+      <c r="I2" s="16" t="n"/>
+      <c r="J2" s="16" t="n"/>
+      <c r="K2" s="16" t="n"/>
+      <c r="L2" s="16" t="n"/>
+      <c r="M2" s="16" t="n"/>
+      <c r="N2" s="16" t="n"/>
+      <c r="O2" s="85" t="n"/>
+      <c r="BO2" s="16" t="s">
+        <v>5</v>
+      </c>
+      <c r="BP2" s="16" t="n"/>
+      <c r="BQ2" s="16" t="n"/>
+      <c r="BR2" s="16" t="n"/>
+      <c r="BS2" s="16" t="n"/>
+      <c r="BT2" s="16" t="n"/>
+      <c r="BU2" s="16" t="n"/>
+      <c r="BV2" s="16" t="n"/>
+      <c r="BW2" s="16" t="s">
+        <v>6</v>
+      </c>
+      <c r="BX2" s="16" t="n"/>
+      <c r="BY2" s="16" t="n"/>
+      <c r="BZ2" s="16" t="n"/>
+      <c r="CA2" s="16" t="n"/>
+      <c r="CB2" s="16" t="n"/>
+      <c r="CC2" s="16" t="n"/>
+      <c r="CD2" s="16" t="n"/>
+      <c r="CE2" s="16" t="n"/>
+      <c r="CF2" s="16" t="n"/>
+      <c r="CG2" s="16" t="n"/>
+      <c r="CH2" s="16" t="n"/>
+      <c r="CI2" s="16" t="n"/>
+      <c r="CJ2" s="16" t="n"/>
+      <c r="CK2" s="16" t="n"/>
+      <c r="CL2" s="16" t="n"/>
+      <c r="CM2" s="16" t="n"/>
+      <c r="CN2" s="16" t="n"/>
+      <c r="CO2" s="16" t="n"/>
+      <c r="CP2" s="16" t="n"/>
+      <c r="CQ2" s="16" t="n"/>
     </row>
     <row customHeight="1" ht="10.5" r="3" s="51" spans="1:95">
-      <c r="BW3" s="8" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="6" r="4" s="51" spans="1:95"/>
+      <c r="A3" s="16" t="n"/>
+      <c r="B3" s="16" t="n"/>
+      <c r="C3" s="16" t="n"/>
+      <c r="D3" s="16" t="n"/>
+      <c r="E3" s="16" t="n"/>
+      <c r="F3" s="16" t="n"/>
+      <c r="G3" s="16" t="n"/>
+      <c r="H3" s="16" t="n"/>
+      <c r="I3" s="16" t="n"/>
+      <c r="J3" s="16" t="n"/>
+      <c r="K3" s="16" t="n"/>
+      <c r="L3" s="16" t="n"/>
+      <c r="M3" s="16" t="n"/>
+      <c r="N3" s="16" t="n"/>
+      <c r="O3" s="31" t="s">
+        <v>7</v>
+      </c>
+      <c r="BO3" s="16" t="n"/>
+      <c r="BP3" s="16" t="n"/>
+      <c r="BQ3" s="16" t="n"/>
+      <c r="BR3" s="16" t="n"/>
+      <c r="BS3" s="16" t="n"/>
+      <c r="BT3" s="16" t="n"/>
+      <c r="BU3" s="16" t="n"/>
+      <c r="BV3" s="16" t="n"/>
+      <c r="BW3" s="16" t="s">
+        <v>8</v>
+      </c>
+      <c r="BX3" s="16" t="n"/>
+      <c r="BY3" s="16" t="n"/>
+      <c r="BZ3" s="16" t="n"/>
+      <c r="CA3" s="16" t="n"/>
+      <c r="CB3" s="16" t="n"/>
+      <c r="CC3" s="16" t="n"/>
+      <c r="CD3" s="16" t="n"/>
+      <c r="CE3" s="16" t="n"/>
+      <c r="CF3" s="16" t="n"/>
+      <c r="CG3" s="16" t="n"/>
+      <c r="CH3" s="16" t="n"/>
+      <c r="CI3" s="16" t="n"/>
+      <c r="CJ3" s="16" t="n"/>
+      <c r="CK3" s="16" t="n"/>
+      <c r="CL3" s="16" t="n"/>
+      <c r="CM3" s="16" t="n"/>
+      <c r="CN3" s="16" t="n"/>
+      <c r="CO3" s="16" t="n"/>
+      <c r="CP3" s="16" t="n"/>
+      <c r="CQ3" s="16" t="n"/>
+    </row>
+    <row customHeight="1" ht="6" r="4" s="51" spans="1:95">
+      <c r="A4" s="16" t="n"/>
+      <c r="B4" s="16" t="n"/>
+      <c r="C4" s="16" t="n"/>
+      <c r="D4" s="16" t="n"/>
+      <c r="E4" s="16" t="n"/>
+      <c r="F4" s="16" t="n"/>
+      <c r="G4" s="16" t="n"/>
+      <c r="H4" s="16" t="n"/>
+      <c r="I4" s="16" t="n"/>
+      <c r="J4" s="16" t="n"/>
+      <c r="K4" s="16" t="n"/>
+      <c r="L4" s="16" t="n"/>
+      <c r="M4" s="16" t="n"/>
+      <c r="N4" s="16" t="n"/>
+      <c r="O4" s="86" t="n"/>
+      <c r="P4" s="86" t="n"/>
+      <c r="Q4" s="86" t="n"/>
+      <c r="R4" s="86" t="n"/>
+      <c r="S4" s="86" t="n"/>
+      <c r="T4" s="86" t="n"/>
+      <c r="U4" s="86" t="n"/>
+      <c r="V4" s="86" t="n"/>
+      <c r="W4" s="86" t="n"/>
+      <c r="X4" s="86" t="n"/>
+      <c r="Y4" s="86" t="n"/>
+      <c r="Z4" s="86" t="n"/>
+      <c r="AA4" s="86" t="n"/>
+      <c r="AB4" s="86" t="n"/>
+      <c r="AC4" s="86" t="n"/>
+      <c r="AD4" s="86" t="n"/>
+      <c r="AE4" s="86" t="n"/>
+      <c r="AF4" s="86" t="n"/>
+      <c r="AG4" s="86" t="n"/>
+      <c r="AH4" s="86" t="n"/>
+      <c r="AI4" s="86" t="n"/>
+      <c r="AJ4" s="86" t="n"/>
+      <c r="AK4" s="86" t="n"/>
+      <c r="AL4" s="86" t="n"/>
+      <c r="AM4" s="86" t="n"/>
+      <c r="AN4" s="86" t="n"/>
+      <c r="AO4" s="86" t="n"/>
+      <c r="AP4" s="86" t="n"/>
+      <c r="AQ4" s="86" t="n"/>
+      <c r="AR4" s="86" t="n"/>
+      <c r="AS4" s="86" t="n"/>
+      <c r="AT4" s="86" t="n"/>
+      <c r="AU4" s="86" t="n"/>
+      <c r="AV4" s="86" t="n"/>
+      <c r="AW4" s="86" t="n"/>
+      <c r="AX4" s="86" t="n"/>
+      <c r="AY4" s="86" t="n"/>
+      <c r="AZ4" s="86" t="n"/>
+      <c r="BA4" s="86" t="n"/>
+      <c r="BB4" s="86" t="n"/>
+      <c r="BC4" s="86" t="n"/>
+      <c r="BD4" s="86" t="n"/>
+      <c r="BE4" s="86" t="n"/>
+      <c r="BF4" s="86" t="n"/>
+      <c r="BG4" s="86" t="n"/>
+      <c r="BH4" s="86" t="n"/>
+      <c r="BI4" s="86" t="n"/>
+      <c r="BJ4" s="86" t="n"/>
+      <c r="BK4" s="86" t="n"/>
+      <c r="BL4" s="86" t="n"/>
+      <c r="BM4" s="86" t="n"/>
+      <c r="BN4" s="86" t="n"/>
+      <c r="BO4" s="16" t="n"/>
+      <c r="BP4" s="16" t="n"/>
+      <c r="BQ4" s="16" t="n"/>
+      <c r="BR4" s="16" t="n"/>
+      <c r="BS4" s="16" t="n"/>
+      <c r="BT4" s="16" t="n"/>
+      <c r="BU4" s="16" t="n"/>
+      <c r="BV4" s="16" t="n"/>
+      <c r="BW4" s="16" t="n"/>
+      <c r="BX4" s="16" t="n"/>
+      <c r="BY4" s="16" t="n"/>
+      <c r="BZ4" s="16" t="n"/>
+      <c r="CA4" s="16" t="n"/>
+      <c r="CB4" s="16" t="n"/>
+      <c r="CC4" s="16" t="n"/>
+      <c r="CD4" s="16" t="n"/>
+      <c r="CE4" s="16" t="n"/>
+      <c r="CF4" s="16" t="n"/>
+      <c r="CG4" s="16" t="n"/>
+      <c r="CH4" s="16" t="n"/>
+      <c r="CI4" s="16" t="n"/>
+      <c r="CJ4" s="16" t="n"/>
+      <c r="CK4" s="16" t="n"/>
+      <c r="CL4" s="16" t="n"/>
+      <c r="CM4" s="16" t="n"/>
+      <c r="CN4" s="16" t="n"/>
+      <c r="CO4" s="16" t="n"/>
+      <c r="CP4" s="16" t="n"/>
+      <c r="CQ4" s="16" t="n"/>
+    </row>
     <row customHeight="1" ht="14.25" r="5" s="51" spans="1:95" thickBot="1">
+      <c r="A5" s="16" t="n"/>
+      <c r="B5" s="16" t="n"/>
+      <c r="C5" s="16" t="n"/>
+      <c r="D5" s="16" t="n"/>
+      <c r="E5" s="16" t="n"/>
+      <c r="F5" s="16" t="n"/>
+      <c r="G5" s="16" t="n"/>
+      <c r="H5" s="16" t="n"/>
+      <c r="I5" s="16" t="n"/>
+      <c r="J5" s="16" t="n"/>
+      <c r="K5" s="16" t="n"/>
+      <c r="L5" s="16" t="n"/>
+      <c r="M5" s="16" t="n"/>
+      <c r="N5" s="16" t="n"/>
+      <c r="O5" s="16" t="n"/>
+      <c r="P5" s="16" t="n"/>
+      <c r="Q5" s="16" t="n"/>
+      <c r="R5" s="16" t="n"/>
+      <c r="S5" s="16" t="n"/>
+      <c r="T5" s="16" t="n"/>
+      <c r="U5" s="16" t="n"/>
+      <c r="V5" s="16" t="n"/>
+      <c r="W5" s="16" t="n"/>
+      <c r="X5" s="16" t="n"/>
+      <c r="Y5" s="16" t="n"/>
+      <c r="Z5" s="16" t="n"/>
+      <c r="AA5" s="16" t="n"/>
+      <c r="AB5" s="16" t="n"/>
+      <c r="AC5" s="16" t="n"/>
+      <c r="AD5" s="16" t="n"/>
+      <c r="AE5" s="16" t="n"/>
+      <c r="AF5" s="16" t="n"/>
+      <c r="AG5" s="16" t="n"/>
+      <c r="AH5" s="16" t="n"/>
+      <c r="AI5" s="16" t="n"/>
+      <c r="AJ5" s="16" t="n"/>
+      <c r="AK5" s="16" t="n"/>
+      <c r="AL5" s="16" t="n"/>
+      <c r="AM5" s="16" t="n"/>
+      <c r="AN5" s="16" t="n"/>
+      <c r="AO5" s="16" t="n"/>
+      <c r="AP5" s="16" t="n"/>
+      <c r="AQ5" s="16" t="n"/>
+      <c r="AR5" s="16" t="n"/>
+      <c r="AS5" s="16" t="n"/>
+      <c r="AT5" s="16" t="n"/>
+      <c r="AU5" s="16" t="n"/>
+      <c r="AV5" s="16" t="n"/>
+      <c r="AW5" s="16" t="n"/>
+      <c r="AX5" s="16" t="n"/>
+      <c r="AY5" s="16" t="n"/>
+      <c r="AZ5" s="16" t="n"/>
+      <c r="BA5" s="16" t="n"/>
+      <c r="BB5" s="16" t="n"/>
+      <c r="BC5" s="16" t="n"/>
+      <c r="BD5" s="16" t="n"/>
+      <c r="BE5" s="16" t="n"/>
+      <c r="BF5" s="16" t="n"/>
+      <c r="BG5" s="16" t="n"/>
+      <c r="BH5" s="16" t="n"/>
+      <c r="BI5" s="16" t="n"/>
+      <c r="BJ5" s="16" t="n"/>
+      <c r="BK5" s="16" t="n"/>
+      <c r="BL5" s="16" t="n"/>
+      <c r="BM5" s="16" t="n"/>
+      <c r="BN5" s="16" t="n"/>
+      <c r="BO5" s="16" t="n"/>
+      <c r="BP5" s="16" t="n"/>
+      <c r="BQ5" s="16" t="n"/>
+      <c r="BR5" s="16" t="n"/>
+      <c r="BS5" s="16" t="n"/>
+      <c r="BT5" s="16" t="n"/>
+      <c r="BU5" s="16" t="n"/>
+      <c r="BV5" s="16" t="n"/>
+      <c r="BW5" s="16" t="n"/>
+      <c r="BX5" s="16" t="n"/>
+      <c r="BY5" s="16" t="n"/>
+      <c r="BZ5" s="16" t="n"/>
+      <c r="CA5" s="87" t="s">
+        <v>9</v>
+      </c>
       <c r="CF5" s="39" t="s">
-        <v>3</v>
+        <v>10</v>
       </c>
     </row>
     <row customHeight="1" ht="15.75" r="6" s="51" spans="1:95">
+      <c r="A6" s="16" t="n"/>
+      <c r="B6" s="16" t="n"/>
+      <c r="C6" s="16" t="n"/>
+      <c r="D6" s="16" t="n"/>
+      <c r="E6" s="16" t="n"/>
+      <c r="F6" s="16" t="n"/>
+      <c r="G6" s="16" t="n"/>
+      <c r="H6" s="16" t="n"/>
+      <c r="I6" s="16" t="n"/>
+      <c r="J6" s="16" t="n"/>
+      <c r="K6" s="16" t="n"/>
+      <c r="L6" s="16" t="n"/>
+      <c r="M6" s="16" t="n"/>
+      <c r="N6" s="16" t="n"/>
+      <c r="O6" s="16" t="n"/>
+      <c r="P6" s="16" t="n"/>
+      <c r="Q6" s="16" t="n"/>
+      <c r="R6" s="16" t="n"/>
+      <c r="S6" s="16" t="n"/>
+      <c r="T6" s="16" t="n"/>
+      <c r="U6" s="16" t="n"/>
+      <c r="V6" s="16" t="n"/>
+      <c r="W6" s="16" t="n"/>
+      <c r="X6" s="16" t="n"/>
+      <c r="Y6" s="16" t="n"/>
+      <c r="Z6" s="16" t="n"/>
+      <c r="AA6" s="16" t="n"/>
+      <c r="AB6" s="16" t="n"/>
+      <c r="AC6" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="AD6" s="16" t="n"/>
+      <c r="AE6" s="16" t="n"/>
+      <c r="AF6" s="16" t="n"/>
+      <c r="AG6" s="16" t="n"/>
+      <c r="AH6" s="16" t="n"/>
+      <c r="AI6" s="16" t="n"/>
+      <c r="AJ6" s="16" t="n"/>
+      <c r="AK6" s="16" t="n"/>
+      <c r="AL6" s="16" t="n"/>
+      <c r="AM6" s="16" t="n"/>
+      <c r="AN6" s="84" t="s">
+        <v>9</v>
+      </c>
+      <c r="BZ6" s="16" t="n"/>
       <c r="CD6" s="27" t="s">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="CF6" s="42" t="s">
-        <v>5</v>
+        <v>13</v>
       </c>
     </row>
     <row customHeight="1" ht="15.75" r="7" s="51" spans="1:95">
-      <c r="A7" s="38" t="n"/>
+      <c r="A7" s="16" t="n"/>
+      <c r="B7" s="16" t="n"/>
+      <c r="C7" s="16" t="n"/>
+      <c r="D7" s="16" t="n"/>
+      <c r="E7" s="16" t="n"/>
+      <c r="F7" s="16" t="n"/>
+      <c r="G7" s="16" t="n"/>
+      <c r="H7" s="16" t="n"/>
+      <c r="I7" s="16" t="n"/>
+      <c r="J7" s="16" t="n"/>
+      <c r="K7" s="16" t="n"/>
+      <c r="L7" s="16" t="n"/>
+      <c r="M7" s="16" t="n"/>
+      <c r="N7" s="16" t="n"/>
+      <c r="O7" s="16" t="n"/>
+      <c r="P7" s="16" t="n"/>
+      <c r="Q7" s="16" t="n"/>
+      <c r="R7" s="16" t="n"/>
+      <c r="S7" s="16" t="n"/>
+      <c r="T7" s="16" t="n"/>
+      <c r="U7" s="16" t="n"/>
+      <c r="V7" s="16" t="n"/>
+      <c r="W7" s="16" t="n"/>
+      <c r="X7" s="16" t="n"/>
+      <c r="Y7" s="16" t="n"/>
+      <c r="Z7" s="16" t="n"/>
+      <c r="AA7" s="16" t="n"/>
+      <c r="AB7" s="16" t="n"/>
+      <c r="AC7" s="16" t="n"/>
+      <c r="AD7" s="16" t="n"/>
+      <c r="AE7" s="16" t="n"/>
+      <c r="AF7" s="16" t="n"/>
+      <c r="AG7" s="16" t="n"/>
+      <c r="AH7" s="16" t="n"/>
+      <c r="AI7" s="16" t="n"/>
+      <c r="AJ7" s="16" t="n"/>
+      <c r="AK7" s="16" t="n"/>
+      <c r="AL7" s="16" t="n"/>
+      <c r="AM7" s="16" t="n"/>
+      <c r="AN7" s="31" t="s">
+        <v>7</v>
+      </c>
+      <c r="BZ7" s="16" t="n"/>
+      <c r="CA7" s="87" t="s">
+        <v>9</v>
+      </c>
       <c r="CD7" s="27" t="s">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="CF7" s="45" t="n"/>
     </row>
     <row customHeight="1" ht="8.25" r="8" s="51" spans="1:95">
-      <c r="A8" s="31" t="s">
-        <v>7</v>
-      </c>
+      <c r="A8" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="B8" s="16" t="n"/>
+      <c r="C8" s="16" t="n"/>
+      <c r="D8" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="E8" s="16" t="n"/>
+      <c r="F8" s="16" t="n"/>
+      <c r="G8" s="16" t="n"/>
+      <c r="H8" s="16" t="n"/>
+      <c r="I8" s="16" t="n"/>
+      <c r="J8" s="16" t="n"/>
+      <c r="K8" s="84" t="s">
+        <v>9</v>
+      </c>
+      <c r="AB8" s="16" t="n"/>
+      <c r="AC8" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="AD8" s="16" t="n"/>
+      <c r="AE8" s="16" t="n"/>
+      <c r="AF8" s="16" t="n"/>
+      <c r="AG8" s="16" t="n"/>
+      <c r="AH8" s="16" t="n"/>
+      <c r="AI8" s="16" t="n"/>
+      <c r="AJ8" s="16" t="n"/>
+      <c r="AK8" s="16" t="n"/>
+      <c r="AL8" s="16" t="n"/>
+      <c r="AM8" s="16" t="n"/>
+      <c r="AN8" s="84" t="s">
+        <v>9</v>
+      </c>
+      <c r="BZ8" s="16" t="n"/>
       <c r="CD8" s="1" t="n"/>
       <c r="CF8" s="32" t="n"/>
     </row>
     <row customHeight="1" ht="10.5" r="9" s="51" spans="1:95">
-      <c r="A9" s="38" t="n"/>
+      <c r="A9" s="16" t="n"/>
+      <c r="B9" s="16" t="n"/>
+      <c r="C9" s="16" t="n"/>
+      <c r="D9" s="16" t="n"/>
+      <c r="E9" s="16" t="n"/>
+      <c r="F9" s="16" t="n"/>
+      <c r="G9" s="16" t="n"/>
+      <c r="H9" s="16" t="n"/>
+      <c r="I9" s="16" t="n"/>
+      <c r="J9" s="16" t="n"/>
+      <c r="K9" s="31" t="s">
+        <v>7</v>
+      </c>
+      <c r="AB9" s="86" t="n"/>
+      <c r="AC9" s="16" t="n"/>
+      <c r="AD9" s="16" t="n"/>
+      <c r="AE9" s="16" t="n"/>
+      <c r="AF9" s="16" t="n"/>
+      <c r="AG9" s="16" t="n"/>
+      <c r="AH9" s="16" t="n"/>
+      <c r="AI9" s="16" t="n"/>
+      <c r="AJ9" s="16" t="n"/>
+      <c r="AK9" s="16" t="n"/>
+      <c r="AL9" s="16" t="n"/>
+      <c r="AM9" s="16" t="n"/>
+      <c r="AN9" s="31" t="s">
+        <v>7</v>
+      </c>
+      <c r="BZ9" s="16" t="n"/>
+      <c r="CA9" s="16" t="n"/>
+      <c r="CB9" s="16" t="n"/>
+      <c r="CC9" s="16" t="n"/>
+      <c r="CD9" s="16" t="n"/>
+      <c r="CE9" s="16" t="n"/>
+      <c r="CF9" s="16" t="n"/>
+      <c r="CG9" s="16" t="n"/>
+      <c r="CH9" s="16" t="n"/>
+      <c r="CI9" s="16" t="n"/>
+      <c r="CJ9" s="16" t="n"/>
+      <c r="CK9" s="16" t="n"/>
+      <c r="CL9" s="16" t="n"/>
+      <c r="CM9" s="16" t="n"/>
+      <c r="CN9" s="16" t="n"/>
+      <c r="CO9" s="16" t="n"/>
+      <c r="CP9" s="16" t="n"/>
+      <c r="CQ9" s="16" t="n"/>
     </row>
     <row customHeight="1" ht="7.5" r="10" s="51" spans="1:95">
-      <c r="A10" s="31" t="s">
-        <v>8</v>
-      </c>
-      <c r="BO10" s="49" t="s">
-        <v>9</v>
-      </c>
-      <c r="CE10" s="6" t="n"/>
-      <c r="CF10" s="32" t="n"/>
-    </row>
-    <row customHeight="1" ht="9" r="11" s="51" spans="1:95"/>
+      <c r="A10" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="B10" s="16" t="n"/>
+      <c r="C10" s="16" t="n"/>
+      <c r="D10" s="16" t="n"/>
+      <c r="E10" s="16" t="n"/>
+      <c r="F10" s="16" t="n"/>
+      <c r="G10" s="16" t="n"/>
+      <c r="H10" s="16" t="n"/>
+      <c r="I10" s="16" t="n"/>
+      <c r="J10" s="16" t="n"/>
+      <c r="K10" s="16" t="n"/>
+      <c r="L10" s="16" t="n"/>
+      <c r="M10" s="16" t="n"/>
+      <c r="N10" s="16" t="n"/>
+      <c r="O10" s="16" t="n"/>
+      <c r="P10" s="16" t="n"/>
+      <c r="Q10" s="16" t="n"/>
+      <c r="R10" s="16" t="n"/>
+      <c r="S10" s="16" t="n"/>
+      <c r="T10" s="16" t="n"/>
+      <c r="U10" s="16" t="n"/>
+      <c r="V10" s="16" t="n"/>
+      <c r="W10" s="16" t="n"/>
+      <c r="X10" s="16" t="n"/>
+      <c r="Y10" s="16" t="n"/>
+      <c r="Z10" s="16" t="n"/>
+      <c r="AA10" s="16" t="n"/>
+      <c r="AB10" s="16" t="n"/>
+      <c r="AC10" s="16" t="n"/>
+      <c r="AD10" s="16" t="n"/>
+      <c r="AE10" s="16" t="n"/>
+      <c r="AF10" s="16" t="n"/>
+      <c r="AG10" s="16" t="n"/>
+      <c r="AH10" s="16" t="n"/>
+      <c r="AI10" s="16" t="n"/>
+      <c r="AJ10" s="16" t="n"/>
+      <c r="AK10" s="16" t="n"/>
+      <c r="AL10" s="16" t="n"/>
+      <c r="AM10" s="16" t="n"/>
+      <c r="AN10" s="16" t="n"/>
+      <c r="AO10" s="16" t="n"/>
+      <c r="AP10" s="16" t="n"/>
+      <c r="AQ10" s="16" t="n"/>
+      <c r="AR10" s="16" t="n"/>
+      <c r="AS10" s="16" t="n"/>
+      <c r="AT10" s="16" t="n"/>
+      <c r="AU10" s="16" t="n"/>
+      <c r="AV10" s="16" t="n"/>
+      <c r="AW10" s="16" t="n"/>
+      <c r="AX10" s="16" t="n"/>
+      <c r="AY10" s="16" t="n"/>
+      <c r="AZ10" s="16" t="n"/>
+      <c r="BA10" s="16" t="n"/>
+      <c r="BB10" s="16" t="n"/>
+      <c r="BC10" s="16" t="n"/>
+      <c r="BD10" s="16" t="n"/>
+      <c r="BE10" s="16" t="n"/>
+      <c r="BF10" s="16" t="n"/>
+      <c r="BG10" s="16" t="n"/>
+      <c r="BH10" s="16" t="n"/>
+      <c r="BI10" s="16" t="n"/>
+      <c r="BJ10" s="16" t="n"/>
+      <c r="BK10" s="16" t="n"/>
+      <c r="BL10" s="16" t="n"/>
+      <c r="BM10" s="16" t="n"/>
+      <c r="BN10" s="16" t="n"/>
+      <c r="BO10" s="16" t="s">
+        <v>19</v>
+      </c>
+      <c r="BP10" s="16" t="n"/>
+      <c r="BQ10" s="16" t="n"/>
+      <c r="BR10" s="16" t="n"/>
+      <c r="BS10" s="16" t="n"/>
+      <c r="BT10" s="16" t="n"/>
+      <c r="BU10" s="16" t="n"/>
+      <c r="BV10" s="16" t="n"/>
+      <c r="BW10" s="16" t="n"/>
+      <c r="BX10" s="16" t="n"/>
+      <c r="BY10" s="16" t="n"/>
+      <c r="BZ10" s="16" t="n"/>
+      <c r="CA10" s="16" t="n"/>
+      <c r="CB10" s="16" t="n"/>
+      <c r="CC10" s="16" t="n"/>
+      <c r="CD10" s="16" t="n"/>
+      <c r="CE10" s="16" t="n"/>
+      <c r="CF10" s="16" t="n"/>
+      <c r="CG10" s="16" t="n"/>
+      <c r="CH10" s="16" t="n"/>
+      <c r="CI10" s="16" t="n"/>
+      <c r="CJ10" s="16" t="n"/>
+      <c r="CK10" s="16" t="n"/>
+      <c r="CL10" s="16" t="n"/>
+      <c r="CM10" s="16" t="n"/>
+      <c r="CN10" s="16" t="n"/>
+      <c r="CO10" s="16" t="n"/>
+      <c r="CP10" s="16" t="n"/>
+      <c r="CQ10" s="16" t="n"/>
+    </row>
+    <row customHeight="1" ht="9" r="11" s="51" spans="1:95">
+      <c r="A11" s="98" t="s">
+        <v>20</v>
+      </c>
+      <c r="B11" s="98" t="n"/>
+      <c r="C11" s="98" t="n"/>
+      <c r="D11" s="98" t="n"/>
+      <c r="E11" s="98" t="n"/>
+      <c r="F11" s="98" t="n"/>
+      <c r="G11" s="98" t="n"/>
+      <c r="H11" s="98" t="n"/>
+      <c r="I11" s="98" t="n"/>
+      <c r="J11" s="98" t="n"/>
+      <c r="K11" s="98" t="n"/>
+      <c r="L11" s="98" t="n"/>
+      <c r="M11" s="98" t="n"/>
+      <c r="N11" s="98" t="n"/>
+      <c r="O11" s="98" t="n"/>
+      <c r="P11" s="98" t="n"/>
+      <c r="Q11" s="98" t="n"/>
+      <c r="R11" s="98" t="n"/>
+      <c r="S11" s="98" t="n"/>
+      <c r="T11" s="98" t="n"/>
+      <c r="U11" s="98" t="n"/>
+      <c r="V11" s="98" t="n"/>
+      <c r="W11" s="98" t="n"/>
+      <c r="X11" s="88" t="n"/>
+      <c r="AR11" s="98" t="n"/>
+      <c r="AS11" s="98" t="s">
+        <v>2</v>
+      </c>
+      <c r="AT11" s="98" t="n"/>
+      <c r="AU11" s="98" t="n"/>
+      <c r="AV11" s="18" t="n"/>
+      <c r="AW11" s="98" t="n"/>
+      <c r="AX11" s="98" t="n"/>
+      <c r="AY11" s="98" t="s">
+        <v>21</v>
+      </c>
+      <c r="AZ11" s="98" t="n"/>
+      <c r="BA11" s="98" t="n"/>
+      <c r="BB11" s="98" t="n"/>
+      <c r="BC11" s="98" t="n"/>
+      <c r="BD11" s="98" t="n"/>
+      <c r="BE11" s="98" t="n"/>
+      <c r="BF11" s="98" t="n"/>
+      <c r="BG11" s="98" t="n"/>
+      <c r="BH11" s="98" t="n"/>
+      <c r="BI11" s="88" t="n"/>
+      <c r="BV11" s="98" t="n"/>
+      <c r="BW11" s="98" t="n"/>
+      <c r="BX11" s="90" t="s">
+        <v>22</v>
+      </c>
+      <c r="BY11" s="81" t="n"/>
+      <c r="CA11" s="89" t="s">
+        <v>23</v>
+      </c>
+      <c r="CB11" s="98" t="n"/>
+      <c r="CC11" s="88" t="n"/>
+      <c r="CK11" s="89" t="n"/>
+      <c r="CN11" s="90" t="s">
+        <v>24</v>
+      </c>
+      <c r="CQ11" s="98" t="n"/>
+    </row>
     <row customHeight="1" ht="17.25" r="12" s="51" spans="1:95">
-      <c r="B12" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="L12" s="38" t="n"/>
-      <c r="BY12" s="5" t="n"/>
-      <c r="BZ12" s="5" t="n"/>
-      <c r="CA12" s="5" t="n"/>
-      <c r="CB12" s="5" t="n"/>
-      <c r="CC12" s="5" t="n"/>
-      <c r="CD12" s="27" t="s">
-        <v>6</v>
-      </c>
-      <c r="CF12" s="45" t="n"/>
+      <c r="A12" s="98" t="n"/>
+      <c r="B12" s="98" t="s">
+        <v>25</v>
+      </c>
+      <c r="C12" s="98" t="n"/>
+      <c r="D12" s="98" t="n"/>
+      <c r="E12" s="98" t="n"/>
+      <c r="F12" s="98" t="n"/>
+      <c r="G12" s="98" t="n"/>
+      <c r="H12" s="98" t="n"/>
+      <c r="I12" s="98" t="n"/>
+      <c r="J12" s="98" t="n"/>
+      <c r="K12" s="98" t="n"/>
+      <c r="L12" s="98" t="n"/>
+      <c r="M12" s="98" t="n"/>
+      <c r="N12" s="98" t="n"/>
+      <c r="O12" s="98" t="n"/>
+      <c r="P12" s="98" t="n"/>
+      <c r="Q12" s="98" t="n"/>
+      <c r="R12" s="98" t="n"/>
+      <c r="S12" s="98" t="n"/>
+      <c r="T12" s="98" t="n"/>
+      <c r="U12" s="98" t="n"/>
+      <c r="V12" s="98" t="n"/>
+      <c r="W12" s="98" t="n"/>
+      <c r="X12" s="82" t="s">
+        <v>7</v>
+      </c>
+      <c r="AR12" s="98" t="n"/>
+      <c r="AS12" s="98" t="n"/>
+      <c r="AT12" s="98" t="n"/>
+      <c r="AU12" s="98" t="n"/>
+      <c r="AV12" s="18" t="n"/>
+      <c r="AW12" s="98" t="n"/>
+      <c r="AX12" s="98" t="n"/>
+      <c r="AY12" s="98" t="n"/>
+      <c r="AZ12" s="98" t="n"/>
+      <c r="BA12" s="98" t="n"/>
+      <c r="BB12" s="98" t="n"/>
+      <c r="BC12" s="98" t="n"/>
+      <c r="BD12" s="98" t="n"/>
+      <c r="BE12" s="98" t="n"/>
+      <c r="BF12" s="98" t="n"/>
+      <c r="BG12" s="98" t="n"/>
+      <c r="BH12" s="98" t="n"/>
+      <c r="BI12" s="98" t="n"/>
+      <c r="BJ12" s="98" t="n"/>
+      <c r="BK12" s="98" t="n"/>
+      <c r="BL12" s="98" t="n"/>
+      <c r="BM12" s="98" t="n"/>
+      <c r="BN12" s="98" t="n"/>
+      <c r="BO12" s="98" t="n"/>
+      <c r="BP12" s="98" t="n"/>
+      <c r="BQ12" s="98" t="n"/>
+      <c r="BR12" s="98" t="n"/>
+      <c r="BS12" s="98" t="n"/>
+      <c r="BT12" s="98" t="n"/>
+      <c r="BU12" s="98" t="n"/>
+      <c r="BV12" s="98" t="n"/>
+      <c r="BW12" s="98" t="n"/>
+      <c r="BX12" s="98" t="n"/>
+      <c r="BY12" s="98" t="n"/>
+      <c r="BZ12" s="98" t="n"/>
+      <c r="CA12" s="98" t="n"/>
+      <c r="CB12" s="98" t="n"/>
+      <c r="CC12" s="98" t="n"/>
+      <c r="CD12" s="98" t="s">
+        <v>14</v>
+      </c>
+      <c r="CE12" s="98" t="n"/>
+      <c r="CF12" s="98" t="n"/>
+      <c r="CG12" s="98" t="n"/>
+      <c r="CH12" s="98" t="n"/>
+      <c r="CI12" s="98" t="n"/>
+      <c r="CJ12" s="98" t="n"/>
+      <c r="CK12" s="98" t="n"/>
+      <c r="CL12" s="98" t="n"/>
+      <c r="CM12" s="98" t="n"/>
+      <c r="CN12" s="98" t="n"/>
+      <c r="CO12" s="98" t="n"/>
+      <c r="CP12" s="98" t="n"/>
+      <c r="CQ12" s="98" t="n"/>
     </row>
     <row customHeight="1" ht="8.25" r="13" s="51" spans="1:95">
-      <c r="B13" s="5" t="n"/>
-      <c r="L13" s="31" t="s">
-        <v>11</v>
-      </c>
+      <c r="A13" s="98" t="s">
+        <v>26</v>
+      </c>
+      <c r="B13" s="98" t="n"/>
+      <c r="C13" s="98" t="n"/>
+      <c r="D13" s="98" t="n"/>
+      <c r="E13" s="98" t="n"/>
+      <c r="F13" s="98" t="n"/>
+      <c r="G13" s="98" t="n"/>
+      <c r="H13" s="98" t="n"/>
+      <c r="I13" s="98" t="n"/>
+      <c r="J13" s="98" t="n"/>
+      <c r="K13" s="98" t="n"/>
+      <c r="L13" s="98" t="s">
+        <v>27</v>
+      </c>
+      <c r="M13" s="98" t="n"/>
+      <c r="N13" s="91" t="n"/>
+      <c r="AT13" s="98" t="n"/>
+      <c r="AU13" s="98" t="n"/>
+      <c r="AV13" s="18" t="n"/>
+      <c r="AW13" s="98" t="n"/>
+      <c r="AX13" s="98" t="n"/>
+      <c r="AY13" s="98" t="s">
+        <v>28</v>
+      </c>
+      <c r="AZ13" s="98" t="n"/>
+      <c r="BA13" s="98" t="n"/>
+      <c r="BB13" s="98" t="n"/>
+      <c r="BC13" s="98" t="n"/>
+      <c r="BD13" s="98" t="n"/>
+      <c r="BE13" s="88" t="n"/>
       <c r="BY13" s="5" t="n"/>
       <c r="BZ13" s="5" t="n"/>
       <c r="CA13" s="5" t="n"/>
@@ -1432,24 +2180,87 @@
       <c r="CF13" s="32" t="n"/>
     </row>
     <row customHeight="1" ht="11.25" r="14" s="51" spans="1:95">
-      <c r="B14" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="I14" s="38" t="n"/>
+      <c r="A14" s="98" t="n"/>
+      <c r="B14" s="98" t="s">
+        <v>29</v>
+      </c>
+      <c r="C14" s="98" t="n"/>
+      <c r="D14" s="98" t="n"/>
+      <c r="E14" s="98" t="n"/>
+      <c r="F14" s="98" t="n"/>
+      <c r="G14" s="98" t="n"/>
+      <c r="H14" s="98" t="n"/>
+      <c r="I14" s="98" t="n"/>
+      <c r="J14" s="98" t="n"/>
+      <c r="K14" s="98" t="n"/>
+      <c r="L14" s="98" t="n"/>
+      <c r="M14" s="98" t="n"/>
+      <c r="N14" s="98" t="n"/>
+      <c r="O14" s="98" t="n"/>
+      <c r="P14" s="98" t="n"/>
+      <c r="Q14" s="98" t="n"/>
+      <c r="R14" s="98" t="n"/>
+      <c r="S14" s="98" t="n"/>
+      <c r="T14" s="98" t="n"/>
+      <c r="U14" s="98" t="n"/>
+      <c r="V14" s="92" t="s">
+        <v>7</v>
+      </c>
+      <c r="W14" s="98" t="n"/>
+      <c r="X14" s="98" t="n"/>
+      <c r="Y14" s="98" t="n"/>
+      <c r="Z14" s="98" t="n"/>
+      <c r="AA14" s="98" t="n"/>
+      <c r="AB14" s="98" t="n"/>
+      <c r="AC14" s="98" t="n"/>
+      <c r="AD14" s="98" t="n"/>
+      <c r="AE14" s="98" t="n"/>
+      <c r="AF14" s="98" t="n"/>
+      <c r="AG14" s="98" t="n"/>
+      <c r="AH14" s="98" t="n"/>
+      <c r="AI14" s="98" t="n"/>
+      <c r="AJ14" s="98" t="n"/>
+      <c r="AK14" s="98" t="n"/>
+      <c r="AL14" s="98" t="n"/>
+      <c r="AM14" s="98" t="n"/>
+      <c r="AN14" s="98" t="n"/>
+      <c r="AO14" s="98" t="n"/>
+      <c r="AP14" s="98" t="n"/>
+      <c r="AQ14" s="98" t="n"/>
+      <c r="AR14" s="98" t="n"/>
+      <c r="AS14" s="98" t="n"/>
+      <c r="AT14" s="98" t="n"/>
+      <c r="AU14" s="98" t="n"/>
+      <c r="AV14" s="18" t="n"/>
+      <c r="AW14" s="98" t="n"/>
+      <c r="AX14" s="98" t="n"/>
+      <c r="AY14" s="98" t="n"/>
+      <c r="AZ14" s="98" t="n"/>
+      <c r="BA14" s="98" t="n"/>
+      <c r="BB14" s="98" t="n"/>
+      <c r="BC14" s="98" t="n"/>
+      <c r="BD14" s="98" t="n"/>
+      <c r="BE14" s="82" t="s">
+        <v>30</v>
+      </c>
       <c r="BY14" s="5" t="n"/>
       <c r="BZ14" s="5" t="n"/>
       <c r="CA14" s="5" t="n"/>
       <c r="CB14" s="5" t="n"/>
       <c r="CC14" s="5" t="n"/>
       <c r="CD14" s="27" t="s">
-        <v>6</v>
+        <v>14</v>
       </c>
     </row>
     <row customHeight="1" ht="8.25" r="15" s="51" spans="1:95">
+      <c r="A15" s="93" t="n"/>
       <c r="B15" s="5" t="n"/>
       <c r="L15" s="31" t="s">
-        <v>11</v>
-      </c>
+        <v>27</v>
+      </c>
+      <c r="AT15" s="81" t="n"/>
+      <c r="AW15" s="98" t="n"/>
+      <c r="AX15" s="94" t="n"/>
       <c r="BY15" s="5" t="n"/>
       <c r="BZ15" s="5" t="n"/>
       <c r="CA15" s="5" t="n"/>
@@ -1459,1157 +2270,2959 @@
       <c r="CF15" s="32" t="n"/>
     </row>
     <row customHeight="1" ht="11.25" r="16" s="51" spans="1:95">
+      <c r="A16" s="95" t="s">
+        <v>31</v>
+      </c>
       <c r="B16" s="5" t="s">
-        <v>13</v>
+        <v>32</v>
       </c>
       <c r="I16" s="38" t="n"/>
+      <c r="AT16" s="81" t="n"/>
+      <c r="AW16" s="98" t="n"/>
+      <c r="AX16" s="94" t="n"/>
       <c r="BY16" s="5" t="n"/>
       <c r="BZ16" s="5" t="n"/>
       <c r="CA16" s="5" t="n"/>
       <c r="CB16" s="5" t="n"/>
       <c r="CC16" s="5" t="n"/>
       <c r="CD16" s="27" t="s">
-        <v>6</v>
+        <v>14</v>
       </c>
     </row>
     <row customHeight="1" ht="8.25" r="17" s="51" spans="1:95">
-      <c r="B17" s="5" t="n"/>
-      <c r="J17" s="6" t="n"/>
-      <c r="L17" s="31" t="s">
-        <v>11</v>
-      </c>
-      <c r="BY17" s="52" t="s">
-        <v>14</v>
-      </c>
-      <c r="CE17" s="12" t="n"/>
-      <c r="CF17" s="32" t="n"/>
+      <c r="A17" s="98" t="n"/>
+      <c r="B17" s="98" t="n"/>
+      <c r="C17" s="98" t="n"/>
+      <c r="D17" s="98" t="n"/>
+      <c r="E17" s="98" t="n"/>
+      <c r="F17" s="98" t="n"/>
+      <c r="G17" s="98" t="n"/>
+      <c r="H17" s="98" t="n"/>
+      <c r="I17" s="98" t="n"/>
+      <c r="J17" s="98" t="n"/>
+      <c r="K17" s="98" t="n"/>
+      <c r="L17" s="98" t="s">
+        <v>27</v>
+      </c>
+      <c r="M17" s="98" t="n"/>
+      <c r="N17" s="98" t="n"/>
+      <c r="O17" s="98" t="n"/>
+      <c r="P17" s="98" t="n"/>
+      <c r="Q17" s="98" t="n"/>
+      <c r="R17" s="98" t="n"/>
+      <c r="S17" s="98" t="n"/>
+      <c r="T17" s="98" t="n"/>
+      <c r="U17" s="98" t="n"/>
+      <c r="V17" s="98" t="n"/>
+      <c r="W17" s="98" t="n"/>
+      <c r="X17" s="98" t="n"/>
+      <c r="Y17" s="98" t="n"/>
+      <c r="Z17" s="98" t="n"/>
+      <c r="AA17" s="98" t="n"/>
+      <c r="AB17" s="98" t="n"/>
+      <c r="AC17" s="98" t="n"/>
+      <c r="AD17" s="98" t="n"/>
+      <c r="AE17" s="98" t="n"/>
+      <c r="AF17" s="98" t="n"/>
+      <c r="AG17" s="98" t="n"/>
+      <c r="AH17" s="98" t="n"/>
+      <c r="AI17" s="98" t="n"/>
+      <c r="AJ17" s="98" t="n"/>
+      <c r="AK17" s="98" t="n"/>
+      <c r="AL17" s="98" t="n"/>
+      <c r="AM17" s="98" t="n"/>
+      <c r="AN17" s="98" t="n"/>
+      <c r="AO17" s="98" t="n"/>
+      <c r="AP17" s="98" t="n"/>
+      <c r="AQ17" s="98" t="n"/>
+      <c r="AR17" s="98" t="n"/>
+      <c r="AS17" s="98" t="n"/>
+      <c r="AT17" s="98" t="n"/>
+      <c r="AU17" s="98" t="n"/>
+      <c r="AV17" s="18" t="n"/>
+      <c r="AW17" s="98" t="n"/>
+      <c r="AX17" s="98" t="n"/>
+      <c r="AY17" s="98" t="n"/>
+      <c r="AZ17" s="98" t="n"/>
+      <c r="BA17" s="98" t="n"/>
+      <c r="BB17" s="98" t="n"/>
+      <c r="BC17" s="98" t="n"/>
+      <c r="BD17" s="98" t="n"/>
+      <c r="BE17" s="98" t="n"/>
+      <c r="BF17" s="98" t="n"/>
+      <c r="BG17" s="98" t="n"/>
+      <c r="BH17" s="98" t="n"/>
+      <c r="BI17" s="98" t="n"/>
+      <c r="BJ17" s="98" t="n"/>
+      <c r="BK17" s="98" t="n"/>
+      <c r="BL17" s="98" t="n"/>
+      <c r="BM17" s="98" t="n"/>
+      <c r="BN17" s="98" t="n"/>
+      <c r="BO17" s="98" t="n"/>
+      <c r="BP17" s="98" t="n"/>
+      <c r="BQ17" s="98" t="n"/>
+      <c r="BR17" s="98" t="n"/>
+      <c r="BS17" s="98" t="n"/>
+      <c r="BT17" s="98" t="n"/>
+      <c r="BU17" s="98" t="n"/>
+      <c r="BV17" s="98" t="n"/>
+      <c r="BW17" s="98" t="n"/>
+      <c r="BX17" s="98" t="n"/>
+      <c r="BY17" s="98" t="s">
+        <v>33</v>
+      </c>
+      <c r="BZ17" s="98" t="n"/>
+      <c r="CA17" s="98" t="n"/>
+      <c r="CB17" s="98" t="n"/>
+      <c r="CC17" s="98" t="n"/>
+      <c r="CD17" s="98" t="n"/>
+      <c r="CE17" s="98" t="n"/>
+      <c r="CF17" s="98" t="n"/>
+      <c r="CG17" s="98" t="n"/>
+      <c r="CH17" s="98" t="n"/>
+      <c r="CI17" s="98" t="n"/>
+      <c r="CJ17" s="98" t="n"/>
+      <c r="CK17" s="98" t="n"/>
+      <c r="CL17" s="98" t="n"/>
+      <c r="CM17" s="98" t="n"/>
+      <c r="CN17" s="98" t="n"/>
+      <c r="CO17" s="98" t="n"/>
+      <c r="CP17" s="98" t="n"/>
+      <c r="CQ17" s="98" t="n"/>
     </row>
     <row customHeight="1" ht="10.5" r="18" s="51" spans="1:95">
-      <c r="B18" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="I18" s="38" t="n"/>
+      <c r="A18" s="98" t="s">
+        <v>34</v>
+      </c>
+      <c r="B18" s="98" t="s">
+        <v>35</v>
+      </c>
+      <c r="C18" s="98" t="n"/>
+      <c r="D18" s="98" t="n"/>
+      <c r="E18" s="98" t="n"/>
+      <c r="F18" s="98" t="n"/>
+      <c r="G18" s="98" t="n"/>
+      <c r="H18" s="98" t="n"/>
+      <c r="I18" s="98" t="n"/>
+      <c r="J18" s="88" t="n"/>
+      <c r="U18" s="98" t="n"/>
+      <c r="V18" s="88" t="n"/>
+      <c r="AF18" s="98" t="n"/>
+      <c r="AG18" s="96" t="n"/>
+      <c r="AV18" s="18" t="n"/>
+      <c r="AW18" s="98" t="n"/>
+      <c r="AX18" s="94" t="n"/>
       <c r="CE18" s="13" t="n"/>
     </row>
     <row customHeight="1" ht="7.5" r="19" s="51" spans="1:95">
-      <c r="J19" s="6" t="n"/>
+      <c r="A19" s="98" t="n"/>
+      <c r="B19" s="98" t="n"/>
+      <c r="C19" s="98" t="n"/>
+      <c r="D19" s="98" t="n"/>
+      <c r="E19" s="98" t="n"/>
+      <c r="F19" s="98" t="n"/>
+      <c r="G19" s="98" t="n"/>
+      <c r="H19" s="98" t="n"/>
+      <c r="I19" s="98" t="n"/>
+      <c r="J19" s="82" t="s">
+        <v>36</v>
+      </c>
       <c r="K19" s="6" t="n"/>
       <c r="L19" s="31" t="s">
-        <v>16</v>
-      </c>
-      <c r="BY19" s="52" t="s">
-        <v>17</v>
-      </c>
-      <c r="CF19" s="32" t="n"/>
+        <v>37</v>
+      </c>
+      <c r="U19" s="98" t="n"/>
+      <c r="V19" s="82" t="s">
+        <v>38</v>
+      </c>
+      <c r="AF19" s="81" t="n"/>
+      <c r="AG19" s="82" t="s">
+        <v>39</v>
+      </c>
+      <c r="AV19" s="18" t="n"/>
+      <c r="AW19" s="98" t="n"/>
+      <c r="AX19" s="98" t="n"/>
+      <c r="AY19" s="98" t="n"/>
+      <c r="AZ19" s="98" t="n"/>
+      <c r="BA19" s="98" t="n"/>
+      <c r="BB19" s="98" t="n"/>
+      <c r="BC19" s="98" t="n"/>
+      <c r="BD19" s="98" t="n"/>
+      <c r="BE19" s="98" t="n"/>
+      <c r="BF19" s="98" t="n"/>
+      <c r="BG19" s="98" t="n"/>
+      <c r="BH19" s="98" t="n"/>
+      <c r="BI19" s="98" t="n"/>
+      <c r="BJ19" s="98" t="n"/>
+      <c r="BK19" s="98" t="n"/>
+      <c r="BL19" s="98" t="n"/>
+      <c r="BM19" s="98" t="n"/>
+      <c r="BN19" s="98" t="n"/>
+      <c r="BO19" s="98" t="n"/>
+      <c r="BP19" s="98" t="n"/>
+      <c r="BQ19" s="98" t="n"/>
+      <c r="BR19" s="98" t="n"/>
+      <c r="BS19" s="98" t="n"/>
+      <c r="BT19" s="98" t="n"/>
+      <c r="BU19" s="98" t="n"/>
+      <c r="BV19" s="98" t="n"/>
+      <c r="BW19" s="98" t="n"/>
+      <c r="BX19" s="98" t="n"/>
+      <c r="BY19" s="98" t="s">
+        <v>40</v>
+      </c>
+      <c r="BZ19" s="98" t="n"/>
+      <c r="CA19" s="98" t="n"/>
+      <c r="CB19" s="98" t="n"/>
+      <c r="CC19" s="98" t="n"/>
+      <c r="CD19" s="98" t="n"/>
+      <c r="CE19" s="98" t="n"/>
+      <c r="CF19" s="98" t="n"/>
+      <c r="CG19" s="98" t="n"/>
+      <c r="CH19" s="98" t="n"/>
+      <c r="CI19" s="98" t="n"/>
+      <c r="CJ19" s="98" t="n"/>
+      <c r="CK19" s="98" t="n"/>
+      <c r="CL19" s="98" t="n"/>
+      <c r="CM19" s="98" t="n"/>
+      <c r="CN19" s="98" t="n"/>
+      <c r="CO19" s="98" t="n"/>
+      <c r="CP19" s="98" t="n"/>
+      <c r="CQ19" s="98" t="n"/>
     </row>
     <row customHeight="1" ht="10.5" r="20" s="51" spans="1:95">
+      <c r="A20" s="98" t="s">
+        <v>41</v>
+      </c>
+      <c r="B20" s="98" t="n"/>
+      <c r="C20" s="98" t="n"/>
+      <c r="D20" s="98" t="n"/>
+      <c r="E20" s="98" t="n"/>
+      <c r="F20" s="98" t="n"/>
+      <c r="G20" s="98" t="n"/>
+      <c r="H20" s="98" t="n"/>
+      <c r="I20" s="98" t="n"/>
+      <c r="J20" s="98" t="n"/>
+      <c r="K20" s="98" t="n"/>
+      <c r="L20" s="98" t="n"/>
+      <c r="M20" s="98" t="n"/>
+      <c r="N20" s="98" t="n"/>
+      <c r="O20" s="98" t="n"/>
+      <c r="P20" s="98" t="n"/>
+      <c r="Q20" s="98" t="n"/>
+      <c r="R20" s="98" t="n"/>
+      <c r="S20" s="98" t="n"/>
+      <c r="T20" s="98" t="n"/>
+      <c r="U20" s="98" t="n"/>
+      <c r="V20" s="88" t="n"/>
       <c r="Z20" s="7" t="n"/>
+      <c r="AF20" s="98" t="n"/>
+      <c r="AG20" s="96" t="n"/>
+      <c r="AV20" s="18" t="n"/>
+      <c r="AW20" s="98" t="n"/>
+      <c r="AX20" s="98" t="n"/>
+      <c r="AY20" s="98" t="s">
+        <v>42</v>
+      </c>
+      <c r="AZ20" s="98" t="n"/>
+      <c r="BA20" s="98" t="n"/>
+      <c r="BB20" s="98" t="n"/>
+      <c r="BC20" s="98" t="n"/>
+      <c r="BD20" s="98" t="n"/>
+      <c r="BE20" s="98" t="n"/>
+      <c r="BF20" s="88" t="n"/>
+      <c r="BO20" s="98" t="n"/>
+      <c r="BP20" s="88" t="n"/>
+      <c r="BX20" s="98" t="n"/>
+      <c r="BY20" s="88" t="n"/>
     </row>
     <row customHeight="1" ht="15.75" r="21" s="51" spans="1:95">
+      <c r="A21" s="98" t="n"/>
+      <c r="B21" s="98" t="n"/>
+      <c r="C21" s="98" t="n"/>
+      <c r="D21" s="98" t="n"/>
+      <c r="E21" s="98" t="n"/>
+      <c r="F21" s="98" t="n"/>
+      <c r="G21" s="98" t="n"/>
+      <c r="H21" s="98" t="n"/>
+      <c r="I21" s="98" t="n"/>
+      <c r="J21" s="98" t="n"/>
+      <c r="K21" s="98" t="n"/>
+      <c r="L21" s="98" t="n"/>
+      <c r="M21" s="98" t="n"/>
+      <c r="N21" s="98" t="n"/>
+      <c r="O21" s="98" t="n"/>
+      <c r="P21" s="98" t="n"/>
+      <c r="Q21" s="98" t="n"/>
+      <c r="R21" s="98" t="n"/>
+      <c r="S21" s="98" t="n"/>
+      <c r="T21" s="98" t="n"/>
+      <c r="U21" s="98" t="n"/>
+      <c r="V21" s="82" t="s">
+        <v>38</v>
+      </c>
+      <c r="AF21" s="98" t="n"/>
+      <c r="AG21" s="82" t="s">
+        <v>39</v>
+      </c>
+      <c r="AV21" s="18" t="n"/>
+      <c r="AW21" s="98" t="n"/>
+      <c r="AX21" s="98" t="n"/>
+      <c r="AY21" s="98" t="n"/>
+      <c r="AZ21" s="98" t="n"/>
+      <c r="BA21" s="98" t="n"/>
+      <c r="BB21" s="98" t="n"/>
+      <c r="BC21" s="98" t="n"/>
+      <c r="BD21" s="98" t="n"/>
+      <c r="BE21" s="98" t="n"/>
+      <c r="BF21" s="82" t="s">
+        <v>36</v>
+      </c>
       <c r="BL21" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="BY21" s="52" t="s">
-        <v>14</v>
+        <v>43</v>
+      </c>
+      <c r="BO21" s="22" t="n"/>
+      <c r="BP21" s="82" t="s">
+        <v>38</v>
+      </c>
+      <c r="BX21" s="22" t="n"/>
+      <c r="BY21" s="82" t="s">
+        <v>39</v>
       </c>
       <c r="CE21" s="14" t="n"/>
       <c r="CF21" s="45" t="n"/>
     </row>
     <row customHeight="1" ht="15.75" r="22" s="51" spans="1:95">
-      <c r="BY22" s="52" t="s">
-        <v>17</v>
-      </c>
-      <c r="CE22" s="14" t="n"/>
-      <c r="CF22" s="45" t="n"/>
+      <c r="A22" s="98" t="s">
+        <v>44</v>
+      </c>
+      <c r="B22" s="98" t="n"/>
+      <c r="C22" s="98" t="n"/>
+      <c r="D22" s="98" t="n"/>
+      <c r="E22" s="98" t="n"/>
+      <c r="F22" s="98" t="n"/>
+      <c r="G22" s="98" t="n"/>
+      <c r="H22" s="98" t="n"/>
+      <c r="I22" s="98" t="n"/>
+      <c r="J22" s="98" t="n"/>
+      <c r="K22" s="98" t="n"/>
+      <c r="L22" s="88" t="n"/>
+      <c r="U22" s="98" t="n"/>
+      <c r="V22" s="88" t="n"/>
+      <c r="AF22" s="98" t="n"/>
+      <c r="AG22" s="98" t="n"/>
+      <c r="AV22" s="18" t="n"/>
+      <c r="AW22" s="98" t="n"/>
+      <c r="AX22" s="98" t="n"/>
+      <c r="AY22" s="98" t="s">
+        <v>45</v>
+      </c>
+      <c r="AZ22" s="98" t="n"/>
+      <c r="BA22" s="98" t="n"/>
+      <c r="BB22" s="98" t="n"/>
+      <c r="BC22" s="98" t="n"/>
+      <c r="BD22" s="98" t="n"/>
+      <c r="BE22" s="98" t="n"/>
+      <c r="BF22" s="98" t="n"/>
+      <c r="BG22" s="98" t="n"/>
+      <c r="BH22" s="98" t="n"/>
+      <c r="BI22" s="98" t="n"/>
+      <c r="BJ22" s="98" t="n"/>
+      <c r="BK22" s="98" t="n"/>
+      <c r="BL22" s="98" t="n"/>
+      <c r="BM22" s="98" t="n"/>
+      <c r="BN22" s="98" t="n"/>
+      <c r="BO22" s="88" t="n"/>
+      <c r="BX22" s="98" t="n"/>
+      <c r="BY22" s="88" t="s">
+        <v>40</v>
+      </c>
+      <c r="CE22" s="98" t="n"/>
+      <c r="CF22" s="88" t="n"/>
     </row>
     <row customHeight="1" ht="15.75" r="23" s="51" spans="1:95" thickBot="1">
-      <c r="BY23" s="5" t="n"/>
+      <c r="A23" s="98" t="n"/>
+      <c r="B23" s="98" t="n"/>
+      <c r="C23" s="98" t="n"/>
+      <c r="D23" s="98" t="n"/>
+      <c r="E23" s="98" t="n"/>
+      <c r="F23" s="98" t="n"/>
+      <c r="G23" s="98" t="n"/>
+      <c r="H23" s="98" t="n"/>
+      <c r="I23" s="98" t="n"/>
+      <c r="J23" s="98" t="n"/>
+      <c r="K23" s="98" t="n"/>
+      <c r="L23" s="82" t="s">
+        <v>36</v>
+      </c>
+      <c r="U23" s="98" t="n"/>
+      <c r="V23" s="82" t="s">
+        <v>38</v>
+      </c>
+      <c r="AF23" s="81" t="n"/>
+      <c r="AG23" s="82" t="s">
+        <v>39</v>
+      </c>
+      <c r="AV23" s="18" t="n"/>
+      <c r="AW23" s="98" t="n"/>
+      <c r="AX23" s="98" t="n"/>
+      <c r="AY23" s="98" t="n"/>
+      <c r="AZ23" s="98" t="n"/>
+      <c r="BA23" s="98" t="n"/>
+      <c r="BB23" s="98" t="n"/>
+      <c r="BC23" s="98" t="n"/>
+      <c r="BD23" s="98" t="n"/>
+      <c r="BE23" s="98" t="n"/>
+      <c r="BF23" s="98" t="n"/>
+      <c r="BG23" s="98" t="n"/>
+      <c r="BH23" s="98" t="n"/>
+      <c r="BI23" s="98" t="n"/>
+      <c r="BJ23" s="98" t="n"/>
+      <c r="BK23" s="98" t="n"/>
+      <c r="BL23" s="98" t="n"/>
+      <c r="BM23" s="98" t="n"/>
+      <c r="BN23" s="98" t="n"/>
+      <c r="BO23" s="82" t="s">
+        <v>36</v>
+      </c>
+      <c r="BX23" s="22" t="n"/>
+      <c r="BY23" s="82" t="s">
+        <v>38</v>
+      </c>
       <c r="BZ23" s="5" t="n"/>
       <c r="CA23" s="5" t="n"/>
       <c r="CB23" s="5" t="n"/>
       <c r="CC23" s="5" t="n"/>
       <c r="CD23" s="27" t="s">
-        <v>19</v>
-      </c>
-      <c r="CF23" s="72" t="n"/>
+        <v>46</v>
+      </c>
+      <c r="CE23" s="22" t="n"/>
+      <c r="CF23" s="82" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="24" spans="1:95">
+      <c r="A24" s="98" t="n"/>
+      <c r="B24" s="98" t="n"/>
+      <c r="C24" s="98" t="n"/>
+      <c r="D24" s="98" t="n"/>
+      <c r="E24" s="98" t="n"/>
+      <c r="F24" s="98" t="n"/>
+      <c r="G24" s="21" t="s">
+        <v>47</v>
+      </c>
+      <c r="H24" s="98" t="n"/>
+      <c r="I24" s="98" t="n"/>
+      <c r="J24" s="98" t="n"/>
+      <c r="K24" s="98" t="n"/>
+      <c r="L24" s="98" t="n"/>
+      <c r="M24" s="98" t="n"/>
+      <c r="N24" s="98" t="n"/>
+      <c r="O24" s="98" t="n"/>
+      <c r="P24" s="98" t="n"/>
+      <c r="Q24" s="98" t="n"/>
+      <c r="R24" s="98" t="n"/>
+      <c r="S24" s="98" t="n"/>
+      <c r="T24" s="98" t="n"/>
+      <c r="U24" s="98" t="n"/>
+      <c r="V24" s="98" t="n"/>
+      <c r="W24" s="98" t="n"/>
+      <c r="X24" s="98" t="n"/>
+      <c r="Y24" s="98" t="n"/>
+      <c r="Z24" s="98" t="n"/>
+      <c r="AA24" s="98" t="n"/>
+      <c r="AB24" s="98" t="n"/>
+      <c r="AC24" s="98" t="n"/>
+      <c r="AD24" s="98" t="n"/>
+      <c r="AE24" s="98" t="n"/>
+      <c r="AF24" s="98" t="n"/>
+      <c r="AG24" s="98" t="n"/>
+      <c r="AH24" s="98" t="n"/>
+      <c r="AI24" s="98" t="n"/>
+      <c r="AJ24" s="98" t="n"/>
+      <c r="AK24" s="98" t="n"/>
+      <c r="AL24" s="98" t="n"/>
+      <c r="AM24" s="98" t="n"/>
+      <c r="AN24" s="98" t="n"/>
+      <c r="AO24" s="98" t="n"/>
+      <c r="AP24" s="98" t="n"/>
+      <c r="AQ24" s="98" t="n"/>
+      <c r="AR24" s="98" t="n"/>
+      <c r="AS24" s="98" t="n"/>
+      <c r="AT24" s="98" t="n"/>
+      <c r="AU24" s="98" t="n"/>
+      <c r="AV24" s="18" t="n"/>
+      <c r="AW24" s="98" t="n"/>
+      <c r="AX24" s="98" t="n"/>
+      <c r="AY24" s="98" t="s">
+        <v>47</v>
+      </c>
+      <c r="AZ24" s="98" t="n"/>
+      <c r="BA24" s="98" t="n"/>
+      <c r="BB24" s="98" t="n"/>
+      <c r="BC24" s="98" t="n"/>
+      <c r="BD24" s="98" t="n"/>
+      <c r="BE24" s="98" t="n"/>
+      <c r="BF24" s="98" t="n"/>
+      <c r="BG24" s="98" t="n"/>
+      <c r="BH24" s="98" t="n"/>
+      <c r="BI24" s="98" t="n"/>
+      <c r="BJ24" s="98" t="n"/>
+      <c r="BK24" s="98" t="n"/>
+      <c r="BL24" s="98" t="n"/>
+      <c r="BM24" s="98" t="n"/>
+      <c r="BN24" s="98" t="n"/>
+      <c r="BO24" s="98" t="n"/>
+      <c r="BP24" s="98" t="n"/>
+      <c r="BQ24" s="98" t="n"/>
+      <c r="BR24" s="98" t="n"/>
+      <c r="BS24" s="98" t="n"/>
+      <c r="BT24" s="98" t="n"/>
+      <c r="BU24" s="98" t="n"/>
+      <c r="BV24" s="98" t="n"/>
+      <c r="BW24" s="98" t="n"/>
+      <c r="BX24" s="98" t="n"/>
+      <c r="BY24" s="98" t="n"/>
+      <c r="BZ24" s="98" t="n"/>
+      <c r="CA24" s="98" t="n"/>
+      <c r="CB24" s="98" t="n"/>
+      <c r="CC24" s="98" t="n"/>
+      <c r="CD24" s="98" t="n"/>
+      <c r="CE24" s="98" t="n"/>
+      <c r="CF24" s="98" t="n"/>
+      <c r="CG24" s="98" t="n"/>
+      <c r="CH24" s="98" t="n"/>
+      <c r="CI24" s="98" t="n"/>
+      <c r="CJ24" s="98" t="n"/>
+      <c r="CK24" s="98" t="n"/>
+      <c r="CL24" s="98" t="n"/>
+      <c r="CM24" s="98" t="n"/>
+      <c r="CN24" s="98" t="n"/>
+      <c r="CO24" s="98" t="n"/>
+      <c r="CP24" s="98" t="n"/>
+      <c r="CQ24" s="98" t="n"/>
     </row>
     <row customFormat="1" customHeight="1" ht="26.25" r="25" s="5" spans="1:95" thickBot="1">
-      <c r="AX25" s="75" t="s">
-        <v>20</v>
-      </c>
-      <c r="BI25" s="75" t="s">
-        <v>21</v>
-      </c>
+      <c r="A25" s="6" t="n"/>
+      <c r="B25" s="6" t="n"/>
+      <c r="C25" s="6" t="n"/>
+      <c r="D25" s="6" t="n"/>
+      <c r="E25" s="6" t="n"/>
+      <c r="F25" s="6" t="n"/>
+      <c r="G25" s="6" t="n"/>
+      <c r="H25" s="6" t="n"/>
+      <c r="I25" s="6" t="n"/>
+      <c r="J25" s="6" t="n"/>
+      <c r="K25" s="6" t="n"/>
+      <c r="L25" s="6" t="n"/>
+      <c r="M25" s="6" t="n"/>
+      <c r="N25" s="6" t="n"/>
+      <c r="O25" s="6" t="n"/>
+      <c r="P25" s="6" t="n"/>
+      <c r="Q25" s="6" t="n"/>
+      <c r="R25" s="6" t="n"/>
+      <c r="S25" s="6" t="n"/>
+      <c r="T25" s="6" t="n"/>
+      <c r="U25" s="6" t="n"/>
+      <c r="V25" s="6" t="n"/>
+      <c r="W25" s="6" t="n"/>
+      <c r="X25" s="6" t="n"/>
+      <c r="Y25" s="6" t="n"/>
+      <c r="Z25" s="6" t="n"/>
+      <c r="AA25" s="6" t="n"/>
+      <c r="AB25" s="6" t="n"/>
+      <c r="AC25" s="6" t="n"/>
+      <c r="AD25" s="6" t="n"/>
+      <c r="AE25" s="6" t="n"/>
+      <c r="AF25" s="6" t="n"/>
+      <c r="AG25" s="6" t="n"/>
+      <c r="AH25" s="6" t="n"/>
+      <c r="AI25" s="6" t="n"/>
+      <c r="AJ25" s="6" t="n"/>
+      <c r="AK25" s="6" t="n"/>
+      <c r="AL25" s="6" t="n"/>
+      <c r="AM25" s="6" t="n"/>
+      <c r="AN25" s="6" t="n"/>
+      <c r="AO25" s="6" t="n"/>
+      <c r="AP25" s="6" t="n"/>
+      <c r="AQ25" s="6" t="n"/>
+      <c r="AR25" s="6" t="n"/>
+      <c r="AS25" s="6" t="n"/>
+      <c r="AT25" s="6" t="n"/>
+      <c r="AU25" s="6" t="n"/>
+      <c r="AV25" s="6" t="n"/>
+      <c r="AW25" s="6" t="n"/>
+      <c r="AX25" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="AY25" s="6" t="n"/>
+      <c r="AZ25" s="6" t="n"/>
+      <c r="BA25" s="6" t="n"/>
+      <c r="BB25" s="6" t="n"/>
+      <c r="BC25" s="6" t="n"/>
+      <c r="BD25" s="6" t="n"/>
+      <c r="BE25" s="6" t="n"/>
+      <c r="BF25" s="6" t="n"/>
+      <c r="BG25" s="6" t="n"/>
+      <c r="BH25" s="6" t="n"/>
+      <c r="BI25" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="BJ25" s="6" t="n"/>
+      <c r="BK25" s="6" t="n"/>
+      <c r="BL25" s="6" t="n"/>
+      <c r="BM25" s="6" t="n"/>
+      <c r="BN25" s="6" t="n"/>
+      <c r="BO25" s="6" t="n"/>
+      <c r="BP25" s="6" t="n"/>
+      <c r="BQ25" s="6" t="n"/>
+      <c r="BR25" s="6" t="n"/>
+      <c r="BS25" s="6" t="n"/>
+      <c r="BT25" s="6" t="n"/>
+      <c r="BU25" s="6" t="n"/>
+      <c r="BV25" s="6" t="n"/>
+      <c r="BW25" s="6" t="n"/>
+      <c r="BX25" s="6" t="n"/>
+      <c r="BY25" s="6" t="n"/>
+      <c r="BZ25" s="6" t="n"/>
+      <c r="CA25" s="6" t="n"/>
+      <c r="CB25" s="6" t="n"/>
+      <c r="CC25" s="6" t="n"/>
+      <c r="CD25" s="6" t="n"/>
+      <c r="CE25" s="6" t="n"/>
+      <c r="CF25" s="6" t="n"/>
+      <c r="CG25" s="6" t="n"/>
+      <c r="CH25" s="6" t="n"/>
+      <c r="CI25" s="6" t="n"/>
+      <c r="CJ25" s="6" t="n"/>
+      <c r="CK25" s="6" t="n"/>
+      <c r="CL25" s="6" t="n"/>
+      <c r="CM25" s="6" t="n"/>
+      <c r="CN25" s="6" t="n"/>
+      <c r="CO25" s="6" t="n"/>
+      <c r="CP25" s="6" t="n"/>
+      <c r="CQ25" s="23" t="n"/>
     </row>
     <row customFormat="1" customHeight="1" ht="17" r="26" s="5" spans="1:95" thickBot="1">
-      <c r="AD26" s="10" t="s">
-        <v>22</v>
-      </c>
-      <c r="AX26" s="76" t="n"/>
-      <c r="BI26" s="77" t="n"/>
-    </row>
-    <row customFormat="1" customHeight="1" ht="12" r="27" s="5" spans="1:95"/>
+      <c r="A26" s="6" t="n"/>
+      <c r="B26" s="6" t="n"/>
+      <c r="C26" s="6" t="n"/>
+      <c r="D26" s="6" t="n"/>
+      <c r="E26" s="6" t="n"/>
+      <c r="F26" s="6" t="n"/>
+      <c r="G26" s="6" t="n"/>
+      <c r="H26" s="6" t="n"/>
+      <c r="I26" s="6" t="n"/>
+      <c r="J26" s="6" t="n"/>
+      <c r="K26" s="6" t="n"/>
+      <c r="L26" s="6" t="n"/>
+      <c r="M26" s="6" t="n"/>
+      <c r="N26" s="6" t="n"/>
+      <c r="O26" s="6" t="n"/>
+      <c r="P26" s="6" t="n"/>
+      <c r="Q26" s="6" t="n"/>
+      <c r="R26" s="6" t="n"/>
+      <c r="S26" s="6" t="n"/>
+      <c r="T26" s="6" t="n"/>
+      <c r="U26" s="6" t="n"/>
+      <c r="V26" s="6" t="n"/>
+      <c r="W26" s="6" t="n"/>
+      <c r="X26" s="6" t="n"/>
+      <c r="Y26" s="6" t="n"/>
+      <c r="Z26" s="6" t="n"/>
+      <c r="AA26" s="6" t="n"/>
+      <c r="AB26" s="6" t="n"/>
+      <c r="AC26" s="6" t="n"/>
+      <c r="AD26" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="AE26" s="6" t="n"/>
+      <c r="AF26" s="6" t="n"/>
+      <c r="AG26" s="6" t="n"/>
+      <c r="AH26" s="6" t="n"/>
+      <c r="AI26" s="6" t="n"/>
+      <c r="AJ26" s="6" t="n"/>
+      <c r="AK26" s="6" t="n"/>
+      <c r="AL26" s="6" t="n"/>
+      <c r="AM26" s="6" t="n"/>
+      <c r="AN26" s="6" t="n"/>
+      <c r="AO26" s="6" t="n"/>
+      <c r="AP26" s="6" t="n"/>
+      <c r="AQ26" s="6" t="n"/>
+      <c r="AR26" s="6" t="n"/>
+      <c r="AS26" s="6" t="n"/>
+      <c r="AT26" s="6" t="n"/>
+      <c r="AU26" s="6" t="n"/>
+      <c r="AV26" s="6" t="n"/>
+      <c r="AW26" s="6" t="n"/>
+      <c r="AX26" s="6" t="n"/>
+      <c r="AY26" s="6" t="n"/>
+      <c r="AZ26" s="6" t="n"/>
+      <c r="BA26" s="6" t="n"/>
+      <c r="BB26" s="6" t="n"/>
+      <c r="BC26" s="6" t="n"/>
+      <c r="BD26" s="6" t="n"/>
+      <c r="BE26" s="6" t="n"/>
+      <c r="BF26" s="6" t="n"/>
+      <c r="BG26" s="6" t="n"/>
+      <c r="BH26" s="6" t="n"/>
+      <c r="BI26" s="6" t="n"/>
+      <c r="BJ26" s="6" t="n"/>
+      <c r="BK26" s="6" t="n"/>
+      <c r="BL26" s="6" t="n"/>
+      <c r="BM26" s="6" t="n"/>
+      <c r="BN26" s="6" t="n"/>
+      <c r="BO26" s="6" t="n"/>
+      <c r="BP26" s="6" t="n"/>
+      <c r="BQ26" s="6" t="n"/>
+      <c r="BR26" s="6" t="n"/>
+      <c r="BS26" s="6" t="n"/>
+      <c r="BT26" s="6" t="n"/>
+      <c r="BU26" s="6" t="n"/>
+      <c r="BV26" s="6" t="n"/>
+      <c r="BW26" s="6" t="n"/>
+      <c r="BX26" s="6" t="n"/>
+      <c r="BY26" s="6" t="n"/>
+      <c r="BZ26" s="6" t="n"/>
+      <c r="CA26" s="6" t="n"/>
+      <c r="CB26" s="6" t="n"/>
+      <c r="CC26" s="6" t="n"/>
+      <c r="CD26" s="6" t="n"/>
+      <c r="CE26" s="6" t="n"/>
+      <c r="CF26" s="6" t="n"/>
+      <c r="CG26" s="6" t="n"/>
+      <c r="CH26" s="6" t="n"/>
+      <c r="CI26" s="6" t="n"/>
+      <c r="CJ26" s="6" t="n"/>
+      <c r="CK26" s="6" t="n"/>
+      <c r="CL26" s="6" t="n"/>
+      <c r="CM26" s="6" t="n"/>
+      <c r="CN26" s="6" t="n"/>
+      <c r="CO26" s="6" t="n"/>
+      <c r="CP26" s="6" t="n"/>
+      <c r="CQ26" s="82" t="n"/>
+    </row>
+    <row customFormat="1" customHeight="1" ht="12" r="27" s="5" spans="1:95">
+      <c r="A27" s="6" t="n"/>
+      <c r="B27" s="6" t="n"/>
+      <c r="C27" s="6" t="n"/>
+      <c r="D27" s="6" t="n"/>
+      <c r="E27" s="6" t="n"/>
+      <c r="F27" s="6" t="n"/>
+      <c r="G27" s="6" t="n"/>
+      <c r="H27" s="6" t="n"/>
+      <c r="I27" s="6" t="n"/>
+      <c r="J27" s="6" t="n"/>
+      <c r="K27" s="6" t="n"/>
+      <c r="L27" s="6" t="n"/>
+      <c r="M27" s="6" t="n"/>
+      <c r="N27" s="6" t="n"/>
+      <c r="O27" s="6" t="n"/>
+      <c r="P27" s="6" t="n"/>
+      <c r="Q27" s="6" t="n"/>
+      <c r="R27" s="6" t="n"/>
+      <c r="S27" s="6" t="n"/>
+      <c r="T27" s="6" t="n"/>
+      <c r="U27" s="6" t="n"/>
+      <c r="V27" s="6" t="n"/>
+      <c r="W27" s="6" t="n"/>
+      <c r="X27" s="6" t="n"/>
+      <c r="Y27" s="6" t="n"/>
+      <c r="Z27" s="6" t="n"/>
+      <c r="AA27" s="6" t="n"/>
+      <c r="AB27" s="6" t="n"/>
+      <c r="AC27" s="6" t="n"/>
+      <c r="AD27" s="6" t="n"/>
+      <c r="AE27" s="6" t="n"/>
+      <c r="AF27" s="6" t="n"/>
+      <c r="AG27" s="6" t="n"/>
+      <c r="AH27" s="6" t="n"/>
+      <c r="AI27" s="6" t="n"/>
+      <c r="AJ27" s="6" t="n"/>
+      <c r="AK27" s="6" t="n"/>
+      <c r="AL27" s="6" t="n"/>
+      <c r="AM27" s="6" t="n"/>
+      <c r="AN27" s="6" t="n"/>
+      <c r="AO27" s="6" t="n"/>
+      <c r="AP27" s="6" t="n"/>
+      <c r="AQ27" s="6" t="n"/>
+      <c r="AR27" s="6" t="n"/>
+      <c r="AS27" s="6" t="n"/>
+      <c r="AT27" s="6" t="n"/>
+      <c r="AU27" s="6" t="n"/>
+      <c r="AV27" s="6" t="n"/>
+      <c r="AW27" s="6" t="n"/>
+      <c r="AX27" s="6" t="n"/>
+      <c r="AY27" s="6" t="n"/>
+      <c r="AZ27" s="6" t="n"/>
+      <c r="BA27" s="6" t="n"/>
+      <c r="BB27" s="6" t="n"/>
+      <c r="BC27" s="6" t="n"/>
+      <c r="BD27" s="6" t="n"/>
+      <c r="BE27" s="6" t="n"/>
+      <c r="BF27" s="6" t="n"/>
+      <c r="BG27" s="6" t="n"/>
+      <c r="BH27" s="6" t="n"/>
+      <c r="BI27" s="6" t="n"/>
+      <c r="BJ27" s="6" t="n"/>
+      <c r="BK27" s="6" t="n"/>
+      <c r="BL27" s="6" t="n"/>
+      <c r="BM27" s="6" t="n"/>
+      <c r="BN27" s="6" t="n"/>
+      <c r="BO27" s="6" t="n"/>
+      <c r="BP27" s="6" t="n"/>
+      <c r="BQ27" s="6" t="n"/>
+      <c r="BR27" s="6" t="n"/>
+      <c r="BS27" s="6" t="n"/>
+      <c r="BT27" s="6" t="n"/>
+      <c r="BU27" s="6" t="n"/>
+      <c r="BV27" s="6" t="n"/>
+      <c r="BW27" s="6" t="n"/>
+      <c r="BX27" s="6" t="n"/>
+      <c r="BY27" s="6" t="n"/>
+      <c r="BZ27" s="6" t="n"/>
+      <c r="CA27" s="6" t="n"/>
+      <c r="CB27" s="6" t="n"/>
+      <c r="CC27" s="6" t="n"/>
+      <c r="CD27" s="6" t="n"/>
+      <c r="CE27" s="6" t="n"/>
+      <c r="CF27" s="6" t="n"/>
+      <c r="CG27" s="6" t="n"/>
+      <c r="CH27" s="6" t="n"/>
+      <c r="CI27" s="6" t="n"/>
+      <c r="CJ27" s="6" t="n"/>
+      <c r="CK27" s="6" t="n"/>
+      <c r="CL27" s="6" t="n"/>
+      <c r="CM27" s="6" t="n"/>
+      <c r="CN27" s="6" t="n"/>
+      <c r="CO27" s="6" t="n"/>
+      <c r="CP27" s="6" t="n"/>
+      <c r="CQ27" s="98" t="n"/>
+    </row>
     <row customFormat="1" customHeight="1" ht="26.25" r="28" s="11" spans="1:95">
-      <c r="A28" s="56" t="s">
-        <v>23</v>
-      </c>
-      <c r="D28" s="62" t="s">
-        <v>24</v>
-      </c>
-      <c r="X28" s="63" t="s">
-        <v>25</v>
-      </c>
-      <c r="AH28" s="65" t="s">
-        <v>26</v>
-      </c>
-      <c r="AM28" s="71" t="s">
-        <v>27</v>
-      </c>
-      <c r="AW28" s="71" t="s">
-        <v>28</v>
-      </c>
-      <c r="BB28" s="71" t="s">
-        <v>29</v>
-      </c>
-      <c r="BH28" s="71" t="s">
-        <v>30</v>
-      </c>
-      <c r="BQ28" s="71" t="s">
-        <v>31</v>
-      </c>
-      <c r="BX28" s="71" t="s">
-        <v>32</v>
-      </c>
-      <c r="CI28" s="71" t="s">
-        <v>33</v>
-      </c>
+      <c r="A28" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="B28" s="6" t="n"/>
+      <c r="C28" s="6" t="n"/>
+      <c r="D28" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="E28" s="6" t="n"/>
+      <c r="F28" s="6" t="n"/>
+      <c r="G28" s="6" t="n"/>
+      <c r="H28" s="6" t="n"/>
+      <c r="I28" s="6" t="n"/>
+      <c r="J28" s="6" t="n"/>
+      <c r="K28" s="6" t="n"/>
+      <c r="L28" s="6" t="n"/>
+      <c r="M28" s="6" t="n"/>
+      <c r="N28" s="6" t="n"/>
+      <c r="O28" s="6" t="n"/>
+      <c r="P28" s="6" t="n"/>
+      <c r="Q28" s="6" t="n"/>
+      <c r="R28" s="6" t="n"/>
+      <c r="S28" s="6" t="n"/>
+      <c r="T28" s="6" t="n"/>
+      <c r="U28" s="6" t="n"/>
+      <c r="V28" s="6" t="n"/>
+      <c r="W28" s="6" t="n"/>
+      <c r="X28" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="Y28" s="6" t="n"/>
+      <c r="Z28" s="6" t="n"/>
+      <c r="AA28" s="6" t="n"/>
+      <c r="AB28" s="6" t="n"/>
+      <c r="AC28" s="6" t="n"/>
+      <c r="AD28" s="6" t="n"/>
+      <c r="AE28" s="6" t="n"/>
+      <c r="AF28" s="6" t="n"/>
+      <c r="AG28" s="6" t="n"/>
+      <c r="AH28" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="AI28" s="6" t="n"/>
+      <c r="AJ28" s="6" t="n"/>
+      <c r="AK28" s="6" t="n"/>
+      <c r="AL28" s="6" t="n"/>
+      <c r="AM28" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="AN28" s="6" t="n"/>
+      <c r="AO28" s="6" t="n"/>
+      <c r="AP28" s="6" t="n"/>
+      <c r="AQ28" s="6" t="n"/>
+      <c r="AR28" s="6" t="n"/>
+      <c r="AS28" s="6" t="n"/>
+      <c r="AT28" s="6" t="n"/>
+      <c r="AU28" s="6" t="n"/>
+      <c r="AV28" s="6" t="n"/>
+      <c r="AW28" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="AX28" s="6" t="n"/>
+      <c r="AY28" s="6" t="n"/>
+      <c r="AZ28" s="6" t="n"/>
+      <c r="BA28" s="6" t="n"/>
+      <c r="BB28" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="BC28" s="6" t="n"/>
+      <c r="BD28" s="6" t="n"/>
+      <c r="BE28" s="6" t="n"/>
+      <c r="BF28" s="6" t="n"/>
+      <c r="BG28" s="6" t="n"/>
+      <c r="BH28" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="BI28" s="6" t="n"/>
+      <c r="BJ28" s="6" t="n"/>
+      <c r="BK28" s="6" t="n"/>
+      <c r="BL28" s="6" t="n"/>
+      <c r="BM28" s="6" t="n"/>
+      <c r="BN28" s="6" t="n"/>
+      <c r="BO28" s="6" t="n"/>
+      <c r="BP28" s="6" t="n"/>
+      <c r="BQ28" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="BR28" s="6" t="n"/>
+      <c r="BS28" s="6" t="n"/>
+      <c r="BT28" s="6" t="n"/>
+      <c r="BU28" s="6" t="n"/>
+      <c r="BV28" s="6" t="n"/>
+      <c r="BW28" s="6" t="n"/>
+      <c r="BX28" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="BY28" s="6" t="n"/>
+      <c r="BZ28" s="6" t="n"/>
+      <c r="CA28" s="6" t="n"/>
+      <c r="CB28" s="6" t="n"/>
+      <c r="CC28" s="6" t="n"/>
+      <c r="CD28" s="6" t="n"/>
+      <c r="CE28" s="6" t="n"/>
+      <c r="CF28" s="6" t="n"/>
+      <c r="CG28" s="6" t="n"/>
+      <c r="CH28" s="6" t="n"/>
+      <c r="CI28" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="CJ28" s="6" t="n"/>
+      <c r="CK28" s="6" t="n"/>
+      <c r="CL28" s="6" t="n"/>
+      <c r="CM28" s="6" t="n"/>
+      <c r="CN28" s="6" t="n"/>
+      <c r="CO28" s="6" t="n"/>
+      <c r="CP28" s="6" t="n"/>
+      <c r="CQ28" s="98" t="n"/>
     </row>
     <row customFormat="1" customHeight="1" ht="33.75" r="29" s="11" spans="1:95">
-      <c r="D29" s="71" t="s">
-        <v>34</v>
-      </c>
-      <c r="T29" s="62" t="s">
-        <v>35</v>
-      </c>
-      <c r="X29" s="71" t="s">
-        <v>36</v>
-      </c>
-      <c r="AC29" s="68" t="s">
-        <v>37</v>
-      </c>
-      <c r="AM29" s="71" t="s">
-        <v>38</v>
-      </c>
-      <c r="AR29" s="71" t="s">
-        <v>39</v>
-      </c>
-      <c r="BX29" s="79" t="s">
-        <v>40</v>
-      </c>
-      <c r="CB29" s="79" t="s">
-        <v>41</v>
-      </c>
+      <c r="A29" s="6" t="n"/>
+      <c r="B29" s="6" t="n"/>
+      <c r="C29" s="6" t="n"/>
+      <c r="D29" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="E29" s="6" t="n"/>
+      <c r="F29" s="6" t="n"/>
+      <c r="G29" s="6" t="n"/>
+      <c r="H29" s="6" t="n"/>
+      <c r="I29" s="6" t="n"/>
+      <c r="J29" s="6" t="n"/>
+      <c r="K29" s="6" t="n"/>
+      <c r="L29" s="6" t="n"/>
+      <c r="M29" s="6" t="n"/>
+      <c r="N29" s="6" t="n"/>
+      <c r="O29" s="6" t="n"/>
+      <c r="P29" s="6" t="n"/>
+      <c r="Q29" s="6" t="n"/>
+      <c r="R29" s="6" t="n"/>
+      <c r="S29" s="6" t="n"/>
+      <c r="T29" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="U29" s="6" t="n"/>
+      <c r="V29" s="6" t="n"/>
+      <c r="W29" s="6" t="n"/>
+      <c r="X29" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="Y29" s="6" t="n"/>
+      <c r="Z29" s="6" t="n"/>
+      <c r="AA29" s="6" t="n"/>
+      <c r="AB29" s="6" t="n"/>
+      <c r="AC29" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="AD29" s="6" t="n"/>
+      <c r="AE29" s="6" t="n"/>
+      <c r="AF29" s="6" t="n"/>
+      <c r="AG29" s="6" t="n"/>
+      <c r="AH29" s="6" t="n"/>
+      <c r="AI29" s="6" t="n"/>
+      <c r="AJ29" s="6" t="n"/>
+      <c r="AK29" s="6" t="n"/>
+      <c r="AL29" s="6" t="n"/>
+      <c r="AM29" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="AN29" s="6" t="n"/>
+      <c r="AO29" s="6" t="n"/>
+      <c r="AP29" s="6" t="n"/>
+      <c r="AQ29" s="6" t="n"/>
+      <c r="AR29" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="AS29" s="6" t="n"/>
+      <c r="AT29" s="6" t="n"/>
+      <c r="AU29" s="6" t="n"/>
+      <c r="AV29" s="6" t="n"/>
+      <c r="AW29" s="6" t="n"/>
+      <c r="AX29" s="6" t="n"/>
+      <c r="AY29" s="6" t="n"/>
+      <c r="AZ29" s="6" t="n"/>
+      <c r="BA29" s="6" t="n"/>
+      <c r="BB29" s="6" t="n"/>
+      <c r="BC29" s="6" t="n"/>
+      <c r="BD29" s="6" t="n"/>
+      <c r="BE29" s="6" t="n"/>
+      <c r="BF29" s="6" t="n"/>
+      <c r="BG29" s="6" t="n"/>
+      <c r="BH29" s="6" t="n"/>
+      <c r="BI29" s="6" t="n"/>
+      <c r="BJ29" s="6" t="n"/>
+      <c r="BK29" s="6" t="n"/>
+      <c r="BL29" s="6" t="n"/>
+      <c r="BM29" s="6" t="n"/>
+      <c r="BN29" s="6" t="n"/>
+      <c r="BO29" s="6" t="n"/>
+      <c r="BP29" s="6" t="n"/>
+      <c r="BQ29" s="6" t="n"/>
+      <c r="BR29" s="6" t="n"/>
+      <c r="BS29" s="6" t="n"/>
+      <c r="BT29" s="6" t="n"/>
+      <c r="BU29" s="6" t="n"/>
+      <c r="BV29" s="6" t="n"/>
+      <c r="BW29" s="6" t="n"/>
+      <c r="BX29" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="BY29" s="6" t="n"/>
+      <c r="BZ29" s="6" t="n"/>
+      <c r="CA29" s="6" t="n"/>
+      <c r="CB29" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="CC29" s="6" t="n"/>
+      <c r="CD29" s="6" t="n"/>
+      <c r="CE29" s="6" t="n"/>
+      <c r="CF29" s="6" t="n"/>
+      <c r="CG29" s="6" t="n"/>
+      <c r="CH29" s="6" t="n"/>
+      <c r="CI29" s="6" t="n"/>
+      <c r="CJ29" s="6" t="n"/>
+      <c r="CK29" s="6" t="n"/>
+      <c r="CL29" s="6" t="n"/>
+      <c r="CM29" s="6" t="n"/>
+      <c r="CN29" s="6" t="n"/>
+      <c r="CO29" s="6" t="n"/>
+      <c r="CP29" s="6" t="n"/>
+      <c r="CQ29" s="6" t="n"/>
     </row>
     <row customFormat="1" customHeight="1" ht="12" r="30" s="25" spans="1:95">
-      <c r="A30" s="80" t="n">
+      <c r="A30" s="6" t="n">
         <v>1</v>
       </c>
-      <c r="D30" s="80" t="n">
+      <c r="B30" s="6" t="n"/>
+      <c r="C30" s="6" t="n"/>
+      <c r="D30" s="6" t="n">
         <v>2</v>
       </c>
-      <c r="T30" s="80" t="n">
+      <c r="E30" s="6" t="n"/>
+      <c r="F30" s="6" t="n"/>
+      <c r="G30" s="6" t="n"/>
+      <c r="H30" s="6" t="n"/>
+      <c r="I30" s="6" t="n"/>
+      <c r="J30" s="6" t="n"/>
+      <c r="K30" s="6" t="n"/>
+      <c r="L30" s="6" t="n"/>
+      <c r="M30" s="6" t="n"/>
+      <c r="N30" s="6" t="n"/>
+      <c r="O30" s="6" t="n"/>
+      <c r="P30" s="6" t="n"/>
+      <c r="Q30" s="6" t="n"/>
+      <c r="R30" s="6" t="n"/>
+      <c r="S30" s="6" t="n"/>
+      <c r="T30" s="6" t="n">
         <v>3</v>
       </c>
-      <c r="X30" s="80" t="n">
+      <c r="U30" s="6" t="n"/>
+      <c r="V30" s="6" t="n"/>
+      <c r="W30" s="6" t="n"/>
+      <c r="X30" s="6" t="n">
         <v>4</v>
       </c>
-      <c r="AC30" s="80" t="n">
+      <c r="Y30" s="6" t="n"/>
+      <c r="Z30" s="6" t="n"/>
+      <c r="AA30" s="6" t="n"/>
+      <c r="AB30" s="6" t="n"/>
+      <c r="AC30" s="6" t="n">
         <v>5</v>
       </c>
-      <c r="AH30" s="80" t="n">
+      <c r="AD30" s="6" t="n"/>
+      <c r="AE30" s="6" t="n"/>
+      <c r="AF30" s="6" t="n"/>
+      <c r="AG30" s="6" t="n"/>
+      <c r="AH30" s="6" t="n">
         <v>6</v>
       </c>
-      <c r="AM30" s="80" t="n">
+      <c r="AI30" s="6" t="n"/>
+      <c r="AJ30" s="6" t="n"/>
+      <c r="AK30" s="6" t="n"/>
+      <c r="AL30" s="6" t="n"/>
+      <c r="AM30" s="6" t="n">
         <v>7</v>
       </c>
-      <c r="AR30" s="80" t="n">
+      <c r="AN30" s="6" t="n"/>
+      <c r="AO30" s="6" t="n"/>
+      <c r="AP30" s="6" t="n"/>
+      <c r="AQ30" s="6" t="n"/>
+      <c r="AR30" s="6" t="n">
         <v>8</v>
       </c>
-      <c r="AW30" s="80" t="n">
+      <c r="AS30" s="6" t="n"/>
+      <c r="AT30" s="6" t="n"/>
+      <c r="AU30" s="6" t="n"/>
+      <c r="AV30" s="6" t="n"/>
+      <c r="AW30" s="6" t="n">
         <v>9</v>
       </c>
-      <c r="BB30" s="80" t="n">
+      <c r="AX30" s="6" t="n"/>
+      <c r="AY30" s="6" t="n"/>
+      <c r="AZ30" s="6" t="n"/>
+      <c r="BA30" s="6" t="n"/>
+      <c r="BB30" s="6" t="n">
         <v>10</v>
       </c>
-      <c r="BH30" s="80" t="n">
+      <c r="BC30" s="6" t="n"/>
+      <c r="BD30" s="6" t="n"/>
+      <c r="BE30" s="6" t="n"/>
+      <c r="BF30" s="6" t="n"/>
+      <c r="BG30" s="6" t="n"/>
+      <c r="BH30" s="6" t="n">
         <v>11</v>
       </c>
-      <c r="BQ30" s="80" t="n">
+      <c r="BI30" s="6" t="n"/>
+      <c r="BJ30" s="6" t="n"/>
+      <c r="BK30" s="6" t="n"/>
+      <c r="BL30" s="6" t="n"/>
+      <c r="BM30" s="6" t="n"/>
+      <c r="BN30" s="6" t="n"/>
+      <c r="BO30" s="6" t="n"/>
+      <c r="BP30" s="6" t="n"/>
+      <c r="BQ30" s="6" t="n">
         <v>12</v>
       </c>
-      <c r="BX30" s="80" t="n">
+      <c r="BR30" s="6" t="n"/>
+      <c r="BS30" s="6" t="n"/>
+      <c r="BT30" s="6" t="n"/>
+      <c r="BU30" s="6" t="n"/>
+      <c r="BV30" s="6" t="n"/>
+      <c r="BW30" s="6" t="n"/>
+      <c r="BX30" s="6" t="n">
         <v>13</v>
       </c>
-      <c r="CB30" s="80" t="n">
+      <c r="BY30" s="6" t="n"/>
+      <c r="BZ30" s="6" t="n"/>
+      <c r="CA30" s="6" t="n"/>
+      <c r="CB30" s="6" t="n">
         <v>14</v>
       </c>
-      <c r="CI30" s="80" t="n">
+      <c r="CC30" s="6" t="n"/>
+      <c r="CD30" s="6" t="n"/>
+      <c r="CE30" s="6" t="n"/>
+      <c r="CF30" s="6" t="n"/>
+      <c r="CG30" s="6" t="n"/>
+      <c r="CH30" s="6" t="n"/>
+      <c r="CI30" s="6" t="n">
         <v>15</v>
       </c>
+      <c r="CJ30" s="6" t="n"/>
+      <c r="CK30" s="6" t="n"/>
+      <c r="CL30" s="6" t="n"/>
+      <c r="CM30" s="6" t="n"/>
+      <c r="CN30" s="6" t="n"/>
+      <c r="CO30" s="6" t="n"/>
+      <c r="CP30" s="6" t="n"/>
+      <c r="CQ30" s="6" t="n"/>
     </row>
     <row customFormat="1" r="31" s="25" spans="1:95">
       <c r="A31" s="99" t="s">
-        <v>42</v>
+        <v>70</v>
       </c>
       <c r="D31" s="99" t="s">
-        <v>42</v>
+        <v>70</v>
       </c>
       <c r="T31" s="99" t="s">
-        <v>42</v>
+        <v>70</v>
       </c>
       <c r="X31" s="99" t="s">
-        <v>42</v>
+        <v>70</v>
       </c>
       <c r="AC31" s="99" t="s">
-        <v>42</v>
+        <v>70</v>
       </c>
       <c r="AH31" s="99" t="s">
-        <v>42</v>
+        <v>70</v>
       </c>
       <c r="AM31" s="99" t="s">
-        <v>42</v>
+        <v>70</v>
       </c>
       <c r="AR31" s="99" t="s">
-        <v>42</v>
+        <v>70</v>
       </c>
       <c r="AW31" s="99" t="s">
-        <v>42</v>
+        <v>70</v>
       </c>
       <c r="BB31" s="99" t="s">
-        <v>42</v>
+        <v>70</v>
       </c>
       <c r="BH31" s="99" t="s">
-        <v>42</v>
+        <v>70</v>
       </c>
       <c r="BQ31" s="99" t="s">
-        <v>42</v>
+        <v>70</v>
       </c>
       <c r="BX31" s="99" t="s">
-        <v>42</v>
+        <v>70</v>
       </c>
       <c r="CB31" s="99" t="s">
-        <v>42</v>
+        <v>70</v>
       </c>
       <c r="CI31" s="99" t="s">
-        <v>42</v>
+        <v>70</v>
       </c>
     </row>
     <row customFormat="1" customHeight="1" ht="12" r="32" s="25" spans="1:95">
       <c r="A32" s="99" t="s">
-        <v>43</v>
+        <v>71</v>
       </c>
       <c r="D32" s="99" t="s">
-        <v>43</v>
+        <v>71</v>
       </c>
       <c r="T32" s="99" t="s">
-        <v>43</v>
+        <v>71</v>
       </c>
       <c r="X32" s="99" t="s">
-        <v>43</v>
+        <v>71</v>
       </c>
       <c r="AC32" s="99" t="s">
-        <v>43</v>
+        <v>71</v>
       </c>
       <c r="AH32" s="99" t="s">
-        <v>43</v>
+        <v>71</v>
       </c>
       <c r="AM32" s="99" t="s">
-        <v>43</v>
+        <v>71</v>
       </c>
       <c r="AR32" s="99" t="s">
-        <v>43</v>
+        <v>71</v>
       </c>
       <c r="AW32" s="99" t="s">
-        <v>43</v>
+        <v>71</v>
       </c>
       <c r="BB32" s="99" t="s">
-        <v>43</v>
+        <v>71</v>
       </c>
       <c r="BH32" s="99" t="s">
-        <v>43</v>
+        <v>71</v>
       </c>
       <c r="BQ32" s="99" t="s">
-        <v>43</v>
+        <v>71</v>
       </c>
       <c r="BX32" s="99" t="s">
-        <v>43</v>
+        <v>71</v>
       </c>
       <c r="CB32" s="99" t="s">
-        <v>43</v>
+        <v>71</v>
       </c>
       <c r="CI32" s="99" t="s">
-        <v>43</v>
+        <v>71</v>
       </c>
     </row>
     <row customFormat="1" customHeight="1" ht="12" r="33" s="25" spans="1:95">
       <c r="A33" s="99" t="s">
-        <v>44</v>
+        <v>72</v>
       </c>
       <c r="D33" s="99" t="s">
-        <v>44</v>
+        <v>72</v>
       </c>
       <c r="T33" s="99" t="s">
-        <v>44</v>
+        <v>72</v>
       </c>
       <c r="X33" s="99" t="s">
-        <v>44</v>
+        <v>72</v>
       </c>
       <c r="AC33" s="99" t="s">
-        <v>44</v>
+        <v>72</v>
       </c>
       <c r="AH33" s="99" t="s">
-        <v>44</v>
+        <v>72</v>
       </c>
       <c r="AM33" s="99" t="s">
-        <v>44</v>
+        <v>72</v>
       </c>
       <c r="AR33" s="99" t="s">
-        <v>44</v>
+        <v>72</v>
       </c>
       <c r="AW33" s="99" t="s">
-        <v>44</v>
+        <v>72</v>
       </c>
       <c r="BB33" s="99" t="s">
-        <v>44</v>
+        <v>72</v>
       </c>
       <c r="BH33" s="99" t="s">
-        <v>44</v>
+        <v>72</v>
       </c>
       <c r="BQ33" s="99" t="s">
-        <v>44</v>
+        <v>72</v>
       </c>
       <c r="BX33" s="99" t="s">
-        <v>44</v>
+        <v>72</v>
       </c>
       <c r="CB33" s="99" t="s">
-        <v>44</v>
+        <v>72</v>
       </c>
       <c r="CI33" s="99" t="s">
-        <v>44</v>
+        <v>72</v>
       </c>
     </row>
     <row customFormat="1" customHeight="1" ht="12" r="34" s="25" spans="1:95">
       <c r="A34" s="99" t="s">
-        <v>45</v>
+        <v>73</v>
       </c>
       <c r="D34" s="99" t="s">
-        <v>45</v>
+        <v>73</v>
       </c>
       <c r="T34" s="99" t="s">
-        <v>45</v>
+        <v>73</v>
       </c>
       <c r="X34" s="99" t="s">
-        <v>45</v>
+        <v>73</v>
       </c>
       <c r="AC34" s="99" t="s">
-        <v>45</v>
+        <v>73</v>
       </c>
       <c r="AH34" s="99" t="s">
-        <v>45</v>
+        <v>73</v>
       </c>
       <c r="AM34" s="99" t="s">
-        <v>45</v>
+        <v>73</v>
       </c>
       <c r="AR34" s="99" t="s">
-        <v>45</v>
+        <v>73</v>
       </c>
       <c r="AW34" s="99" t="s">
-        <v>45</v>
+        <v>73</v>
       </c>
       <c r="BB34" s="99" t="s">
-        <v>45</v>
+        <v>73</v>
       </c>
       <c r="BH34" s="99" t="s">
-        <v>45</v>
+        <v>73</v>
       </c>
       <c r="BQ34" s="99" t="s">
-        <v>45</v>
+        <v>73</v>
       </c>
       <c r="BX34" s="99" t="s">
-        <v>45</v>
+        <v>73</v>
       </c>
       <c r="CB34" s="99" t="s">
-        <v>45</v>
+        <v>73</v>
       </c>
       <c r="CI34" s="99" t="s">
-        <v>45</v>
+        <v>73</v>
       </c>
     </row>
     <row customFormat="1" customHeight="1" ht="12" r="35" s="25" spans="1:95">
       <c r="A35" s="99" t="s">
-        <v>46</v>
+        <v>74</v>
       </c>
       <c r="D35" s="99" t="s">
-        <v>46</v>
+        <v>74</v>
       </c>
       <c r="T35" s="99" t="s">
-        <v>46</v>
+        <v>74</v>
       </c>
       <c r="X35" s="99" t="s">
-        <v>46</v>
+        <v>74</v>
       </c>
       <c r="AC35" s="99" t="s">
-        <v>46</v>
+        <v>74</v>
       </c>
       <c r="AH35" s="99" t="s">
-        <v>46</v>
+        <v>74</v>
       </c>
       <c r="AM35" s="99" t="s">
-        <v>46</v>
+        <v>74</v>
       </c>
       <c r="AR35" s="99" t="s">
-        <v>46</v>
+        <v>74</v>
       </c>
       <c r="AW35" s="99" t="s">
-        <v>46</v>
+        <v>74</v>
       </c>
       <c r="BB35" s="99" t="s">
-        <v>46</v>
+        <v>74</v>
       </c>
       <c r="BH35" s="99" t="s">
-        <v>46</v>
+        <v>74</v>
       </c>
       <c r="BQ35" s="99" t="s">
-        <v>46</v>
+        <v>74</v>
       </c>
       <c r="BX35" s="99" t="s">
-        <v>46</v>
+        <v>74</v>
       </c>
       <c r="CB35" s="99" t="s">
-        <v>46</v>
+        <v>74</v>
       </c>
       <c r="CI35" s="99" t="s">
-        <v>46</v>
+        <v>74</v>
       </c>
     </row>
     <row customFormat="1" customHeight="1" ht="12" r="36" s="25" spans="1:95">
       <c r="A36" s="99" t="s">
-        <v>47</v>
+        <v>75</v>
       </c>
       <c r="D36" s="99" t="s">
-        <v>47</v>
+        <v>75</v>
       </c>
       <c r="T36" s="99" t="s">
-        <v>47</v>
+        <v>75</v>
       </c>
       <c r="X36" s="99" t="s">
-        <v>47</v>
+        <v>75</v>
       </c>
       <c r="AC36" s="99" t="s">
-        <v>47</v>
+        <v>75</v>
       </c>
       <c r="AH36" s="99" t="s">
-        <v>47</v>
+        <v>75</v>
       </c>
       <c r="AM36" s="99" t="s">
-        <v>47</v>
+        <v>75</v>
       </c>
       <c r="AR36" s="99" t="s">
-        <v>47</v>
+        <v>75</v>
       </c>
       <c r="AW36" s="99" t="s">
-        <v>47</v>
+        <v>75</v>
       </c>
       <c r="BB36" s="99" t="s">
-        <v>47</v>
+        <v>75</v>
       </c>
       <c r="BH36" s="99" t="s">
-        <v>47</v>
+        <v>75</v>
       </c>
       <c r="BQ36" s="99" t="s">
-        <v>47</v>
+        <v>75</v>
       </c>
       <c r="BX36" s="99" t="s">
-        <v>47</v>
+        <v>75</v>
       </c>
       <c r="CB36" s="99" t="s">
-        <v>47</v>
+        <v>75</v>
       </c>
       <c r="CI36" s="99" t="s">
-        <v>47</v>
+        <v>75</v>
       </c>
     </row>
     <row customFormat="1" customHeight="1" ht="12" r="37" s="5" spans="1:95">
       <c r="A37" s="99" t="s">
-        <v>48</v>
+        <v>76</v>
       </c>
       <c r="D37" s="99" t="s">
-        <v>48</v>
+        <v>76</v>
       </c>
       <c r="T37" s="99" t="s">
-        <v>48</v>
+        <v>76</v>
       </c>
       <c r="X37" s="99" t="s">
-        <v>48</v>
+        <v>76</v>
       </c>
       <c r="AC37" s="99" t="s">
-        <v>48</v>
+        <v>76</v>
       </c>
       <c r="AH37" s="99" t="s">
-        <v>48</v>
+        <v>76</v>
       </c>
       <c r="AM37" s="99" t="s">
-        <v>48</v>
+        <v>76</v>
       </c>
       <c r="AR37" s="99" t="s">
-        <v>48</v>
+        <v>76</v>
       </c>
       <c r="AW37" s="99" t="s">
-        <v>48</v>
+        <v>76</v>
       </c>
       <c r="BB37" s="99" t="s">
-        <v>48</v>
+        <v>76</v>
       </c>
       <c r="BH37" s="99" t="s">
-        <v>48</v>
+        <v>76</v>
       </c>
       <c r="BQ37" s="99" t="s">
-        <v>48</v>
+        <v>76</v>
       </c>
       <c r="BX37" s="99" t="s">
-        <v>48</v>
+        <v>76</v>
       </c>
       <c r="CB37" s="99" t="s">
-        <v>48</v>
+        <v>76</v>
       </c>
       <c r="CI37" s="99" t="s">
-        <v>48</v>
+        <v>76</v>
       </c>
     </row>
     <row customFormat="1" customHeight="1" ht="12" r="38" s="5" spans="1:95">
       <c r="A38" s="99" t="s">
-        <v>49</v>
+        <v>77</v>
       </c>
       <c r="D38" s="99" t="s">
-        <v>49</v>
+        <v>77</v>
       </c>
       <c r="T38" s="99" t="s">
-        <v>49</v>
+        <v>77</v>
       </c>
       <c r="X38" s="99" t="s">
-        <v>49</v>
+        <v>77</v>
       </c>
       <c r="AC38" s="99" t="s">
-        <v>49</v>
+        <v>77</v>
       </c>
       <c r="AH38" s="99" t="s">
-        <v>49</v>
+        <v>77</v>
       </c>
       <c r="AM38" s="99" t="s">
-        <v>49</v>
+        <v>77</v>
       </c>
       <c r="AR38" s="99" t="s">
-        <v>49</v>
+        <v>77</v>
       </c>
       <c r="AW38" s="99" t="s">
-        <v>49</v>
+        <v>77</v>
       </c>
       <c r="BB38" s="99" t="s">
-        <v>49</v>
+        <v>77</v>
       </c>
       <c r="BH38" s="99" t="s">
-        <v>49</v>
+        <v>77</v>
       </c>
       <c r="BQ38" s="99" t="s">
-        <v>49</v>
+        <v>77</v>
       </c>
       <c r="BX38" s="99" t="s">
-        <v>49</v>
+        <v>77</v>
       </c>
       <c r="CB38" s="99" t="s">
-        <v>49</v>
+        <v>77</v>
       </c>
       <c r="CI38" s="99" t="s">
-        <v>49</v>
+        <v>77</v>
       </c>
     </row>
     <row customFormat="1" customHeight="1" ht="12" r="39" s="5" spans="1:95">
       <c r="A39" s="99" t="s">
-        <v>50</v>
+        <v>78</v>
       </c>
       <c r="D39" s="99" t="s">
-        <v>50</v>
+        <v>78</v>
       </c>
       <c r="T39" s="99" t="s">
-        <v>50</v>
+        <v>78</v>
       </c>
       <c r="X39" s="99" t="s">
-        <v>50</v>
+        <v>78</v>
       </c>
       <c r="AC39" s="99" t="s">
-        <v>50</v>
+        <v>78</v>
       </c>
       <c r="AH39" s="99" t="s">
-        <v>50</v>
+        <v>78</v>
       </c>
       <c r="AM39" s="99" t="s">
-        <v>50</v>
+        <v>78</v>
       </c>
       <c r="AR39" s="99" t="s">
-        <v>50</v>
+        <v>78</v>
       </c>
       <c r="AW39" s="99" t="s">
-        <v>50</v>
+        <v>78</v>
       </c>
       <c r="BB39" s="99" t="s">
-        <v>50</v>
+        <v>78</v>
       </c>
       <c r="BH39" s="99" t="s">
-        <v>50</v>
+        <v>78</v>
       </c>
       <c r="BQ39" s="99" t="s">
-        <v>50</v>
+        <v>78</v>
       </c>
       <c r="BX39" s="99" t="s">
-        <v>50</v>
+        <v>78</v>
       </c>
       <c r="CB39" s="99" t="s">
-        <v>50</v>
+        <v>78</v>
       </c>
       <c r="CI39" s="99" t="s">
-        <v>50</v>
+        <v>78</v>
       </c>
     </row>
     <row customFormat="1" customHeight="1" ht="12" r="40" s="5" spans="1:95">
       <c r="A40" s="99" t="s">
-        <v>51</v>
+        <v>79</v>
       </c>
       <c r="D40" s="99" t="s">
-        <v>51</v>
+        <v>79</v>
       </c>
       <c r="T40" s="99" t="s">
-        <v>51</v>
+        <v>79</v>
       </c>
       <c r="X40" s="99" t="s">
-        <v>51</v>
+        <v>79</v>
       </c>
       <c r="AC40" s="99" t="s">
-        <v>51</v>
+        <v>79</v>
       </c>
       <c r="AH40" s="99" t="s">
-        <v>51</v>
+        <v>79</v>
       </c>
       <c r="AM40" s="99" t="s">
-        <v>51</v>
+        <v>79</v>
       </c>
       <c r="AR40" s="99" t="s">
-        <v>51</v>
+        <v>79</v>
       </c>
       <c r="AW40" s="99" t="s">
-        <v>51</v>
+        <v>79</v>
       </c>
       <c r="BB40" s="99" t="s">
-        <v>51</v>
+        <v>79</v>
       </c>
       <c r="BH40" s="99" t="s">
-        <v>51</v>
+        <v>79</v>
       </c>
       <c r="BQ40" s="99" t="s">
-        <v>51</v>
+        <v>79</v>
       </c>
       <c r="BX40" s="99" t="s">
-        <v>51</v>
+        <v>79</v>
       </c>
       <c r="CB40" s="99" t="s">
-        <v>51</v>
+        <v>79</v>
       </c>
       <c r="CI40" s="99" t="s">
-        <v>51</v>
+        <v>79</v>
       </c>
     </row>
     <row customFormat="1" customHeight="1" ht="12" r="41" s="5" spans="1:95">
       <c r="A41" s="99" t="s">
-        <v>52</v>
+        <v>80</v>
       </c>
       <c r="D41" s="99" t="s">
-        <v>52</v>
+        <v>80</v>
       </c>
       <c r="T41" s="99" t="s">
-        <v>52</v>
+        <v>80</v>
       </c>
       <c r="X41" s="99" t="s">
-        <v>52</v>
+        <v>80</v>
       </c>
       <c r="AC41" s="99" t="s">
-        <v>52</v>
+        <v>80</v>
       </c>
       <c r="AH41" s="99" t="s">
-        <v>52</v>
+        <v>80</v>
       </c>
       <c r="AM41" s="99" t="s">
-        <v>52</v>
+        <v>80</v>
       </c>
       <c r="AR41" s="99" t="s">
-        <v>52</v>
+        <v>80</v>
       </c>
       <c r="AW41" s="99" t="s">
-        <v>52</v>
+        <v>80</v>
       </c>
       <c r="BB41" s="99" t="s">
-        <v>52</v>
+        <v>80</v>
       </c>
       <c r="BH41" s="99" t="s">
-        <v>52</v>
+        <v>80</v>
       </c>
       <c r="BQ41" s="99" t="s">
-        <v>52</v>
+        <v>80</v>
       </c>
       <c r="BX41" s="99" t="s">
-        <v>52</v>
+        <v>80</v>
       </c>
       <c r="CB41" s="99" t="s">
-        <v>52</v>
+        <v>80</v>
       </c>
       <c r="CI41" s="99" t="s">
-        <v>52</v>
+        <v>80</v>
       </c>
     </row>
     <row customFormat="1" customHeight="1" ht="12" r="42" s="5" spans="1:95">
       <c r="A42" s="99" t="s">
-        <v>53</v>
+        <v>81</v>
       </c>
       <c r="D42" s="99" t="s">
-        <v>53</v>
+        <v>81</v>
       </c>
       <c r="T42" s="99" t="s">
-        <v>53</v>
+        <v>81</v>
       </c>
       <c r="X42" s="99" t="s">
-        <v>53</v>
+        <v>81</v>
       </c>
       <c r="AC42" s="99" t="s">
-        <v>53</v>
+        <v>81</v>
       </c>
       <c r="AH42" s="99" t="s">
-        <v>53</v>
+        <v>81</v>
       </c>
       <c r="AM42" s="99" t="s">
-        <v>53</v>
+        <v>81</v>
       </c>
       <c r="AR42" s="99" t="s">
-        <v>53</v>
+        <v>81</v>
       </c>
       <c r="AW42" s="99" t="s">
-        <v>53</v>
+        <v>81</v>
       </c>
       <c r="BB42" s="99" t="s">
-        <v>53</v>
+        <v>81</v>
       </c>
       <c r="BH42" s="99" t="s">
-        <v>53</v>
+        <v>81</v>
       </c>
       <c r="BQ42" s="99" t="s">
-        <v>53</v>
+        <v>81</v>
       </c>
       <c r="BX42" s="99" t="s">
-        <v>53</v>
+        <v>81</v>
       </c>
       <c r="CB42" s="99" t="s">
-        <v>53</v>
+        <v>81</v>
       </c>
       <c r="CI42" s="99" t="s">
-        <v>53</v>
+        <v>81</v>
       </c>
     </row>
     <row customFormat="1" customHeight="1" ht="12" r="43" s="5" spans="1:95">
       <c r="A43" s="99" t="s">
-        <v>54</v>
+        <v>82</v>
       </c>
       <c r="D43" s="99" t="s">
-        <v>54</v>
+        <v>82</v>
       </c>
       <c r="T43" s="99" t="s">
-        <v>54</v>
+        <v>82</v>
       </c>
       <c r="X43" s="99" t="s">
-        <v>54</v>
+        <v>82</v>
       </c>
       <c r="AC43" s="99" t="s">
-        <v>54</v>
+        <v>82</v>
       </c>
       <c r="AH43" s="99" t="s">
-        <v>54</v>
+        <v>82</v>
       </c>
       <c r="AM43" s="99" t="s">
-        <v>54</v>
+        <v>82</v>
       </c>
       <c r="AR43" s="99" t="s">
-        <v>54</v>
+        <v>82</v>
       </c>
       <c r="AW43" s="99" t="s">
-        <v>54</v>
+        <v>82</v>
       </c>
       <c r="BB43" s="99" t="s">
-        <v>54</v>
+        <v>82</v>
       </c>
       <c r="BH43" s="99" t="s">
-        <v>54</v>
+        <v>82</v>
       </c>
       <c r="BQ43" s="99" t="s">
-        <v>54</v>
+        <v>82</v>
       </c>
       <c r="BX43" s="99" t="s">
-        <v>54</v>
+        <v>82</v>
       </c>
       <c r="CB43" s="99" t="s">
-        <v>54</v>
+        <v>82</v>
       </c>
       <c r="CI43" s="99" t="s">
-        <v>54</v>
+        <v>82</v>
       </c>
     </row>
     <row customFormat="1" customHeight="1" ht="12" r="44" s="5" spans="1:95">
       <c r="A44" s="99" t="s">
-        <v>55</v>
+        <v>83</v>
       </c>
       <c r="D44" s="99" t="s">
-        <v>55</v>
+        <v>83</v>
       </c>
       <c r="T44" s="99" t="s">
-        <v>55</v>
+        <v>83</v>
       </c>
       <c r="X44" s="99" t="s">
-        <v>55</v>
+        <v>83</v>
       </c>
       <c r="AC44" s="99" t="s">
-        <v>55</v>
+        <v>83</v>
       </c>
       <c r="AH44" s="99" t="s">
-        <v>55</v>
+        <v>83</v>
       </c>
       <c r="AM44" s="99" t="s">
-        <v>55</v>
+        <v>83</v>
       </c>
       <c r="AR44" s="99" t="s">
-        <v>55</v>
+        <v>83</v>
       </c>
       <c r="AW44" s="99" t="s">
-        <v>55</v>
+        <v>83</v>
       </c>
       <c r="BB44" s="99" t="s">
-        <v>55</v>
+        <v>83</v>
       </c>
       <c r="BH44" s="99" t="s">
-        <v>55</v>
+        <v>83</v>
       </c>
       <c r="BQ44" s="99" t="s">
-        <v>55</v>
+        <v>83</v>
       </c>
       <c r="BX44" s="99" t="s">
-        <v>55</v>
+        <v>83</v>
       </c>
       <c r="CB44" s="99" t="s">
-        <v>55</v>
+        <v>83</v>
       </c>
       <c r="CI44" s="99" t="s">
-        <v>55</v>
+        <v>83</v>
       </c>
     </row>
     <row customFormat="1" customHeight="1" ht="12" r="45" s="5" spans="1:95">
       <c r="A45" s="99" t="s">
-        <v>56</v>
+        <v>84</v>
       </c>
       <c r="D45" s="99" t="s">
-        <v>56</v>
+        <v>84</v>
       </c>
       <c r="T45" s="99" t="s">
-        <v>56</v>
+        <v>84</v>
       </c>
       <c r="X45" s="99" t="s">
-        <v>56</v>
+        <v>84</v>
       </c>
       <c r="AC45" s="99" t="s">
-        <v>56</v>
+        <v>84</v>
       </c>
       <c r="AH45" s="99" t="s">
-        <v>56</v>
+        <v>84</v>
       </c>
       <c r="AM45" s="99" t="s">
-        <v>56</v>
+        <v>84</v>
       </c>
       <c r="AR45" s="99" t="s">
-        <v>56</v>
+        <v>84</v>
       </c>
       <c r="AW45" s="99" t="s">
-        <v>56</v>
+        <v>84</v>
       </c>
       <c r="BB45" s="99" t="s">
-        <v>56</v>
+        <v>84</v>
       </c>
       <c r="BH45" s="99" t="s">
-        <v>56</v>
+        <v>84</v>
       </c>
       <c r="BQ45" s="99" t="s">
-        <v>56</v>
+        <v>84</v>
       </c>
       <c r="BX45" s="99" t="s">
-        <v>56</v>
+        <v>84</v>
       </c>
       <c r="CB45" s="99" t="s">
-        <v>56</v>
+        <v>84</v>
       </c>
       <c r="CI45" s="99" t="s">
-        <v>56</v>
+        <v>84</v>
       </c>
     </row>
     <row customFormat="1" customHeight="1" ht="12" r="46" s="5" spans="1:95">
       <c r="A46" s="99" t="s">
-        <v>57</v>
+        <v>85</v>
       </c>
       <c r="D46" s="99" t="s">
-        <v>57</v>
+        <v>85</v>
       </c>
       <c r="T46" s="99" t="s">
-        <v>57</v>
+        <v>85</v>
       </c>
       <c r="X46" s="99" t="s">
-        <v>57</v>
+        <v>85</v>
       </c>
       <c r="AC46" s="99" t="s">
-        <v>57</v>
+        <v>85</v>
       </c>
       <c r="AH46" s="99" t="s">
-        <v>57</v>
+        <v>85</v>
       </c>
       <c r="AM46" s="99" t="s">
-        <v>57</v>
+        <v>85</v>
       </c>
       <c r="AR46" s="99" t="s">
-        <v>57</v>
+        <v>85</v>
       </c>
       <c r="AW46" s="99" t="s">
-        <v>57</v>
+        <v>85</v>
       </c>
       <c r="BB46" s="99" t="s">
-        <v>57</v>
+        <v>85</v>
       </c>
       <c r="BH46" s="99" t="s">
-        <v>57</v>
+        <v>85</v>
       </c>
       <c r="BQ46" s="99" t="s">
-        <v>57</v>
+        <v>85</v>
       </c>
       <c r="BX46" s="99" t="s">
-        <v>57</v>
+        <v>85</v>
       </c>
       <c r="CB46" s="99" t="s">
-        <v>57</v>
+        <v>85</v>
       </c>
       <c r="CI46" s="99" t="s">
-        <v>57</v>
+        <v>85</v>
       </c>
     </row>
     <row customFormat="1" customHeight="1" ht="12" r="47" s="5" spans="1:95">
       <c r="A47" s="99" t="s">
-        <v>58</v>
+        <v>86</v>
       </c>
       <c r="D47" s="99" t="s">
-        <v>58</v>
+        <v>86</v>
       </c>
       <c r="T47" s="99" t="s">
-        <v>58</v>
+        <v>86</v>
       </c>
       <c r="X47" s="99" t="s">
-        <v>58</v>
+        <v>86</v>
       </c>
       <c r="AC47" s="99" t="s">
-        <v>58</v>
+        <v>86</v>
       </c>
       <c r="AH47" s="99" t="s">
-        <v>58</v>
+        <v>86</v>
       </c>
       <c r="AM47" s="99" t="s">
-        <v>58</v>
+        <v>86</v>
       </c>
       <c r="AR47" s="99" t="s">
-        <v>58</v>
+        <v>86</v>
       </c>
       <c r="AW47" s="99" t="s">
-        <v>58</v>
+        <v>86</v>
       </c>
       <c r="BB47" s="99" t="s">
-        <v>58</v>
+        <v>86</v>
       </c>
       <c r="BH47" s="99" t="s">
-        <v>58</v>
+        <v>86</v>
       </c>
       <c r="BQ47" s="99" t="s">
-        <v>58</v>
+        <v>86</v>
       </c>
       <c r="BX47" s="99" t="s">
-        <v>58</v>
+        <v>86</v>
       </c>
       <c r="CB47" s="99" t="s">
-        <v>58</v>
+        <v>86</v>
       </c>
       <c r="CI47" s="99" t="s">
-        <v>58</v>
+        <v>86</v>
       </c>
     </row>
     <row customFormat="1" customHeight="1" ht="12" r="48" s="5" spans="1:95">
       <c r="A48" s="99" t="s">
-        <v>59</v>
+        <v>87</v>
       </c>
       <c r="D48" s="99" t="s">
-        <v>59</v>
+        <v>87</v>
       </c>
       <c r="T48" s="99" t="s">
-        <v>59</v>
+        <v>87</v>
       </c>
       <c r="X48" s="99" t="s">
-        <v>59</v>
+        <v>87</v>
       </c>
       <c r="AC48" s="99" t="s">
-        <v>59</v>
+        <v>87</v>
       </c>
       <c r="AH48" s="99" t="s">
-        <v>59</v>
+        <v>87</v>
       </c>
       <c r="AM48" s="99" t="s">
-        <v>59</v>
+        <v>87</v>
       </c>
       <c r="AR48" s="99" t="s">
-        <v>59</v>
+        <v>87</v>
       </c>
       <c r="AW48" s="99" t="s">
-        <v>59</v>
+        <v>87</v>
       </c>
       <c r="BB48" s="99" t="s">
-        <v>59</v>
+        <v>87</v>
       </c>
       <c r="BH48" s="99" t="s">
-        <v>59</v>
+        <v>87</v>
       </c>
       <c r="BQ48" s="99" t="s">
-        <v>59</v>
+        <v>87</v>
       </c>
       <c r="BX48" s="99" t="s">
-        <v>59</v>
+        <v>87</v>
       </c>
       <c r="CB48" s="99" t="s">
-        <v>59</v>
+        <v>87</v>
       </c>
       <c r="CI48" s="99" t="s">
-        <v>59</v>
+        <v>87</v>
       </c>
     </row>
     <row customFormat="1" customHeight="1" ht="12" r="49" s="5" spans="1:95">
       <c r="A49" s="99" t="s">
-        <v>60</v>
+        <v>88</v>
       </c>
       <c r="D49" s="99" t="s">
-        <v>60</v>
+        <v>88</v>
       </c>
       <c r="T49" s="99" t="s">
-        <v>60</v>
+        <v>88</v>
       </c>
       <c r="X49" s="99" t="s">
-        <v>60</v>
+        <v>88</v>
       </c>
       <c r="AC49" s="99" t="s">
-        <v>60</v>
+        <v>88</v>
       </c>
       <c r="AH49" s="99" t="s">
-        <v>60</v>
+        <v>88</v>
       </c>
       <c r="AM49" s="99" t="s">
-        <v>60</v>
+        <v>88</v>
       </c>
       <c r="AR49" s="99" t="s">
-        <v>60</v>
+        <v>88</v>
       </c>
       <c r="AW49" s="99" t="s">
-        <v>60</v>
+        <v>88</v>
       </c>
       <c r="BB49" s="99" t="s">
-        <v>60</v>
+        <v>88</v>
       </c>
       <c r="BH49" s="99" t="s">
-        <v>60</v>
+        <v>88</v>
       </c>
       <c r="BQ49" s="99" t="s">
-        <v>60</v>
+        <v>88</v>
       </c>
       <c r="BX49" s="99" t="s">
-        <v>60</v>
+        <v>88</v>
       </c>
       <c r="CB49" s="99" t="s">
-        <v>60</v>
+        <v>88</v>
       </c>
       <c r="CI49" s="99" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row customFormat="1" customHeight="1" ht="12" r="50" s="5" spans="1:95"/>
+        <v>88</v>
+      </c>
+    </row>
+    <row customFormat="1" customHeight="1" ht="12" r="50" s="5" spans="1:95">
+      <c r="A50" s="6" t="n"/>
+      <c r="B50" s="6" t="n"/>
+      <c r="C50" s="6" t="n"/>
+      <c r="D50" s="6" t="n"/>
+      <c r="E50" s="6" t="n"/>
+      <c r="F50" s="6" t="n"/>
+      <c r="G50" s="6" t="n"/>
+      <c r="H50" s="6" t="n"/>
+      <c r="I50" s="6" t="n"/>
+      <c r="J50" s="6" t="n"/>
+      <c r="K50" s="6" t="n"/>
+      <c r="L50" s="6" t="n"/>
+      <c r="M50" s="6" t="n"/>
+      <c r="N50" s="6" t="n"/>
+      <c r="O50" s="6" t="n"/>
+      <c r="P50" s="6" t="n"/>
+      <c r="Q50" s="6" t="n"/>
+      <c r="R50" s="6" t="n"/>
+      <c r="S50" s="6" t="n"/>
+      <c r="T50" s="6" t="n"/>
+      <c r="U50" s="6" t="n"/>
+      <c r="V50" s="6" t="n"/>
+      <c r="W50" s="6" t="n"/>
+      <c r="X50" s="6" t="n"/>
+      <c r="Y50" s="6" t="n"/>
+      <c r="Z50" s="6" t="n"/>
+      <c r="AA50" s="6" t="n"/>
+      <c r="AB50" s="6" t="n"/>
+      <c r="AC50" s="6" t="n"/>
+      <c r="AD50" s="6" t="n"/>
+      <c r="AE50" s="6" t="n"/>
+      <c r="AF50" s="6" t="n"/>
+      <c r="AG50" s="6" t="n"/>
+      <c r="AH50" s="6" t="n"/>
+      <c r="AI50" s="6" t="n"/>
+      <c r="AJ50" s="6" t="n"/>
+      <c r="AK50" s="6" t="n"/>
+      <c r="AL50" s="6" t="n"/>
+      <c r="AM50" s="6" t="n"/>
+      <c r="AN50" s="6" t="n"/>
+      <c r="AO50" s="6" t="n"/>
+      <c r="AP50" s="6" t="n"/>
+      <c r="AQ50" s="6" t="n"/>
+      <c r="AR50" s="6" t="n"/>
+      <c r="AS50" s="6" t="n"/>
+      <c r="AT50" s="6" t="n"/>
+      <c r="AU50" s="6" t="n"/>
+      <c r="AV50" s="6" t="n"/>
+      <c r="AW50" s="6" t="n"/>
+      <c r="AX50" s="6" t="n"/>
+      <c r="AY50" s="6" t="n"/>
+      <c r="AZ50" s="6" t="n"/>
+      <c r="BA50" s="6" t="n"/>
+      <c r="BB50" s="6" t="n"/>
+      <c r="BC50" s="6" t="n"/>
+      <c r="BD50" s="6" t="n"/>
+      <c r="BE50" s="6" t="n"/>
+      <c r="BF50" s="6" t="n"/>
+      <c r="BG50" s="6" t="n"/>
+      <c r="BH50" s="6" t="n"/>
+      <c r="BI50" s="6" t="n"/>
+      <c r="BJ50" s="6" t="n"/>
+      <c r="BK50" s="6" t="n"/>
+      <c r="BL50" s="6" t="n"/>
+      <c r="BM50" s="6" t="n"/>
+      <c r="BN50" s="6" t="n"/>
+      <c r="BO50" s="6" t="n"/>
+      <c r="BP50" s="6" t="n"/>
+      <c r="BQ50" s="6" t="n"/>
+      <c r="BR50" s="6" t="n"/>
+      <c r="BS50" s="6" t="n"/>
+      <c r="BT50" s="6" t="n"/>
+      <c r="BU50" s="6" t="n"/>
+      <c r="BV50" s="6" t="n"/>
+      <c r="BW50" s="6" t="n"/>
+      <c r="BX50" s="6" t="n"/>
+      <c r="BY50" s="6" t="n"/>
+      <c r="BZ50" s="6" t="n"/>
+      <c r="CA50" s="6" t="n"/>
+      <c r="CB50" s="6" t="n"/>
+      <c r="CC50" s="6" t="n"/>
+      <c r="CD50" s="6" t="n"/>
+      <c r="CE50" s="6" t="n"/>
+      <c r="CF50" s="6" t="n"/>
+      <c r="CG50" s="6" t="n"/>
+      <c r="CH50" s="6" t="n"/>
+      <c r="CI50" s="6" t="n"/>
+      <c r="CJ50" s="6" t="n"/>
+      <c r="CK50" s="6" t="n"/>
+      <c r="CL50" s="6" t="n"/>
+      <c r="CM50" s="6" t="n"/>
+      <c r="CN50" s="6" t="n"/>
+      <c r="CO50" s="6" t="n"/>
+      <c r="CP50" s="6" t="n"/>
+      <c r="CQ50" s="6" t="n"/>
+    </row>
     <row customFormat="1" customHeight="1" ht="26.25" r="51" s="5" spans="1:95">
-      <c r="D51" t="s">
-        <v>61</v>
-      </c>
-      <c r="Y51" t="s">
-        <v>62</v>
-      </c>
-      <c r="BO51" t="s">
-        <v>63</v>
-      </c>
+      <c r="A51" s="6" t="n"/>
+      <c r="B51" s="6" t="n"/>
+      <c r="C51" s="6" t="n"/>
+      <c r="D51" s="6" t="n"/>
+      <c r="E51" s="6" t="n"/>
+      <c r="F51" s="6" t="n"/>
+      <c r="G51" s="6" t="n"/>
+      <c r="H51" s="6" t="n"/>
+      <c r="I51" s="6" t="n"/>
+      <c r="J51" s="6" t="n"/>
+      <c r="K51" s="6" t="n"/>
+      <c r="L51" s="6" t="n"/>
+      <c r="M51" s="6" t="n"/>
+      <c r="N51" s="6" t="n"/>
+      <c r="O51" s="6" t="n"/>
+      <c r="P51" s="6" t="n"/>
+      <c r="Q51" s="6" t="n"/>
+      <c r="R51" s="6" t="n"/>
+      <c r="S51" s="6" t="n"/>
+      <c r="T51" s="6" t="n"/>
+      <c r="U51" s="6" t="n"/>
+      <c r="V51" s="6" t="n"/>
+      <c r="W51" s="6" t="n"/>
+      <c r="X51" s="6" t="n"/>
+      <c r="Y51" s="6" t="n"/>
+      <c r="Z51" s="6" t="n"/>
+      <c r="AA51" s="6" t="n"/>
+      <c r="AB51" s="6" t="n"/>
+      <c r="AC51" s="6" t="n"/>
+      <c r="AD51" s="6" t="n"/>
+      <c r="AE51" s="6" t="n"/>
+      <c r="AF51" s="6" t="n"/>
+      <c r="AG51" s="6" t="n"/>
+      <c r="AH51" s="6" t="n"/>
+      <c r="AI51" s="6" t="n"/>
+      <c r="AJ51" s="6" t="n"/>
+      <c r="AK51" s="6" t="n"/>
+      <c r="AL51" s="6" t="n"/>
+      <c r="AM51" s="6" t="n"/>
+      <c r="AN51" s="6" t="n"/>
+      <c r="AO51" s="6" t="n"/>
+      <c r="AP51" s="6" t="n"/>
+      <c r="AQ51" s="6" t="n"/>
+      <c r="AR51" s="6" t="n"/>
+      <c r="AS51" s="6" t="n"/>
+      <c r="AT51" s="6" t="n"/>
+      <c r="AU51" s="6" t="n"/>
+      <c r="AV51" s="6" t="n"/>
+      <c r="AW51" s="6" t="n"/>
+      <c r="AX51" s="6" t="n"/>
+      <c r="AY51" s="6" t="n"/>
+      <c r="AZ51" s="6" t="n"/>
+      <c r="BA51" s="6" t="n"/>
+      <c r="BB51" s="6" t="n"/>
+      <c r="BC51" s="6" t="n"/>
+      <c r="BD51" s="6" t="n"/>
+      <c r="BE51" s="6" t="n"/>
+      <c r="BF51" s="6" t="n"/>
+      <c r="BG51" s="6" t="n"/>
+      <c r="BH51" s="6" t="n"/>
+      <c r="BI51" s="6" t="n"/>
+      <c r="BJ51" s="6" t="n"/>
+      <c r="BK51" s="6" t="n"/>
+      <c r="BL51" s="6" t="n"/>
+      <c r="BM51" s="6" t="n"/>
+      <c r="BN51" s="6" t="n"/>
+      <c r="BO51" s="6" t="n"/>
+      <c r="BP51" s="6" t="n"/>
+      <c r="BQ51" s="6" t="n"/>
+      <c r="BR51" s="6" t="n"/>
+      <c r="BS51" s="6" t="n"/>
+      <c r="BT51" s="6" t="n"/>
+      <c r="BU51" s="6" t="n"/>
+      <c r="BV51" s="6" t="n"/>
+      <c r="BW51" s="6" t="n"/>
+      <c r="BX51" s="6" t="n"/>
+      <c r="BY51" s="6" t="n"/>
+      <c r="BZ51" s="6" t="n"/>
+      <c r="CA51" s="6" t="n"/>
+      <c r="CB51" s="6" t="n"/>
+      <c r="CC51" s="6" t="n"/>
+      <c r="CD51" s="6" t="n"/>
+      <c r="CE51" s="6" t="n"/>
+      <c r="CF51" s="6" t="n"/>
+      <c r="CG51" s="6" t="n"/>
+      <c r="CH51" s="6" t="n"/>
+      <c r="CI51" s="6" t="n"/>
+      <c r="CJ51" s="6" t="n"/>
+      <c r="CK51" s="6" t="n"/>
+      <c r="CL51" s="6" t="n"/>
+      <c r="CM51" s="6" t="n"/>
+      <c r="CN51" s="6" t="n"/>
+      <c r="CO51" s="6" t="n"/>
+      <c r="CP51" s="6" t="n"/>
+      <c r="CQ51" s="6" t="n"/>
     </row>
     <row customFormat="1" customHeight="1" ht="36" r="52" s="5" spans="1:95">
-      <c r="D52" t="s">
-        <v>64</v>
-      </c>
-      <c r="BO52" t="s">
-        <v>65</v>
-      </c>
+      <c r="A52" s="6" t="n"/>
+      <c r="B52" s="6" t="n"/>
+      <c r="C52" s="6" t="n"/>
+      <c r="D52" s="6" t="n"/>
+      <c r="E52" s="6" t="n"/>
+      <c r="F52" s="6" t="n"/>
+      <c r="G52" s="6" t="n"/>
+      <c r="H52" s="6" t="n"/>
+      <c r="I52" s="6" t="n"/>
+      <c r="J52" s="6" t="n"/>
+      <c r="K52" s="6" t="n"/>
+      <c r="L52" s="6" t="n"/>
+      <c r="M52" s="6" t="n"/>
+      <c r="N52" s="6" t="n"/>
+      <c r="O52" s="6" t="n"/>
+      <c r="P52" s="6" t="n"/>
+      <c r="Q52" s="6" t="n"/>
+      <c r="R52" s="6" t="n"/>
+      <c r="S52" s="6" t="n"/>
+      <c r="T52" s="6" t="n"/>
+      <c r="U52" s="6" t="n"/>
+      <c r="V52" s="6" t="n"/>
+      <c r="W52" s="6" t="n"/>
+      <c r="X52" s="6" t="n"/>
+      <c r="Y52" s="6" t="n"/>
+      <c r="Z52" s="6" t="n"/>
+      <c r="AA52" s="6" t="n"/>
+      <c r="AB52" s="6" t="n"/>
+      <c r="AC52" s="6" t="n"/>
+      <c r="AD52" s="6" t="n"/>
+      <c r="AE52" s="6" t="n"/>
+      <c r="AF52" s="6" t="n"/>
+      <c r="AG52" s="6" t="n"/>
+      <c r="AH52" s="6" t="n"/>
+      <c r="AI52" s="6" t="n"/>
+      <c r="AJ52" s="6" t="n"/>
+      <c r="AK52" s="6" t="n"/>
+      <c r="AL52" s="6" t="n"/>
+      <c r="AM52" s="6" t="n"/>
+      <c r="AN52" s="6" t="n"/>
+      <c r="AO52" s="6" t="n"/>
+      <c r="AP52" s="6" t="n"/>
+      <c r="AQ52" s="6" t="n"/>
+      <c r="AR52" s="6" t="n"/>
+      <c r="AS52" s="6" t="n"/>
+      <c r="AT52" s="6" t="n"/>
+      <c r="AU52" s="6" t="n"/>
+      <c r="AV52" s="6" t="n"/>
+      <c r="AW52" s="6" t="n"/>
+      <c r="AX52" s="6" t="n"/>
+      <c r="AY52" s="6" t="n"/>
+      <c r="AZ52" s="6" t="n"/>
+      <c r="BA52" s="6" t="n"/>
+      <c r="BB52" s="6" t="n"/>
+      <c r="BC52" s="6" t="n"/>
+      <c r="BD52" s="6" t="n"/>
+      <c r="BE52" s="6" t="n"/>
+      <c r="BF52" s="6" t="n"/>
+      <c r="BG52" s="6" t="n"/>
+      <c r="BH52" s="6" t="n"/>
+      <c r="BI52" s="6" t="n"/>
+      <c r="BJ52" s="6" t="n"/>
+      <c r="BK52" s="6" t="n"/>
+      <c r="BL52" s="6" t="n"/>
+      <c r="BM52" s="6" t="n"/>
+      <c r="BN52" s="6" t="n"/>
+      <c r="BO52" s="6" t="n"/>
+      <c r="BP52" s="6" t="n"/>
+      <c r="BQ52" s="6" t="n"/>
+      <c r="BR52" s="6" t="n"/>
+      <c r="BS52" s="6" t="n"/>
+      <c r="BT52" s="6" t="n"/>
+      <c r="BU52" s="6" t="n"/>
+      <c r="BV52" s="6" t="n"/>
+      <c r="BW52" s="6" t="n"/>
+      <c r="BX52" s="6" t="n"/>
+      <c r="BY52" s="6" t="n"/>
+      <c r="BZ52" s="6" t="n"/>
+      <c r="CA52" s="6" t="n"/>
+      <c r="CB52" s="6" t="n"/>
+      <c r="CC52" s="6" t="n"/>
+      <c r="CD52" s="6" t="n"/>
+      <c r="CE52" s="6" t="n"/>
+      <c r="CF52" s="6" t="n"/>
+      <c r="CG52" s="6" t="n"/>
+      <c r="CH52" s="6" t="n"/>
+      <c r="CI52" s="6" t="n"/>
+      <c r="CJ52" s="6" t="n"/>
+      <c r="CK52" s="6" t="n"/>
+      <c r="CL52" s="6" t="n"/>
+      <c r="CM52" s="6" t="n"/>
+      <c r="CN52" s="6" t="n"/>
+      <c r="CO52" s="6" t="n"/>
+      <c r="CP52" s="6" t="n"/>
+      <c r="CQ52" s="6" t="n"/>
     </row>
     <row customFormat="1" customHeight="1" ht="12" r="53" s="5" spans="1:95">
-      <c r="O53" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row customFormat="1" customHeight="1" ht="12" r="54" s="5" spans="1:95"/>
+      <c r="A53" s="6" t="n"/>
+      <c r="B53" s="6" t="n"/>
+      <c r="C53" s="6" t="n"/>
+      <c r="D53" s="6" t="n"/>
+      <c r="E53" s="6" t="n"/>
+      <c r="F53" s="6" t="n"/>
+      <c r="G53" s="6" t="n"/>
+      <c r="H53" s="6" t="n"/>
+      <c r="I53" s="6" t="n"/>
+      <c r="J53" s="6" t="n"/>
+      <c r="K53" s="6" t="n"/>
+      <c r="L53" s="6" t="n"/>
+      <c r="M53" s="6" t="n"/>
+      <c r="N53" s="6" t="n"/>
+      <c r="O53" s="6" t="n"/>
+      <c r="P53" s="6" t="n"/>
+      <c r="Q53" s="6" t="n"/>
+      <c r="R53" s="6" t="n"/>
+      <c r="S53" s="6" t="n"/>
+      <c r="T53" s="6" t="n"/>
+      <c r="U53" s="6" t="n"/>
+      <c r="V53" s="6" t="n"/>
+      <c r="W53" s="6" t="n"/>
+      <c r="X53" s="6" t="n"/>
+      <c r="Y53" s="6" t="n"/>
+      <c r="Z53" s="6" t="n"/>
+      <c r="AA53" s="6" t="n"/>
+      <c r="AB53" s="6" t="n"/>
+      <c r="AC53" s="6" t="n"/>
+      <c r="AD53" s="6" t="n"/>
+      <c r="AE53" s="6" t="n"/>
+      <c r="AF53" s="6" t="n"/>
+      <c r="AG53" s="6" t="n"/>
+      <c r="AH53" s="6" t="n"/>
+      <c r="AI53" s="6" t="n"/>
+      <c r="AJ53" s="6" t="n"/>
+      <c r="AK53" s="6" t="n"/>
+      <c r="AL53" s="6" t="n"/>
+      <c r="AM53" s="6" t="n"/>
+      <c r="AN53" s="6" t="n"/>
+      <c r="AO53" s="6" t="n"/>
+      <c r="AP53" s="6" t="n"/>
+      <c r="AQ53" s="6" t="n"/>
+      <c r="AR53" s="6" t="n"/>
+      <c r="AS53" s="6" t="n"/>
+      <c r="AT53" s="6" t="n"/>
+      <c r="AU53" s="6" t="n"/>
+      <c r="AV53" s="6" t="n"/>
+      <c r="AW53" s="6" t="n"/>
+      <c r="AX53" s="6" t="n"/>
+      <c r="AY53" s="6" t="n"/>
+      <c r="AZ53" s="6" t="n"/>
+      <c r="BA53" s="6" t="n"/>
+      <c r="BB53" s="6" t="n"/>
+      <c r="BC53" s="6" t="n"/>
+      <c r="BD53" s="6" t="n"/>
+      <c r="BE53" s="6" t="n"/>
+      <c r="BF53" s="6" t="n"/>
+      <c r="BG53" s="6" t="n"/>
+      <c r="BH53" s="6" t="n"/>
+      <c r="BI53" s="6" t="n"/>
+      <c r="BJ53" s="6" t="n"/>
+      <c r="BK53" s="6" t="n"/>
+      <c r="BL53" s="6" t="n"/>
+      <c r="BM53" s="6" t="n"/>
+      <c r="BN53" s="6" t="n"/>
+      <c r="BO53" s="6" t="n"/>
+      <c r="BP53" s="6" t="n"/>
+      <c r="BQ53" s="6" t="n"/>
+      <c r="BR53" s="6" t="n"/>
+      <c r="BS53" s="6" t="n"/>
+      <c r="BT53" s="6" t="n"/>
+      <c r="BU53" s="6" t="n"/>
+      <c r="BV53" s="6" t="n"/>
+      <c r="BW53" s="6" t="n"/>
+      <c r="BX53" s="6" t="n"/>
+      <c r="BY53" s="6" t="n"/>
+      <c r="BZ53" s="6" t="n"/>
+      <c r="CA53" s="6" t="n"/>
+      <c r="CB53" s="6" t="n"/>
+      <c r="CC53" s="6" t="n"/>
+      <c r="CD53" s="6" t="n"/>
+      <c r="CE53" s="6" t="n"/>
+      <c r="CF53" s="6" t="n"/>
+      <c r="CG53" s="6" t="n"/>
+      <c r="CH53" s="6" t="n"/>
+      <c r="CI53" s="6" t="n"/>
+      <c r="CJ53" s="6" t="n"/>
+      <c r="CK53" s="6" t="n"/>
+      <c r="CL53" s="6" t="n"/>
+      <c r="CM53" s="6" t="n"/>
+      <c r="CN53" s="6" t="n"/>
+      <c r="CO53" s="6" t="n"/>
+      <c r="CP53" s="6" t="n"/>
+      <c r="CQ53" s="6" t="n"/>
+    </row>
+    <row customFormat="1" customHeight="1" ht="12" r="54" s="5" spans="1:95">
+      <c r="A54" s="6" t="n"/>
+      <c r="B54" s="6" t="n"/>
+      <c r="C54" s="6" t="n"/>
+      <c r="D54" s="6" t="n"/>
+      <c r="E54" s="6" t="n"/>
+      <c r="F54" s="6" t="n"/>
+      <c r="G54" s="6" t="n"/>
+      <c r="H54" s="6" t="n"/>
+      <c r="I54" s="6" t="n"/>
+      <c r="J54" s="6" t="n"/>
+      <c r="K54" s="6" t="n"/>
+      <c r="L54" s="6" t="n"/>
+      <c r="M54" s="6" t="n"/>
+      <c r="N54" s="6" t="n"/>
+      <c r="O54" s="6" t="n"/>
+      <c r="P54" s="6" t="n"/>
+      <c r="Q54" s="6" t="n"/>
+      <c r="R54" s="6" t="n"/>
+      <c r="S54" s="6" t="n"/>
+      <c r="T54" s="6" t="n"/>
+      <c r="U54" s="6" t="n"/>
+      <c r="V54" s="6" t="n"/>
+      <c r="W54" s="6" t="n"/>
+      <c r="X54" s="6" t="n"/>
+      <c r="Y54" s="6" t="n"/>
+      <c r="Z54" s="6" t="n"/>
+      <c r="AA54" s="6" t="n"/>
+      <c r="AB54" s="6" t="n"/>
+      <c r="AC54" s="6" t="n"/>
+      <c r="AD54" s="6" t="n"/>
+      <c r="AE54" s="6" t="n"/>
+      <c r="AF54" s="6" t="n"/>
+      <c r="AG54" s="6" t="n"/>
+      <c r="AH54" s="6" t="n"/>
+      <c r="AI54" s="6" t="n"/>
+      <c r="AJ54" s="6" t="n"/>
+      <c r="AK54" s="6" t="n"/>
+      <c r="AL54" s="6" t="n"/>
+      <c r="AM54" s="6" t="n"/>
+      <c r="AN54" s="6" t="n"/>
+      <c r="AO54" s="6" t="n"/>
+      <c r="AP54" s="6" t="n"/>
+      <c r="AQ54" s="6" t="n"/>
+      <c r="AR54" s="6" t="n"/>
+      <c r="AS54" s="6" t="n"/>
+      <c r="AT54" s="6" t="n"/>
+      <c r="AU54" s="6" t="n"/>
+      <c r="AV54" s="6" t="n"/>
+      <c r="AW54" s="6" t="n"/>
+      <c r="AX54" s="6" t="n"/>
+      <c r="AY54" s="6" t="n"/>
+      <c r="AZ54" s="6" t="n"/>
+      <c r="BA54" s="6" t="n"/>
+      <c r="BB54" s="6" t="n"/>
+      <c r="BC54" s="6" t="n"/>
+      <c r="BD54" s="6" t="n"/>
+      <c r="BE54" s="6" t="n"/>
+      <c r="BF54" s="6" t="n"/>
+      <c r="BG54" s="6" t="n"/>
+      <c r="BH54" s="6" t="n"/>
+      <c r="BI54" s="6" t="n"/>
+      <c r="BJ54" s="6" t="n"/>
+      <c r="BK54" s="6" t="n"/>
+      <c r="BL54" s="6" t="n"/>
+      <c r="BM54" s="6" t="n"/>
+      <c r="BN54" s="6" t="n"/>
+      <c r="BO54" s="6" t="n"/>
+      <c r="BP54" s="6" t="n"/>
+      <c r="BQ54" s="6" t="n"/>
+      <c r="BR54" s="6" t="n"/>
+      <c r="BS54" s="6" t="n"/>
+      <c r="BT54" s="6" t="n"/>
+      <c r="BU54" s="6" t="n"/>
+      <c r="BV54" s="6" t="n"/>
+      <c r="BW54" s="6" t="n"/>
+      <c r="BX54" s="6" t="n"/>
+      <c r="BY54" s="6" t="n"/>
+      <c r="BZ54" s="6" t="n"/>
+      <c r="CA54" s="6" t="n"/>
+      <c r="CB54" s="6" t="n"/>
+      <c r="CC54" s="6" t="n"/>
+      <c r="CD54" s="6" t="n"/>
+      <c r="CE54" s="6" t="n"/>
+      <c r="CF54" s="6" t="n"/>
+      <c r="CG54" s="6" t="n"/>
+      <c r="CH54" s="6" t="n"/>
+      <c r="CI54" s="6" t="n"/>
+      <c r="CJ54" s="6" t="n"/>
+      <c r="CK54" s="6" t="n"/>
+      <c r="CL54" s="6" t="n"/>
+      <c r="CM54" s="6" t="n"/>
+      <c r="CN54" s="6" t="n"/>
+      <c r="CO54" s="6" t="n"/>
+      <c r="CP54" s="6" t="n"/>
+      <c r="CQ54" s="6" t="n"/>
+    </row>
     <row customFormat="1" customHeight="1" ht="12" r="55" s="5" spans="1:95">
-      <c r="CA55" t="s">
-        <v>67</v>
-      </c>
+      <c r="A55" s="6" t="n"/>
+      <c r="B55" s="6" t="n"/>
+      <c r="C55" s="6" t="n"/>
+      <c r="D55" s="6" t="n"/>
+      <c r="E55" s="6" t="n"/>
+      <c r="F55" s="6" t="n"/>
+      <c r="G55" s="6" t="n"/>
+      <c r="H55" s="6" t="n"/>
+      <c r="I55" s="6" t="n"/>
+      <c r="J55" s="6" t="n"/>
+      <c r="K55" s="6" t="n"/>
+      <c r="L55" s="6" t="n"/>
+      <c r="M55" s="6" t="n"/>
+      <c r="N55" s="6" t="n"/>
+      <c r="O55" s="6" t="n"/>
+      <c r="P55" s="6" t="n"/>
+      <c r="Q55" s="6" t="n"/>
+      <c r="R55" s="6" t="n"/>
+      <c r="S55" s="6" t="n"/>
+      <c r="T55" s="6" t="n"/>
+      <c r="U55" s="6" t="n"/>
+      <c r="V55" s="6" t="n"/>
+      <c r="W55" s="6" t="n"/>
+      <c r="X55" s="6" t="n"/>
+      <c r="Y55" s="6" t="n"/>
+      <c r="Z55" s="6" t="n"/>
+      <c r="AA55" s="6" t="n"/>
+      <c r="AB55" s="6" t="n"/>
+      <c r="AC55" s="6" t="n"/>
+      <c r="AD55" s="6" t="n"/>
+      <c r="AE55" s="6" t="n"/>
+      <c r="AF55" s="6" t="n"/>
+      <c r="AG55" s="6" t="n"/>
+      <c r="AH55" s="6" t="n"/>
+      <c r="AI55" s="6" t="n"/>
+      <c r="AJ55" s="6" t="n"/>
+      <c r="AK55" s="6" t="n"/>
+      <c r="AL55" s="6" t="n"/>
+      <c r="AM55" s="6" t="n"/>
+      <c r="AN55" s="6" t="n"/>
+      <c r="AO55" s="6" t="n"/>
+      <c r="AP55" s="6" t="n"/>
+      <c r="AQ55" s="6" t="n"/>
+      <c r="AR55" s="6" t="n"/>
+      <c r="AS55" s="6" t="n"/>
+      <c r="AT55" s="6" t="n"/>
+      <c r="AU55" s="6" t="n"/>
+      <c r="AV55" s="6" t="n"/>
+      <c r="AW55" s="6" t="n"/>
+      <c r="AX55" s="6" t="n"/>
+      <c r="AY55" s="6" t="n"/>
+      <c r="AZ55" s="6" t="n"/>
+      <c r="BA55" s="6" t="n"/>
+      <c r="BB55" s="6" t="n"/>
+      <c r="BC55" s="6" t="n"/>
+      <c r="BD55" s="6" t="n"/>
+      <c r="BE55" s="6" t="n"/>
+      <c r="BF55" s="6" t="n"/>
+      <c r="BG55" s="6" t="n"/>
+      <c r="BH55" s="6" t="n"/>
+      <c r="BI55" s="6" t="n"/>
+      <c r="BJ55" s="6" t="n"/>
+      <c r="BK55" s="6" t="n"/>
+      <c r="BL55" s="6" t="n"/>
+      <c r="BM55" s="6" t="n"/>
+      <c r="BN55" s="6" t="n"/>
+      <c r="BO55" s="6" t="n"/>
+      <c r="BP55" s="6" t="n"/>
+      <c r="BQ55" s="6" t="n"/>
+      <c r="BR55" s="6" t="n"/>
+      <c r="BS55" s="6" t="n"/>
+      <c r="BT55" s="6" t="n"/>
+      <c r="BU55" s="6" t="n"/>
+      <c r="BV55" s="6" t="n"/>
+      <c r="BW55" s="6" t="n"/>
+      <c r="BX55" s="6" t="n"/>
+      <c r="BY55" s="6" t="n"/>
+      <c r="BZ55" s="6" t="n"/>
+      <c r="CA55" s="6" t="n"/>
+      <c r="CB55" s="6" t="n"/>
+      <c r="CC55" s="6" t="n"/>
+      <c r="CD55" s="6" t="n"/>
+      <c r="CE55" s="6" t="n"/>
+      <c r="CF55" s="6" t="n"/>
+      <c r="CG55" s="6" t="n"/>
+      <c r="CH55" s="6" t="n"/>
+      <c r="CI55" s="6" t="n"/>
+      <c r="CJ55" s="6" t="n"/>
+      <c r="CK55" s="6" t="n"/>
+      <c r="CL55" s="6" t="n"/>
+      <c r="CM55" s="6" t="n"/>
+      <c r="CN55" s="6" t="n"/>
+      <c r="CO55" s="6" t="n"/>
+      <c r="CP55" s="6" t="n"/>
+      <c r="CQ55" s="6" t="n"/>
     </row>
     <row customFormat="1" customHeight="1" ht="12" r="56" s="5" spans="1:95">
-      <c r="AC56" t="s">
-        <v>68</v>
-      </c>
-      <c r="AN56" t="s">
-        <v>67</v>
-      </c>
+      <c r="A56" s="6" t="n"/>
+      <c r="B56" s="6" t="n"/>
+      <c r="C56" s="6" t="n"/>
+      <c r="D56" s="6" t="n"/>
+      <c r="E56" s="6" t="n"/>
+      <c r="F56" s="6" t="n"/>
+      <c r="G56" s="6" t="n"/>
+      <c r="H56" s="6" t="n"/>
+      <c r="I56" s="6" t="n"/>
+      <c r="J56" s="6" t="n"/>
+      <c r="K56" s="6" t="n"/>
+      <c r="L56" s="6" t="n"/>
+      <c r="M56" s="6" t="n"/>
+      <c r="N56" s="6" t="n"/>
+      <c r="O56" s="6" t="n"/>
+      <c r="P56" s="6" t="n"/>
+      <c r="Q56" s="6" t="n"/>
+      <c r="R56" s="6" t="n"/>
+      <c r="S56" s="6" t="n"/>
+      <c r="T56" s="6" t="n"/>
+      <c r="U56" s="6" t="n"/>
+      <c r="V56" s="6" t="n"/>
+      <c r="W56" s="6" t="n"/>
+      <c r="X56" s="6" t="n"/>
+      <c r="Y56" s="6" t="n"/>
+      <c r="Z56" s="6" t="n"/>
+      <c r="AA56" s="6" t="n"/>
+      <c r="AB56" s="6" t="n"/>
+      <c r="AC56" s="6" t="n"/>
+      <c r="AD56" s="6" t="n"/>
+      <c r="AE56" s="6" t="n"/>
+      <c r="AF56" s="6" t="n"/>
+      <c r="AG56" s="6" t="n"/>
+      <c r="AH56" s="6" t="n"/>
+      <c r="AI56" s="6" t="n"/>
+      <c r="AJ56" s="6" t="n"/>
+      <c r="AK56" s="6" t="n"/>
+      <c r="AL56" s="6" t="n"/>
+      <c r="AM56" s="6" t="n"/>
+      <c r="AN56" s="6" t="n"/>
+      <c r="AO56" s="6" t="n"/>
+      <c r="AP56" s="6" t="n"/>
+      <c r="AQ56" s="6" t="n"/>
+      <c r="AR56" s="6" t="n"/>
+      <c r="AS56" s="6" t="n"/>
+      <c r="AT56" s="6" t="n"/>
+      <c r="AU56" s="6" t="n"/>
+      <c r="AV56" s="6" t="n"/>
+      <c r="AW56" s="6" t="n"/>
+      <c r="AX56" s="6" t="n"/>
+      <c r="AY56" s="6" t="n"/>
+      <c r="AZ56" s="6" t="n"/>
+      <c r="BA56" s="6" t="n"/>
+      <c r="BB56" s="6" t="n"/>
+      <c r="BC56" s="6" t="n"/>
+      <c r="BD56" s="6" t="n"/>
+      <c r="BE56" s="6" t="n"/>
+      <c r="BF56" s="6" t="n"/>
+      <c r="BG56" s="6" t="n"/>
+      <c r="BH56" s="6" t="n"/>
+      <c r="BI56" s="6" t="n"/>
+      <c r="BJ56" s="6" t="n"/>
+      <c r="BK56" s="6" t="n"/>
+      <c r="BL56" s="6" t="n"/>
+      <c r="BM56" s="6" t="n"/>
+      <c r="BN56" s="6" t="n"/>
+      <c r="BO56" s="6" t="n"/>
+      <c r="BP56" s="6" t="n"/>
+      <c r="BQ56" s="6" t="n"/>
+      <c r="BR56" s="6" t="n"/>
+      <c r="BS56" s="6" t="n"/>
+      <c r="BT56" s="6" t="n"/>
+      <c r="BU56" s="6" t="n"/>
+      <c r="BV56" s="6" t="n"/>
+      <c r="BW56" s="6" t="n"/>
+      <c r="BX56" s="6" t="n"/>
+      <c r="BY56" s="6" t="n"/>
+      <c r="BZ56" s="6" t="n"/>
+      <c r="CA56" s="6" t="n"/>
+      <c r="CB56" s="6" t="n"/>
+      <c r="CC56" s="6" t="n"/>
+      <c r="CD56" s="6" t="n"/>
+      <c r="CE56" s="6" t="n"/>
+      <c r="CF56" s="6" t="n"/>
+      <c r="CG56" s="6" t="n"/>
+      <c r="CH56" s="6" t="n"/>
+      <c r="CI56" s="6" t="n"/>
+      <c r="CJ56" s="6" t="n"/>
+      <c r="CK56" s="6" t="n"/>
+      <c r="CL56" s="6" t="n"/>
+      <c r="CM56" s="6" t="n"/>
+      <c r="CN56" s="6" t="n"/>
+      <c r="CO56" s="6" t="n"/>
+      <c r="CP56" s="6" t="n"/>
+      <c r="CQ56" s="6" t="n"/>
     </row>
     <row customFormat="1" customHeight="1" ht="12" r="57" s="5" spans="1:95">
-      <c r="AN57" t="s">
-        <v>66</v>
-      </c>
-      <c r="CA57" t="s">
-        <v>67</v>
-      </c>
+      <c r="A57" s="6" t="n"/>
+      <c r="B57" s="6" t="n"/>
+      <c r="C57" s="6" t="n"/>
+      <c r="D57" s="6" t="n"/>
+      <c r="E57" s="6" t="n"/>
+      <c r="F57" s="6" t="n"/>
+      <c r="G57" s="6" t="n"/>
+      <c r="H57" s="6" t="n"/>
+      <c r="I57" s="6" t="n"/>
+      <c r="J57" s="6" t="n"/>
+      <c r="K57" s="6" t="n"/>
+      <c r="L57" s="6" t="n"/>
+      <c r="M57" s="6" t="n"/>
+      <c r="N57" s="6" t="n"/>
+      <c r="O57" s="6" t="n"/>
+      <c r="P57" s="6" t="n"/>
+      <c r="Q57" s="6" t="n"/>
+      <c r="R57" s="6" t="n"/>
+      <c r="S57" s="6" t="n"/>
+      <c r="T57" s="6" t="n"/>
+      <c r="U57" s="6" t="n"/>
+      <c r="V57" s="6" t="n"/>
+      <c r="W57" s="6" t="n"/>
+      <c r="X57" s="6" t="n"/>
+      <c r="Y57" s="6" t="n"/>
+      <c r="Z57" s="6" t="n"/>
+      <c r="AA57" s="6" t="n"/>
+      <c r="AB57" s="6" t="n"/>
+      <c r="AC57" s="6" t="n"/>
+      <c r="AD57" s="6" t="n"/>
+      <c r="AE57" s="6" t="n"/>
+      <c r="AF57" s="6" t="n"/>
+      <c r="AG57" s="6" t="n"/>
+      <c r="AH57" s="6" t="n"/>
+      <c r="AI57" s="6" t="n"/>
+      <c r="AJ57" s="6" t="n"/>
+      <c r="AK57" s="6" t="n"/>
+      <c r="AL57" s="6" t="n"/>
+      <c r="AM57" s="6" t="n"/>
+      <c r="AN57" s="6" t="n"/>
+      <c r="AO57" s="6" t="n"/>
+      <c r="AP57" s="6" t="n"/>
+      <c r="AQ57" s="6" t="n"/>
+      <c r="AR57" s="6" t="n"/>
+      <c r="AS57" s="6" t="n"/>
+      <c r="AT57" s="6" t="n"/>
+      <c r="AU57" s="6" t="n"/>
+      <c r="AV57" s="6" t="n"/>
+      <c r="AW57" s="6" t="n"/>
+      <c r="AX57" s="6" t="n"/>
+      <c r="AY57" s="6" t="n"/>
+      <c r="AZ57" s="6" t="n"/>
+      <c r="BA57" s="6" t="n"/>
+      <c r="BB57" s="6" t="n"/>
+      <c r="BC57" s="6" t="n"/>
+      <c r="BD57" s="6" t="n"/>
+      <c r="BE57" s="6" t="n"/>
+      <c r="BF57" s="6" t="n"/>
+      <c r="BG57" s="6" t="n"/>
+      <c r="BH57" s="6" t="n"/>
+      <c r="BI57" s="6" t="n"/>
+      <c r="BJ57" s="6" t="n"/>
+      <c r="BK57" s="6" t="n"/>
+      <c r="BL57" s="6" t="n"/>
+      <c r="BM57" s="6" t="n"/>
+      <c r="BN57" s="6" t="n"/>
+      <c r="BO57" s="6" t="n"/>
+      <c r="BP57" s="6" t="n"/>
+      <c r="BQ57" s="6" t="n"/>
+      <c r="BR57" s="6" t="n"/>
+      <c r="BS57" s="6" t="n"/>
+      <c r="BT57" s="6" t="n"/>
+      <c r="BU57" s="6" t="n"/>
+      <c r="BV57" s="6" t="n"/>
+      <c r="BW57" s="6" t="n"/>
+      <c r="BX57" s="6" t="n"/>
+      <c r="BY57" s="6" t="n"/>
+      <c r="BZ57" s="6" t="n"/>
+      <c r="CA57" s="6" t="n"/>
+      <c r="CB57" s="6" t="n"/>
+      <c r="CC57" s="6" t="n"/>
+      <c r="CD57" s="6" t="n"/>
+      <c r="CE57" s="6" t="n"/>
+      <c r="CF57" s="6" t="n"/>
+      <c r="CG57" s="6" t="n"/>
+      <c r="CH57" s="6" t="n"/>
+      <c r="CI57" s="6" t="n"/>
+      <c r="CJ57" s="6" t="n"/>
+      <c r="CK57" s="6" t="n"/>
+      <c r="CL57" s="6" t="n"/>
+      <c r="CM57" s="6" t="n"/>
+      <c r="CN57" s="6" t="n"/>
+      <c r="CO57" s="6" t="n"/>
+      <c r="CP57" s="6" t="n"/>
+      <c r="CQ57" s="6" t="n"/>
     </row>
     <row customFormat="1" customHeight="1" ht="12" r="58" s="5" spans="1:95">
-      <c r="D58" t="s">
-        <v>69</v>
-      </c>
-      <c r="K58" t="s">
-        <v>67</v>
-      </c>
-      <c r="AC58" t="s">
-        <v>70</v>
-      </c>
-      <c r="AN58" t="s">
-        <v>67</v>
-      </c>
+      <c r="A58" s="6" t="n"/>
+      <c r="B58" s="6" t="n"/>
+      <c r="C58" s="6" t="n"/>
+      <c r="D58" s="6" t="n"/>
+      <c r="E58" s="6" t="n"/>
+      <c r="F58" s="6" t="n"/>
+      <c r="G58" s="6" t="n"/>
+      <c r="H58" s="6" t="n"/>
+      <c r="I58" s="6" t="n"/>
+      <c r="J58" s="6" t="n"/>
+      <c r="K58" s="6" t="n"/>
+      <c r="L58" s="6" t="n"/>
+      <c r="M58" s="6" t="n"/>
+      <c r="N58" s="6" t="n"/>
+      <c r="O58" s="6" t="n"/>
+      <c r="P58" s="6" t="n"/>
+      <c r="Q58" s="6" t="n"/>
+      <c r="R58" s="6" t="n"/>
+      <c r="S58" s="6" t="n"/>
+      <c r="T58" s="6" t="n"/>
+      <c r="U58" s="6" t="n"/>
+      <c r="V58" s="6" t="n"/>
+      <c r="W58" s="6" t="n"/>
+      <c r="X58" s="6" t="n"/>
+      <c r="Y58" s="6" t="n"/>
+      <c r="Z58" s="6" t="n"/>
+      <c r="AA58" s="6" t="n"/>
+      <c r="AB58" s="6" t="n"/>
+      <c r="AC58" s="6" t="n"/>
+      <c r="AD58" s="6" t="n"/>
+      <c r="AE58" s="6" t="n"/>
+      <c r="AF58" s="6" t="n"/>
+      <c r="AG58" s="6" t="n"/>
+      <c r="AH58" s="6" t="n"/>
+      <c r="AI58" s="6" t="n"/>
+      <c r="AJ58" s="6" t="n"/>
+      <c r="AK58" s="6" t="n"/>
+      <c r="AL58" s="6" t="n"/>
+      <c r="AM58" s="6" t="n"/>
+      <c r="AN58" s="6" t="n"/>
+      <c r="AO58" s="6" t="n"/>
+      <c r="AP58" s="6" t="n"/>
+      <c r="AQ58" s="6" t="n"/>
+      <c r="AR58" s="6" t="n"/>
+      <c r="AS58" s="6" t="n"/>
+      <c r="AT58" s="6" t="n"/>
+      <c r="AU58" s="6" t="n"/>
+      <c r="AV58" s="6" t="n"/>
+      <c r="AW58" s="6" t="n"/>
+      <c r="AX58" s="6" t="n"/>
+      <c r="AY58" s="6" t="n"/>
+      <c r="AZ58" s="6" t="n"/>
+      <c r="BA58" s="6" t="n"/>
+      <c r="BB58" s="6" t="n"/>
+      <c r="BC58" s="6" t="n"/>
+      <c r="BD58" s="6" t="n"/>
+      <c r="BE58" s="6" t="n"/>
+      <c r="BF58" s="6" t="n"/>
+      <c r="BG58" s="6" t="n"/>
+      <c r="BH58" s="6" t="n"/>
+      <c r="BI58" s="6" t="n"/>
+      <c r="BJ58" s="6" t="n"/>
+      <c r="BK58" s="6" t="n"/>
+      <c r="BL58" s="6" t="n"/>
+      <c r="BM58" s="6" t="n"/>
+      <c r="BN58" s="6" t="n"/>
+      <c r="BO58" s="6" t="n"/>
+      <c r="BP58" s="6" t="n"/>
+      <c r="BQ58" s="6" t="n"/>
+      <c r="BR58" s="6" t="n"/>
+      <c r="BS58" s="6" t="n"/>
+      <c r="BT58" s="6" t="n"/>
+      <c r="BU58" s="6" t="n"/>
+      <c r="BV58" s="6" t="n"/>
+      <c r="BW58" s="6" t="n"/>
+      <c r="BX58" s="6" t="n"/>
+      <c r="BY58" s="6" t="n"/>
+      <c r="BZ58" s="6" t="n"/>
+      <c r="CA58" s="6" t="n"/>
+      <c r="CB58" s="6" t="n"/>
+      <c r="CC58" s="6" t="n"/>
+      <c r="CD58" s="6" t="n"/>
+      <c r="CE58" s="6" t="n"/>
+      <c r="CF58" s="6" t="n"/>
+      <c r="CG58" s="6" t="n"/>
+      <c r="CH58" s="6" t="n"/>
+      <c r="CI58" s="6" t="n"/>
+      <c r="CJ58" s="6" t="n"/>
+      <c r="CK58" s="6" t="n"/>
+      <c r="CL58" s="6" t="n"/>
+      <c r="CM58" s="6" t="n"/>
+      <c r="CN58" s="6" t="n"/>
+      <c r="CO58" s="6" t="n"/>
+      <c r="CP58" s="6" t="n"/>
+      <c r="CQ58" s="6" t="n"/>
     </row>
     <row customFormat="1" r="59" s="5" spans="1:95">
       <c r="A59" s="6" t="n"/>
@@ -2622,9 +5235,7 @@
       <c r="H59" s="6" t="n"/>
       <c r="I59" s="6" t="n"/>
       <c r="J59" s="6" t="n"/>
-      <c r="K59" s="6" t="s">
-        <v>66</v>
-      </c>
+      <c r="K59" s="6" t="n"/>
       <c r="L59" s="6" t="n"/>
       <c r="M59" s="6" t="n"/>
       <c r="N59" s="6" t="n"/>
@@ -2653,9 +5264,7 @@
       <c r="AK59" s="6" t="n"/>
       <c r="AL59" s="6" t="n"/>
       <c r="AM59" s="6" t="n"/>
-      <c r="AN59" s="6" t="s">
-        <v>66</v>
-      </c>
+      <c r="AN59" s="6" t="n"/>
       <c r="AO59" s="6" t="n"/>
       <c r="AP59" s="6" t="n"/>
       <c r="AQ59" s="6" t="n"/>
@@ -2710,7 +5319,7 @@
       <c r="CN59" s="6" t="n"/>
       <c r="CO59" s="6" t="n"/>
       <c r="CP59" s="6" t="n"/>
-      <c r="CQ59" s="98" t="n"/>
+      <c r="CQ59" s="6" t="n"/>
     </row>
     <row customFormat="1" r="60" s="5" spans="1:95">
       <c r="A60" s="6" t="n"/>
@@ -2810,9 +5419,7 @@
       <c r="CQ60" s="6" t="n"/>
     </row>
     <row customFormat="1" r="61" s="5" spans="1:95">
-      <c r="A61" s="6" t="s">
-        <v>71</v>
-      </c>
+      <c r="A61" s="6" t="n"/>
       <c r="B61" s="6" t="n"/>
       <c r="C61" s="6" t="n"/>
       <c r="D61" s="6" t="n"/>
@@ -2856,17 +5463,13 @@
       <c r="AP61" s="6" t="n"/>
       <c r="AQ61" s="6" t="n"/>
       <c r="AR61" s="6" t="n"/>
-      <c r="AS61" s="6" t="s">
-        <v>63</v>
-      </c>
+      <c r="AS61" s="6" t="n"/>
       <c r="AT61" s="6" t="n"/>
       <c r="AU61" s="6" t="n"/>
       <c r="AV61" s="6" t="n"/>
       <c r="AW61" s="6" t="n"/>
       <c r="AX61" s="6" t="n"/>
-      <c r="AY61" s="6" t="s">
-        <v>72</v>
-      </c>
+      <c r="AY61" s="6" t="n"/>
       <c r="AZ61" s="6" t="n"/>
       <c r="BA61" s="6" t="n"/>
       <c r="BB61" s="6" t="n"/>
@@ -2891,14 +5494,10 @@
       <c r="BU61" s="6" t="n"/>
       <c r="BV61" s="6" t="n"/>
       <c r="BW61" s="6" t="n"/>
-      <c r="BX61" s="6" t="s">
-        <v>73</v>
-      </c>
+      <c r="BX61" s="6" t="n"/>
       <c r="BY61" s="6" t="n"/>
       <c r="BZ61" s="6" t="n"/>
-      <c r="CA61" s="6" t="s">
-        <v>74</v>
-      </c>
+      <c r="CA61" s="6" t="n"/>
       <c r="CB61" s="6" t="n"/>
       <c r="CC61" s="6" t="n"/>
       <c r="CD61" s="6" t="n"/>
@@ -2911,9 +5510,7 @@
       <c r="CK61" s="6" t="n"/>
       <c r="CL61" s="6" t="n"/>
       <c r="CM61" s="6" t="n"/>
-      <c r="CN61" s="6" t="s">
-        <v>75</v>
-      </c>
+      <c r="CN61" s="6" t="n"/>
       <c r="CO61" s="6" t="n"/>
       <c r="CP61" s="6" t="n"/>
       <c r="CQ61" s="6" t="n"/>
@@ -2942,9 +5539,7 @@
       <c r="U62" s="6" t="n"/>
       <c r="V62" s="6" t="n"/>
       <c r="W62" s="6" t="n"/>
-      <c r="X62" s="6" t="s">
-        <v>66</v>
-      </c>
+      <c r="X62" s="6" t="n"/>
       <c r="Y62" s="6" t="n"/>
       <c r="Z62" s="6" t="n"/>
       <c r="AA62" s="6" t="n"/>
@@ -3018,9 +5613,7 @@
       <c r="CQ62" s="6" t="n"/>
     </row>
     <row customFormat="1" r="63" s="5" spans="1:95">
-      <c r="A63" s="6" t="s">
-        <v>76</v>
-      </c>
+      <c r="A63" s="6" t="n"/>
       <c r="B63" s="6" t="n"/>
       <c r="C63" s="6" t="n"/>
       <c r="D63" s="6" t="n"/>
@@ -3070,9 +5663,7 @@
       <c r="AV63" s="6" t="n"/>
       <c r="AW63" s="6" t="n"/>
       <c r="AX63" s="6" t="n"/>
-      <c r="AY63" s="6" t="s">
-        <v>77</v>
-      </c>
+      <c r="AY63" s="6" t="n"/>
       <c r="AZ63" s="6" t="n"/>
       <c r="BA63" s="6" t="n"/>
       <c r="BB63" s="6" t="n"/>
@@ -3140,9 +5731,7 @@
       <c r="S64" s="6" t="n"/>
       <c r="T64" s="6" t="n"/>
       <c r="U64" s="6" t="n"/>
-      <c r="V64" s="6" t="s">
-        <v>66</v>
-      </c>
+      <c r="V64" s="6" t="n"/>
       <c r="W64" s="6" t="n"/>
       <c r="X64" s="6" t="n"/>
       <c r="Y64" s="6" t="n"/>
@@ -3177,9 +5766,7 @@
       <c r="BB64" s="6" t="n"/>
       <c r="BC64" s="6" t="n"/>
       <c r="BD64" s="6" t="n"/>
-      <c r="BE64" s="6" t="s">
-        <v>78</v>
-      </c>
+      <c r="BE64" s="6" t="n"/>
       <c r="BF64" s="6" t="n"/>
       <c r="BG64" s="6" t="n"/>
       <c r="BH64" s="6" t="n"/>
@@ -3317,9 +5904,7 @@
       <c r="CQ65" s="6" t="n"/>
     </row>
     <row customFormat="1" r="66" s="5" spans="1:95">
-      <c r="A66" s="6" t="s">
-        <v>79</v>
-      </c>
+      <c r="A66" s="6" t="n"/>
       <c r="B66" s="6" t="n"/>
       <c r="C66" s="6" t="n"/>
       <c r="D66" s="6" t="n"/>
@@ -3513,9 +6098,7 @@
       <c r="CQ67" s="6" t="n"/>
     </row>
     <row customFormat="1" r="68" s="5" spans="1:95">
-      <c r="A68" s="6" t="s">
-        <v>80</v>
-      </c>
+      <c r="A68" s="6" t="n"/>
       <c r="B68" s="6" t="n"/>
       <c r="C68" s="6" t="n"/>
       <c r="D68" s="6" t="n"/>
@@ -3621,9 +6204,7 @@
       <c r="G69" s="6" t="n"/>
       <c r="H69" s="6" t="n"/>
       <c r="I69" s="6" t="n"/>
-      <c r="J69" s="6" t="s">
-        <v>81</v>
-      </c>
+      <c r="J69" s="6" t="n"/>
       <c r="K69" s="6" t="n"/>
       <c r="L69" s="6" t="n"/>
       <c r="M69" s="6" t="n"/>
@@ -3635,9 +6216,7 @@
       <c r="S69" s="6" t="n"/>
       <c r="T69" s="6" t="n"/>
       <c r="U69" s="6" t="n"/>
-      <c r="V69" s="6" t="s">
-        <v>82</v>
-      </c>
+      <c r="V69" s="6" t="n"/>
       <c r="W69" s="6" t="n"/>
       <c r="X69" s="6" t="n"/>
       <c r="Y69" s="6" t="n"/>
@@ -3648,9 +6227,7 @@
       <c r="AD69" s="6" t="n"/>
       <c r="AE69" s="6" t="n"/>
       <c r="AF69" s="6" t="n"/>
-      <c r="AG69" s="6" t="s">
-        <v>83</v>
-      </c>
+      <c r="AG69" s="6" t="n"/>
       <c r="AH69" s="6" t="n"/>
       <c r="AI69" s="6" t="n"/>
       <c r="AJ69" s="6" t="n"/>
@@ -3715,9 +6292,7 @@
       <c r="CQ69" s="6" t="n"/>
     </row>
     <row customFormat="1" r="70" s="5" spans="1:95">
-      <c r="A70" s="6" t="s">
-        <v>84</v>
-      </c>
+      <c r="A70" s="6" t="n"/>
       <c r="B70" s="6" t="n"/>
       <c r="C70" s="6" t="n"/>
       <c r="D70" s="6" t="n"/>
@@ -3767,9 +6342,7 @@
       <c r="AV70" s="6" t="n"/>
       <c r="AW70" s="6" t="n"/>
       <c r="AX70" s="6" t="n"/>
-      <c r="AY70" s="6" t="s">
-        <v>85</v>
-      </c>
+      <c r="AY70" s="6" t="n"/>
       <c r="AZ70" s="6" t="n"/>
       <c r="BA70" s="6" t="n"/>
       <c r="BB70" s="6" t="n"/>
@@ -3837,9 +6410,7 @@
       <c r="S71" s="6" t="n"/>
       <c r="T71" s="6" t="n"/>
       <c r="U71" s="6" t="n"/>
-      <c r="V71" s="6" t="s">
-        <v>82</v>
-      </c>
+      <c r="V71" s="6" t="n"/>
       <c r="W71" s="6" t="n"/>
       <c r="X71" s="6" t="n"/>
       <c r="Y71" s="6" t="n"/>
@@ -3850,9 +6421,7 @@
       <c r="AD71" s="6" t="n"/>
       <c r="AE71" s="6" t="n"/>
       <c r="AF71" s="6" t="n"/>
-      <c r="AG71" s="6" t="s">
-        <v>83</v>
-      </c>
+      <c r="AG71" s="6" t="n"/>
       <c r="AH71" s="6" t="n"/>
       <c r="AI71" s="6" t="n"/>
       <c r="AJ71" s="6" t="n"/>
@@ -3877,9 +6446,7 @@
       <c r="BC71" s="6" t="n"/>
       <c r="BD71" s="6" t="n"/>
       <c r="BE71" s="6" t="n"/>
-      <c r="BF71" s="6" t="s">
-        <v>81</v>
-      </c>
+      <c r="BF71" s="6" t="n"/>
       <c r="BG71" s="6" t="n"/>
       <c r="BH71" s="6" t="n"/>
       <c r="BI71" s="6" t="n"/>
@@ -3889,9 +6456,7 @@
       <c r="BM71" s="6" t="n"/>
       <c r="BN71" s="6" t="n"/>
       <c r="BO71" s="6" t="n"/>
-      <c r="BP71" s="6" t="s">
-        <v>82</v>
-      </c>
+      <c r="BP71" s="6" t="n"/>
       <c r="BQ71" s="6" t="n"/>
       <c r="BR71" s="6" t="n"/>
       <c r="BS71" s="6" t="n"/>
@@ -3900,9 +6465,7 @@
       <c r="BV71" s="6" t="n"/>
       <c r="BW71" s="6" t="n"/>
       <c r="BX71" s="6" t="n"/>
-      <c r="BY71" s="6" t="s">
-        <v>83</v>
-      </c>
+      <c r="BY71" s="6" t="n"/>
       <c r="BZ71" s="6" t="n"/>
       <c r="CA71" s="6" t="n"/>
       <c r="CB71" s="6" t="n"/>
@@ -3923,9 +6486,7 @@
       <c r="CQ71" s="6" t="n"/>
     </row>
     <row customFormat="1" customHeight="1" ht="15" r="72" s="16" spans="1:95">
-      <c r="A72" s="6" t="s">
-        <v>86</v>
-      </c>
+      <c r="A72" s="6" t="n"/>
       <c r="B72" s="6" t="n"/>
       <c r="C72" s="6" t="n"/>
       <c r="D72" s="6" t="n"/>
@@ -3975,9 +6536,7 @@
       <c r="AV72" s="6" t="n"/>
       <c r="AW72" s="6" t="n"/>
       <c r="AX72" s="6" t="n"/>
-      <c r="AY72" s="6" t="s">
-        <v>87</v>
-      </c>
+      <c r="AY72" s="6" t="n"/>
       <c r="AZ72" s="6" t="n"/>
       <c r="BA72" s="6" t="n"/>
       <c r="BB72" s="6" t="n"/>
@@ -4035,9 +6594,7 @@
       <c r="I73" s="6" t="n"/>
       <c r="J73" s="6" t="n"/>
       <c r="K73" s="6" t="n"/>
-      <c r="L73" s="6" t="s">
-        <v>81</v>
-      </c>
+      <c r="L73" s="6" t="n"/>
       <c r="M73" s="6" t="n"/>
       <c r="N73" s="6" t="n"/>
       <c r="O73" s="6" t="n"/>
@@ -4047,9 +6604,7 @@
       <c r="S73" s="6" t="n"/>
       <c r="T73" s="6" t="n"/>
       <c r="U73" s="6" t="n"/>
-      <c r="V73" s="6" t="s">
-        <v>82</v>
-      </c>
+      <c r="V73" s="6" t="n"/>
       <c r="W73" s="6" t="n"/>
       <c r="X73" s="6" t="n"/>
       <c r="Y73" s="6" t="n"/>
@@ -4060,9 +6615,7 @@
       <c r="AD73" s="6" t="n"/>
       <c r="AE73" s="6" t="n"/>
       <c r="AF73" s="6" t="n"/>
-      <c r="AG73" s="6" t="s">
-        <v>83</v>
-      </c>
+      <c r="AG73" s="6" t="n"/>
       <c r="AH73" s="6" t="n"/>
       <c r="AI73" s="6" t="n"/>
       <c r="AJ73" s="6" t="n"/>
@@ -4096,9 +6649,7 @@
       <c r="BL73" s="6" t="n"/>
       <c r="BM73" s="6" t="n"/>
       <c r="BN73" s="6" t="n"/>
-      <c r="BO73" s="6" t="s">
-        <v>81</v>
-      </c>
+      <c r="BO73" s="6" t="n"/>
       <c r="BP73" s="6" t="n"/>
       <c r="BQ73" s="6" t="n"/>
       <c r="BR73" s="6" t="n"/>
@@ -4108,18 +6659,14 @@
       <c r="BV73" s="6" t="n"/>
       <c r="BW73" s="6" t="n"/>
       <c r="BX73" s="6" t="n"/>
-      <c r="BY73" s="6" t="s">
-        <v>82</v>
-      </c>
+      <c r="BY73" s="6" t="n"/>
       <c r="BZ73" s="6" t="n"/>
       <c r="CA73" s="6" t="n"/>
       <c r="CB73" s="6" t="n"/>
       <c r="CC73" s="6" t="n"/>
       <c r="CD73" s="6" t="n"/>
       <c r="CE73" s="6" t="n"/>
-      <c r="CF73" s="6" t="s">
-        <v>83</v>
-      </c>
+      <c r="CF73" s="6" t="n"/>
       <c r="CG73" s="6" t="n"/>
       <c r="CH73" s="6" t="n"/>
       <c r="CI73" s="6" t="n"/>
@@ -4139,9 +6686,7 @@
       <c r="D74" s="6" t="n"/>
       <c r="E74" s="6" t="n"/>
       <c r="F74" s="6" t="n"/>
-      <c r="G74" s="6" t="s">
-        <v>88</v>
-      </c>
+      <c r="G74" s="6" t="n"/>
       <c r="H74" s="6" t="n"/>
       <c r="I74" s="6" t="n"/>
       <c r="J74" s="6" t="n"/>
@@ -4185,9 +6730,7 @@
       <c r="AV74" s="6" t="n"/>
       <c r="AW74" s="6" t="n"/>
       <c r="AX74" s="6" t="n"/>
-      <c r="AY74" s="6" t="s">
-        <v>88</v>
-      </c>
+      <c r="AY74" s="6" t="n"/>
       <c r="AZ74" s="6" t="n"/>
       <c r="BA74" s="6" t="n"/>
       <c r="BB74" s="6" t="n"/>
@@ -6173,7 +8716,1849 @@
       <c r="CP94" s="6" t="n"/>
       <c r="CQ94" s="6" t="n"/>
     </row>
-    <row customHeight="1" ht="3" r="95" s="51" spans="1:95"/>
+    <row customHeight="1" ht="3" r="95" s="51" spans="1:95">
+      <c r="A95" s="6" t="n"/>
+      <c r="B95" s="6" t="n"/>
+      <c r="C95" s="6" t="n"/>
+      <c r="D95" s="6" t="n"/>
+      <c r="E95" s="6" t="n"/>
+      <c r="F95" s="6" t="n"/>
+      <c r="G95" s="6" t="n"/>
+      <c r="H95" s="6" t="n"/>
+      <c r="I95" s="6" t="n"/>
+      <c r="J95" s="6" t="n"/>
+      <c r="K95" s="6" t="n"/>
+      <c r="L95" s="6" t="n"/>
+      <c r="M95" s="6" t="n"/>
+      <c r="N95" s="6" t="n"/>
+      <c r="O95" s="6" t="n"/>
+      <c r="P95" s="6" t="n"/>
+      <c r="Q95" s="6" t="n"/>
+      <c r="R95" s="6" t="n"/>
+      <c r="S95" s="6" t="n"/>
+      <c r="T95" s="6" t="n"/>
+      <c r="U95" s="6" t="n"/>
+      <c r="V95" s="6" t="n"/>
+      <c r="W95" s="6" t="n"/>
+      <c r="X95" s="6" t="n"/>
+      <c r="Y95" s="6" t="n"/>
+      <c r="Z95" s="6" t="n"/>
+      <c r="AA95" s="6" t="n"/>
+      <c r="AB95" s="6" t="n"/>
+      <c r="AC95" s="6" t="n"/>
+      <c r="AD95" s="6" t="n"/>
+      <c r="AE95" s="6" t="n"/>
+      <c r="AF95" s="6" t="n"/>
+      <c r="AG95" s="6" t="n"/>
+      <c r="AH95" s="6" t="n"/>
+      <c r="AI95" s="6" t="n"/>
+      <c r="AJ95" s="6" t="n"/>
+      <c r="AK95" s="6" t="n"/>
+      <c r="AL95" s="6" t="n"/>
+      <c r="AM95" s="6" t="n"/>
+      <c r="AN95" s="6" t="n"/>
+      <c r="AO95" s="6" t="n"/>
+      <c r="AP95" s="6" t="n"/>
+      <c r="AQ95" s="6" t="n"/>
+      <c r="AR95" s="6" t="n"/>
+      <c r="AS95" s="6" t="n"/>
+      <c r="AT95" s="6" t="n"/>
+      <c r="AU95" s="6" t="n"/>
+      <c r="AV95" s="6" t="n"/>
+      <c r="AW95" s="6" t="n"/>
+      <c r="AX95" s="6" t="n"/>
+      <c r="AY95" s="6" t="n"/>
+      <c r="AZ95" s="6" t="n"/>
+      <c r="BA95" s="6" t="n"/>
+      <c r="BB95" s="6" t="n"/>
+      <c r="BC95" s="6" t="n"/>
+      <c r="BD95" s="6" t="n"/>
+      <c r="BE95" s="6" t="n"/>
+      <c r="BF95" s="6" t="n"/>
+      <c r="BG95" s="6" t="n"/>
+      <c r="BH95" s="6" t="n"/>
+      <c r="BI95" s="6" t="n"/>
+      <c r="BJ95" s="6" t="n"/>
+      <c r="BK95" s="6" t="n"/>
+      <c r="BL95" s="6" t="n"/>
+      <c r="BM95" s="6" t="n"/>
+      <c r="BN95" s="6" t="n"/>
+      <c r="BO95" s="6" t="n"/>
+      <c r="BP95" s="6" t="n"/>
+      <c r="BQ95" s="6" t="n"/>
+      <c r="BR95" s="6" t="n"/>
+      <c r="BS95" s="6" t="n"/>
+      <c r="BT95" s="6" t="n"/>
+      <c r="BU95" s="6" t="n"/>
+      <c r="BV95" s="6" t="n"/>
+      <c r="BW95" s="6" t="n"/>
+      <c r="BX95" s="6" t="n"/>
+      <c r="BY95" s="6" t="n"/>
+      <c r="BZ95" s="6" t="n"/>
+      <c r="CA95" s="6" t="n"/>
+      <c r="CB95" s="6" t="n"/>
+      <c r="CC95" s="6" t="n"/>
+      <c r="CD95" s="6" t="n"/>
+      <c r="CE95" s="6" t="n"/>
+      <c r="CF95" s="6" t="n"/>
+      <c r="CG95" s="6" t="n"/>
+      <c r="CH95" s="6" t="n"/>
+      <c r="CI95" s="6" t="n"/>
+      <c r="CJ95" s="6" t="n"/>
+      <c r="CK95" s="6" t="n"/>
+      <c r="CL95" s="6" t="n"/>
+      <c r="CM95" s="6" t="n"/>
+      <c r="CN95" s="6" t="n"/>
+      <c r="CO95" s="6" t="n"/>
+      <c r="CP95" s="6" t="n"/>
+      <c r="CQ95" s="6" t="n"/>
+    </row>
+    <row r="96" spans="1:95">
+      <c r="A96" s="6" t="n"/>
+      <c r="B96" s="6" t="n"/>
+      <c r="C96" s="6" t="n"/>
+      <c r="D96" s="6" t="n"/>
+      <c r="E96" s="6" t="n"/>
+      <c r="F96" s="6" t="n"/>
+      <c r="G96" s="6" t="n"/>
+      <c r="H96" s="6" t="n"/>
+      <c r="I96" s="6" t="n"/>
+      <c r="J96" s="6" t="n"/>
+      <c r="K96" s="6" t="n"/>
+      <c r="L96" s="6" t="n"/>
+      <c r="M96" s="6" t="n"/>
+      <c r="N96" s="6" t="n"/>
+      <c r="O96" s="6" t="n"/>
+      <c r="P96" s="6" t="n"/>
+      <c r="Q96" s="6" t="n"/>
+      <c r="R96" s="6" t="n"/>
+      <c r="S96" s="6" t="n"/>
+      <c r="T96" s="6" t="n"/>
+      <c r="U96" s="6" t="n"/>
+      <c r="V96" s="6" t="n"/>
+      <c r="W96" s="6" t="n"/>
+      <c r="X96" s="6" t="n"/>
+      <c r="Y96" s="6" t="n"/>
+      <c r="Z96" s="6" t="n"/>
+      <c r="AA96" s="6" t="n"/>
+      <c r="AB96" s="6" t="n"/>
+      <c r="AC96" s="6" t="n"/>
+      <c r="AD96" s="6" t="n"/>
+      <c r="AE96" s="6" t="n"/>
+      <c r="AF96" s="6" t="n"/>
+      <c r="AG96" s="6" t="n"/>
+      <c r="AH96" s="6" t="n"/>
+      <c r="AI96" s="6" t="n"/>
+      <c r="AJ96" s="6" t="n"/>
+      <c r="AK96" s="6" t="n"/>
+      <c r="AL96" s="6" t="n"/>
+      <c r="AM96" s="6" t="n"/>
+      <c r="AN96" s="6" t="n"/>
+      <c r="AO96" s="6" t="n"/>
+      <c r="AP96" s="6" t="n"/>
+      <c r="AQ96" s="6" t="n"/>
+      <c r="AR96" s="6" t="n"/>
+      <c r="AS96" s="6" t="n"/>
+      <c r="AT96" s="6" t="n"/>
+      <c r="AU96" s="6" t="n"/>
+      <c r="AV96" s="6" t="n"/>
+      <c r="AW96" s="6" t="n"/>
+      <c r="AX96" s="6" t="n"/>
+      <c r="AY96" s="6" t="n"/>
+      <c r="AZ96" s="6" t="n"/>
+      <c r="BA96" s="6" t="n"/>
+      <c r="BB96" s="6" t="n"/>
+      <c r="BC96" s="6" t="n"/>
+      <c r="BD96" s="6" t="n"/>
+      <c r="BE96" s="6" t="n"/>
+      <c r="BF96" s="6" t="n"/>
+      <c r="BG96" s="6" t="n"/>
+      <c r="BH96" s="6" t="n"/>
+      <c r="BI96" s="6" t="n"/>
+      <c r="BJ96" s="6" t="n"/>
+      <c r="BK96" s="6" t="n"/>
+      <c r="BL96" s="6" t="n"/>
+      <c r="BM96" s="6" t="n"/>
+      <c r="BN96" s="6" t="n"/>
+      <c r="BO96" s="6" t="n"/>
+      <c r="BP96" s="6" t="n"/>
+      <c r="BQ96" s="6" t="n"/>
+      <c r="BR96" s="6" t="n"/>
+      <c r="BS96" s="6" t="n"/>
+      <c r="BT96" s="6" t="n"/>
+      <c r="BU96" s="6" t="n"/>
+      <c r="BV96" s="6" t="n"/>
+      <c r="BW96" s="6" t="n"/>
+      <c r="BX96" s="6" t="n"/>
+      <c r="BY96" s="6" t="n"/>
+      <c r="BZ96" s="6" t="n"/>
+      <c r="CA96" s="6" t="n"/>
+      <c r="CB96" s="6" t="n"/>
+      <c r="CC96" s="6" t="n"/>
+      <c r="CD96" s="6" t="n"/>
+      <c r="CE96" s="6" t="n"/>
+      <c r="CF96" s="6" t="n"/>
+      <c r="CG96" s="6" t="n"/>
+      <c r="CH96" s="6" t="n"/>
+      <c r="CI96" s="6" t="n"/>
+      <c r="CJ96" s="6" t="n"/>
+      <c r="CK96" s="6" t="n"/>
+      <c r="CL96" s="6" t="n"/>
+      <c r="CM96" s="6" t="n"/>
+      <c r="CN96" s="6" t="n"/>
+      <c r="CO96" s="6" t="n"/>
+      <c r="CP96" s="6" t="n"/>
+      <c r="CQ96" s="6" t="n"/>
+    </row>
+    <row r="97" spans="1:95">
+      <c r="A97" s="6" t="n"/>
+      <c r="B97" s="6" t="n"/>
+      <c r="C97" s="6" t="n"/>
+      <c r="D97" s="6" t="n"/>
+      <c r="E97" s="6" t="n"/>
+      <c r="F97" s="6" t="n"/>
+      <c r="G97" s="6" t="n"/>
+      <c r="H97" s="6" t="n"/>
+      <c r="I97" s="6" t="n"/>
+      <c r="J97" s="6" t="n"/>
+      <c r="K97" s="6" t="n"/>
+      <c r="L97" s="6" t="n"/>
+      <c r="M97" s="6" t="n"/>
+      <c r="N97" s="6" t="n"/>
+      <c r="O97" s="6" t="n"/>
+      <c r="P97" s="6" t="n"/>
+      <c r="Q97" s="6" t="n"/>
+      <c r="R97" s="6" t="n"/>
+      <c r="S97" s="6" t="n"/>
+      <c r="T97" s="6" t="n"/>
+      <c r="U97" s="6" t="n"/>
+      <c r="V97" s="6" t="n"/>
+      <c r="W97" s="6" t="n"/>
+      <c r="X97" s="6" t="n"/>
+      <c r="Y97" s="6" t="n"/>
+      <c r="Z97" s="6" t="n"/>
+      <c r="AA97" s="6" t="n"/>
+      <c r="AB97" s="6" t="n"/>
+      <c r="AC97" s="6" t="n"/>
+      <c r="AD97" s="6" t="n"/>
+      <c r="AE97" s="6" t="n"/>
+      <c r="AF97" s="6" t="n"/>
+      <c r="AG97" s="6" t="n"/>
+      <c r="AH97" s="6" t="n"/>
+      <c r="AI97" s="6" t="n"/>
+      <c r="AJ97" s="6" t="n"/>
+      <c r="AK97" s="6" t="n"/>
+      <c r="AL97" s="6" t="n"/>
+      <c r="AM97" s="6" t="n"/>
+      <c r="AN97" s="6" t="n"/>
+      <c r="AO97" s="6" t="n"/>
+      <c r="AP97" s="6" t="n"/>
+      <c r="AQ97" s="6" t="n"/>
+      <c r="AR97" s="6" t="n"/>
+      <c r="AS97" s="6" t="n"/>
+      <c r="AT97" s="6" t="n"/>
+      <c r="AU97" s="6" t="n"/>
+      <c r="AV97" s="6" t="n"/>
+      <c r="AW97" s="6" t="n"/>
+      <c r="AX97" s="6" t="n"/>
+      <c r="AY97" s="6" t="n"/>
+      <c r="AZ97" s="6" t="n"/>
+      <c r="BA97" s="6" t="n"/>
+      <c r="BB97" s="6" t="n"/>
+      <c r="BC97" s="6" t="n"/>
+      <c r="BD97" s="6" t="n"/>
+      <c r="BE97" s="6" t="n"/>
+      <c r="BF97" s="6" t="n"/>
+      <c r="BG97" s="6" t="n"/>
+      <c r="BH97" s="6" t="n"/>
+      <c r="BI97" s="6" t="n"/>
+      <c r="BJ97" s="6" t="n"/>
+      <c r="BK97" s="6" t="n"/>
+      <c r="BL97" s="6" t="n"/>
+      <c r="BM97" s="6" t="n"/>
+      <c r="BN97" s="6" t="n"/>
+      <c r="BO97" s="6" t="n"/>
+      <c r="BP97" s="6" t="n"/>
+      <c r="BQ97" s="6" t="n"/>
+      <c r="BR97" s="6" t="n"/>
+      <c r="BS97" s="6" t="n"/>
+      <c r="BT97" s="6" t="n"/>
+      <c r="BU97" s="6" t="n"/>
+      <c r="BV97" s="6" t="n"/>
+      <c r="BW97" s="6" t="n"/>
+      <c r="BX97" s="6" t="n"/>
+      <c r="BY97" s="6" t="n"/>
+      <c r="BZ97" s="6" t="n"/>
+      <c r="CA97" s="6" t="n"/>
+      <c r="CB97" s="6" t="n"/>
+      <c r="CC97" s="6" t="n"/>
+      <c r="CD97" s="6" t="n"/>
+      <c r="CE97" s="6" t="n"/>
+      <c r="CF97" s="6" t="n"/>
+      <c r="CG97" s="6" t="n"/>
+      <c r="CH97" s="6" t="n"/>
+      <c r="CI97" s="6" t="n"/>
+      <c r="CJ97" s="6" t="n"/>
+      <c r="CK97" s="6" t="n"/>
+      <c r="CL97" s="6" t="n"/>
+      <c r="CM97" s="6" t="n"/>
+      <c r="CN97" s="6" t="n"/>
+      <c r="CO97" s="6" t="n"/>
+      <c r="CP97" s="6" t="n"/>
+      <c r="CQ97" s="6" t="n"/>
+    </row>
+    <row r="98" spans="1:95">
+      <c r="A98" s="6" t="n"/>
+      <c r="B98" s="6" t="n"/>
+      <c r="C98" s="6" t="n"/>
+      <c r="D98" s="6" t="n"/>
+      <c r="E98" s="6" t="n"/>
+      <c r="F98" s="6" t="n"/>
+      <c r="G98" s="6" t="n"/>
+      <c r="H98" s="6" t="n"/>
+      <c r="I98" s="6" t="n"/>
+      <c r="J98" s="6" t="n"/>
+      <c r="K98" s="6" t="n"/>
+      <c r="L98" s="6" t="n"/>
+      <c r="M98" s="6" t="n"/>
+      <c r="N98" s="6" t="n"/>
+      <c r="O98" s="6" t="n"/>
+      <c r="P98" s="6" t="n"/>
+      <c r="Q98" s="6" t="n"/>
+      <c r="R98" s="6" t="n"/>
+      <c r="S98" s="6" t="n"/>
+      <c r="T98" s="6" t="n"/>
+      <c r="U98" s="6" t="n"/>
+      <c r="V98" s="6" t="n"/>
+      <c r="W98" s="6" t="n"/>
+      <c r="X98" s="6" t="n"/>
+      <c r="Y98" s="6" t="n"/>
+      <c r="Z98" s="6" t="n"/>
+      <c r="AA98" s="6" t="n"/>
+      <c r="AB98" s="6" t="n"/>
+      <c r="AC98" s="6" t="n"/>
+      <c r="AD98" s="6" t="n"/>
+      <c r="AE98" s="6" t="n"/>
+      <c r="AF98" s="6" t="n"/>
+      <c r="AG98" s="6" t="n"/>
+      <c r="AH98" s="6" t="n"/>
+      <c r="AI98" s="6" t="n"/>
+      <c r="AJ98" s="6" t="n"/>
+      <c r="AK98" s="6" t="n"/>
+      <c r="AL98" s="6" t="n"/>
+      <c r="AM98" s="6" t="n"/>
+      <c r="AN98" s="6" t="n"/>
+      <c r="AO98" s="6" t="n"/>
+      <c r="AP98" s="6" t="n"/>
+      <c r="AQ98" s="6" t="n"/>
+      <c r="AR98" s="6" t="n"/>
+      <c r="AS98" s="6" t="n"/>
+      <c r="AT98" s="6" t="n"/>
+      <c r="AU98" s="6" t="n"/>
+      <c r="AV98" s="6" t="n"/>
+      <c r="AW98" s="6" t="n"/>
+      <c r="AX98" s="6" t="n"/>
+      <c r="AY98" s="6" t="n"/>
+      <c r="AZ98" s="6" t="n"/>
+      <c r="BA98" s="6" t="n"/>
+      <c r="BB98" s="6" t="n"/>
+      <c r="BC98" s="6" t="n"/>
+      <c r="BD98" s="6" t="n"/>
+      <c r="BE98" s="6" t="n"/>
+      <c r="BF98" s="6" t="n"/>
+      <c r="BG98" s="6" t="n"/>
+      <c r="BH98" s="6" t="n"/>
+      <c r="BI98" s="6" t="n"/>
+      <c r="BJ98" s="6" t="n"/>
+      <c r="BK98" s="6" t="n"/>
+      <c r="BL98" s="6" t="n"/>
+      <c r="BM98" s="6" t="n"/>
+      <c r="BN98" s="6" t="n"/>
+      <c r="BO98" s="6" t="n"/>
+      <c r="BP98" s="6" t="n"/>
+      <c r="BQ98" s="6" t="n"/>
+      <c r="BR98" s="6" t="n"/>
+      <c r="BS98" s="6" t="n"/>
+      <c r="BT98" s="6" t="n"/>
+      <c r="BU98" s="6" t="n"/>
+      <c r="BV98" s="6" t="n"/>
+      <c r="BW98" s="6" t="n"/>
+      <c r="BX98" s="6" t="n"/>
+      <c r="BY98" s="6" t="n"/>
+      <c r="BZ98" s="6" t="n"/>
+      <c r="CA98" s="6" t="n"/>
+      <c r="CB98" s="6" t="n"/>
+      <c r="CC98" s="6" t="n"/>
+      <c r="CD98" s="6" t="n"/>
+      <c r="CE98" s="6" t="n"/>
+      <c r="CF98" s="6" t="n"/>
+      <c r="CG98" s="6" t="n"/>
+      <c r="CH98" s="6" t="n"/>
+      <c r="CI98" s="6" t="n"/>
+      <c r="CJ98" s="6" t="n"/>
+      <c r="CK98" s="6" t="n"/>
+      <c r="CL98" s="6" t="n"/>
+      <c r="CM98" s="6" t="n"/>
+      <c r="CN98" s="6" t="n"/>
+      <c r="CO98" s="6" t="n"/>
+      <c r="CP98" s="6" t="n"/>
+      <c r="CQ98" s="6" t="n"/>
+    </row>
+    <row r="99" spans="1:95">
+      <c r="A99" s="6" t="n"/>
+      <c r="B99" s="6" t="n"/>
+      <c r="C99" s="6" t="n"/>
+      <c r="D99" s="6" t="n"/>
+      <c r="E99" s="6" t="n"/>
+      <c r="F99" s="6" t="n"/>
+      <c r="G99" s="6" t="n"/>
+      <c r="H99" s="6" t="n"/>
+      <c r="I99" s="6" t="n"/>
+      <c r="J99" s="6" t="n"/>
+      <c r="K99" s="6" t="n"/>
+      <c r="L99" s="6" t="n"/>
+      <c r="M99" s="6" t="n"/>
+      <c r="N99" s="6" t="n"/>
+      <c r="O99" s="6" t="n"/>
+      <c r="P99" s="6" t="n"/>
+      <c r="Q99" s="6" t="n"/>
+      <c r="R99" s="6" t="n"/>
+      <c r="S99" s="6" t="n"/>
+      <c r="T99" s="6" t="n"/>
+      <c r="U99" s="6" t="n"/>
+      <c r="V99" s="6" t="n"/>
+      <c r="W99" s="6" t="n"/>
+      <c r="X99" s="6" t="n"/>
+      <c r="Y99" s="6" t="n"/>
+      <c r="Z99" s="6" t="n"/>
+      <c r="AA99" s="6" t="n"/>
+      <c r="AB99" s="6" t="n"/>
+      <c r="AC99" s="6" t="n"/>
+      <c r="AD99" s="6" t="n"/>
+      <c r="AE99" s="6" t="n"/>
+      <c r="AF99" s="6" t="n"/>
+      <c r="AG99" s="6" t="n"/>
+      <c r="AH99" s="6" t="n"/>
+      <c r="AI99" s="6" t="n"/>
+      <c r="AJ99" s="6" t="n"/>
+      <c r="AK99" s="6" t="n"/>
+      <c r="AL99" s="6" t="n"/>
+      <c r="AM99" s="6" t="n"/>
+      <c r="AN99" s="6" t="n"/>
+      <c r="AO99" s="6" t="n"/>
+      <c r="AP99" s="6" t="n"/>
+      <c r="AQ99" s="6" t="n"/>
+      <c r="AR99" s="6" t="n"/>
+      <c r="AS99" s="6" t="n"/>
+      <c r="AT99" s="6" t="n"/>
+      <c r="AU99" s="6" t="n"/>
+      <c r="AV99" s="6" t="n"/>
+      <c r="AW99" s="6" t="n"/>
+      <c r="AX99" s="6" t="n"/>
+      <c r="AY99" s="6" t="n"/>
+      <c r="AZ99" s="6" t="n"/>
+      <c r="BA99" s="6" t="n"/>
+      <c r="BB99" s="6" t="n"/>
+      <c r="BC99" s="6" t="n"/>
+      <c r="BD99" s="6" t="n"/>
+      <c r="BE99" s="6" t="n"/>
+      <c r="BF99" s="6" t="n"/>
+      <c r="BG99" s="6" t="n"/>
+      <c r="BH99" s="6" t="n"/>
+      <c r="BI99" s="6" t="n"/>
+      <c r="BJ99" s="6" t="n"/>
+      <c r="BK99" s="6" t="n"/>
+      <c r="BL99" s="6" t="n"/>
+      <c r="BM99" s="6" t="n"/>
+      <c r="BN99" s="6" t="n"/>
+      <c r="BO99" s="6" t="n"/>
+      <c r="BP99" s="6" t="n"/>
+      <c r="BQ99" s="6" t="n"/>
+      <c r="BR99" s="6" t="n"/>
+      <c r="BS99" s="6" t="n"/>
+      <c r="BT99" s="6" t="n"/>
+      <c r="BU99" s="6" t="n"/>
+      <c r="BV99" s="6" t="n"/>
+      <c r="BW99" s="6" t="n"/>
+      <c r="BX99" s="6" t="n"/>
+      <c r="BY99" s="6" t="n"/>
+      <c r="BZ99" s="6" t="n"/>
+      <c r="CA99" s="6" t="n"/>
+      <c r="CB99" s="6" t="n"/>
+      <c r="CC99" s="6" t="n"/>
+      <c r="CD99" s="6" t="n"/>
+      <c r="CE99" s="6" t="n"/>
+      <c r="CF99" s="6" t="n"/>
+      <c r="CG99" s="6" t="n"/>
+      <c r="CH99" s="6" t="n"/>
+      <c r="CI99" s="6" t="n"/>
+      <c r="CJ99" s="6" t="n"/>
+      <c r="CK99" s="6" t="n"/>
+      <c r="CL99" s="6" t="n"/>
+      <c r="CM99" s="6" t="n"/>
+      <c r="CN99" s="6" t="n"/>
+      <c r="CO99" s="6" t="n"/>
+      <c r="CP99" s="6" t="n"/>
+      <c r="CQ99" s="6" t="n"/>
+    </row>
+    <row r="100" spans="1:95">
+      <c r="A100" s="6" t="n"/>
+      <c r="B100" s="6" t="n"/>
+      <c r="C100" s="6" t="n"/>
+      <c r="D100" s="6" t="n"/>
+      <c r="E100" s="6" t="n"/>
+      <c r="F100" s="6" t="n"/>
+      <c r="G100" s="6" t="n"/>
+      <c r="H100" s="6" t="n"/>
+      <c r="I100" s="6" t="n"/>
+      <c r="J100" s="6" t="n"/>
+      <c r="K100" s="6" t="n"/>
+      <c r="L100" s="6" t="n"/>
+      <c r="M100" s="6" t="n"/>
+      <c r="N100" s="6" t="n"/>
+      <c r="O100" s="6" t="n"/>
+      <c r="P100" s="6" t="n"/>
+      <c r="Q100" s="6" t="n"/>
+      <c r="R100" s="6" t="n"/>
+      <c r="S100" s="6" t="n"/>
+      <c r="T100" s="6" t="n"/>
+      <c r="U100" s="6" t="n"/>
+      <c r="V100" s="6" t="n"/>
+      <c r="W100" s="6" t="n"/>
+      <c r="X100" s="6" t="n"/>
+      <c r="Y100" s="6" t="n"/>
+      <c r="Z100" s="6" t="n"/>
+      <c r="AA100" s="6" t="n"/>
+      <c r="AB100" s="6" t="n"/>
+      <c r="AC100" s="6" t="n"/>
+      <c r="AD100" s="6" t="n"/>
+      <c r="AE100" s="6" t="n"/>
+      <c r="AF100" s="6" t="n"/>
+      <c r="AG100" s="6" t="n"/>
+      <c r="AH100" s="6" t="n"/>
+      <c r="AI100" s="6" t="n"/>
+      <c r="AJ100" s="6" t="n"/>
+      <c r="AK100" s="6" t="n"/>
+      <c r="AL100" s="6" t="n"/>
+      <c r="AM100" s="6" t="n"/>
+      <c r="AN100" s="6" t="n"/>
+      <c r="AO100" s="6" t="n"/>
+      <c r="AP100" s="6" t="n"/>
+      <c r="AQ100" s="6" t="n"/>
+      <c r="AR100" s="6" t="n"/>
+      <c r="AS100" s="6" t="n"/>
+      <c r="AT100" s="6" t="n"/>
+      <c r="AU100" s="6" t="n"/>
+      <c r="AV100" s="6" t="n"/>
+      <c r="AW100" s="6" t="n"/>
+      <c r="AX100" s="6" t="n"/>
+      <c r="AY100" s="6" t="n"/>
+      <c r="AZ100" s="6" t="n"/>
+      <c r="BA100" s="6" t="n"/>
+      <c r="BB100" s="6" t="n"/>
+      <c r="BC100" s="6" t="n"/>
+      <c r="BD100" s="6" t="n"/>
+      <c r="BE100" s="6" t="n"/>
+      <c r="BF100" s="6" t="n"/>
+      <c r="BG100" s="6" t="n"/>
+      <c r="BH100" s="6" t="n"/>
+      <c r="BI100" s="6" t="n"/>
+      <c r="BJ100" s="6" t="n"/>
+      <c r="BK100" s="6" t="n"/>
+      <c r="BL100" s="6" t="n"/>
+      <c r="BM100" s="6" t="n"/>
+      <c r="BN100" s="6" t="n"/>
+      <c r="BO100" s="6" t="n"/>
+      <c r="BP100" s="6" t="n"/>
+      <c r="BQ100" s="6" t="n"/>
+      <c r="BR100" s="6" t="n"/>
+      <c r="BS100" s="6" t="n"/>
+      <c r="BT100" s="6" t="n"/>
+      <c r="BU100" s="6" t="n"/>
+      <c r="BV100" s="6" t="n"/>
+      <c r="BW100" s="6" t="n"/>
+      <c r="BX100" s="6" t="n"/>
+      <c r="BY100" s="6" t="n"/>
+      <c r="BZ100" s="6" t="n"/>
+      <c r="CA100" s="6" t="n"/>
+      <c r="CB100" s="6" t="n"/>
+      <c r="CC100" s="6" t="n"/>
+      <c r="CD100" s="6" t="n"/>
+      <c r="CE100" s="6" t="n"/>
+      <c r="CF100" s="6" t="n"/>
+      <c r="CG100" s="6" t="n"/>
+      <c r="CH100" s="6" t="n"/>
+      <c r="CI100" s="6" t="n"/>
+      <c r="CJ100" s="6" t="n"/>
+      <c r="CK100" s="6" t="n"/>
+      <c r="CL100" s="6" t="n"/>
+      <c r="CM100" s="6" t="n"/>
+      <c r="CN100" s="6" t="n"/>
+      <c r="CO100" s="6" t="n"/>
+      <c r="CP100" s="6" t="n"/>
+      <c r="CQ100" s="6" t="n"/>
+    </row>
+    <row r="101" spans="1:95">
+      <c r="A101" s="6" t="n"/>
+      <c r="B101" s="6" t="n"/>
+      <c r="C101" s="6" t="n"/>
+      <c r="D101" s="6" t="n"/>
+      <c r="E101" s="6" t="n"/>
+      <c r="F101" s="6" t="n"/>
+      <c r="G101" s="6" t="n"/>
+      <c r="H101" s="6" t="n"/>
+      <c r="I101" s="6" t="n"/>
+      <c r="J101" s="6" t="n"/>
+      <c r="K101" s="6" t="n"/>
+      <c r="L101" s="6" t="n"/>
+      <c r="M101" s="6" t="n"/>
+      <c r="N101" s="6" t="n"/>
+      <c r="O101" s="6" t="n"/>
+      <c r="P101" s="6" t="n"/>
+      <c r="Q101" s="6" t="n"/>
+      <c r="R101" s="6" t="n"/>
+      <c r="S101" s="6" t="n"/>
+      <c r="T101" s="6" t="n"/>
+      <c r="U101" s="6" t="n"/>
+      <c r="V101" s="6" t="n"/>
+      <c r="W101" s="6" t="n"/>
+      <c r="X101" s="6" t="n"/>
+      <c r="Y101" s="6" t="n"/>
+      <c r="Z101" s="6" t="n"/>
+      <c r="AA101" s="6" t="n"/>
+      <c r="AB101" s="6" t="n"/>
+      <c r="AC101" s="6" t="n"/>
+      <c r="AD101" s="6" t="n"/>
+      <c r="AE101" s="6" t="n"/>
+      <c r="AF101" s="6" t="n"/>
+      <c r="AG101" s="6" t="n"/>
+      <c r="AH101" s="6" t="n"/>
+      <c r="AI101" s="6" t="n"/>
+      <c r="AJ101" s="6" t="n"/>
+      <c r="AK101" s="6" t="n"/>
+      <c r="AL101" s="6" t="n"/>
+      <c r="AM101" s="6" t="n"/>
+      <c r="AN101" s="6" t="n"/>
+      <c r="AO101" s="6" t="n"/>
+      <c r="AP101" s="6" t="n"/>
+      <c r="AQ101" s="6" t="n"/>
+      <c r="AR101" s="6" t="n"/>
+      <c r="AS101" s="6" t="n"/>
+      <c r="AT101" s="6" t="n"/>
+      <c r="AU101" s="6" t="n"/>
+      <c r="AV101" s="6" t="n"/>
+      <c r="AW101" s="6" t="n"/>
+      <c r="AX101" s="6" t="n"/>
+      <c r="AY101" s="6" t="n"/>
+      <c r="AZ101" s="6" t="n"/>
+      <c r="BA101" s="6" t="n"/>
+      <c r="BB101" s="6" t="n"/>
+      <c r="BC101" s="6" t="n"/>
+      <c r="BD101" s="6" t="n"/>
+      <c r="BE101" s="6" t="n"/>
+      <c r="BF101" s="6" t="n"/>
+      <c r="BG101" s="6" t="n"/>
+      <c r="BH101" s="6" t="n"/>
+      <c r="BI101" s="6" t="n"/>
+      <c r="BJ101" s="6" t="n"/>
+      <c r="BK101" s="6" t="n"/>
+      <c r="BL101" s="6" t="n"/>
+      <c r="BM101" s="6" t="n"/>
+      <c r="BN101" s="6" t="n"/>
+      <c r="BO101" s="6" t="n"/>
+      <c r="BP101" s="6" t="n"/>
+      <c r="BQ101" s="6" t="n"/>
+      <c r="BR101" s="6" t="n"/>
+      <c r="BS101" s="6" t="n"/>
+      <c r="BT101" s="6" t="n"/>
+      <c r="BU101" s="6" t="n"/>
+      <c r="BV101" s="6" t="n"/>
+      <c r="BW101" s="6" t="n"/>
+      <c r="BX101" s="6" t="n"/>
+      <c r="BY101" s="6" t="n"/>
+      <c r="BZ101" s="6" t="n"/>
+      <c r="CA101" s="6" t="n"/>
+      <c r="CB101" s="6" t="n"/>
+      <c r="CC101" s="6" t="n"/>
+      <c r="CD101" s="6" t="n"/>
+      <c r="CE101" s="6" t="n"/>
+      <c r="CF101" s="6" t="n"/>
+      <c r="CG101" s="6" t="n"/>
+      <c r="CH101" s="6" t="n"/>
+      <c r="CI101" s="6" t="n"/>
+      <c r="CJ101" s="6" t="n"/>
+      <c r="CK101" s="6" t="n"/>
+      <c r="CL101" s="6" t="n"/>
+      <c r="CM101" s="6" t="n"/>
+      <c r="CN101" s="6" t="n"/>
+      <c r="CO101" s="6" t="n"/>
+      <c r="CP101" s="6" t="n"/>
+      <c r="CQ101" s="6" t="n"/>
+    </row>
+    <row r="102" spans="1:95">
+      <c r="A102" s="6" t="n"/>
+      <c r="B102" s="6" t="n"/>
+      <c r="C102" s="6" t="n"/>
+      <c r="D102" s="6" t="n"/>
+      <c r="E102" s="6" t="n"/>
+      <c r="F102" s="6" t="n"/>
+      <c r="G102" s="6" t="n"/>
+      <c r="H102" s="6" t="n"/>
+      <c r="I102" s="6" t="n"/>
+      <c r="J102" s="6" t="n"/>
+      <c r="K102" s="6" t="n"/>
+      <c r="L102" s="6" t="n"/>
+      <c r="M102" s="6" t="n"/>
+      <c r="N102" s="6" t="n"/>
+      <c r="O102" s="6" t="n"/>
+      <c r="P102" s="6" t="n"/>
+      <c r="Q102" s="6" t="n"/>
+      <c r="R102" s="6" t="n"/>
+      <c r="S102" s="6" t="n"/>
+      <c r="T102" s="6" t="n"/>
+      <c r="U102" s="6" t="n"/>
+      <c r="V102" s="6" t="n"/>
+      <c r="W102" s="6" t="n"/>
+      <c r="X102" s="6" t="n"/>
+      <c r="Y102" s="6" t="n"/>
+      <c r="Z102" s="6" t="n"/>
+      <c r="AA102" s="6" t="n"/>
+      <c r="AB102" s="6" t="n"/>
+      <c r="AC102" s="6" t="n"/>
+      <c r="AD102" s="6" t="n"/>
+      <c r="AE102" s="6" t="n"/>
+      <c r="AF102" s="6" t="n"/>
+      <c r="AG102" s="6" t="n"/>
+      <c r="AH102" s="6" t="n"/>
+      <c r="AI102" s="6" t="n"/>
+      <c r="AJ102" s="6" t="n"/>
+      <c r="AK102" s="6" t="n"/>
+      <c r="AL102" s="6" t="n"/>
+      <c r="AM102" s="6" t="n"/>
+      <c r="AN102" s="6" t="n"/>
+      <c r="AO102" s="6" t="n"/>
+      <c r="AP102" s="6" t="n"/>
+      <c r="AQ102" s="6" t="n"/>
+      <c r="AR102" s="6" t="n"/>
+      <c r="AS102" s="6" t="n"/>
+      <c r="AT102" s="6" t="n"/>
+      <c r="AU102" s="6" t="n"/>
+      <c r="AV102" s="6" t="n"/>
+      <c r="AW102" s="6" t="n"/>
+      <c r="AX102" s="6" t="n"/>
+      <c r="AY102" s="6" t="n"/>
+      <c r="AZ102" s="6" t="n"/>
+      <c r="BA102" s="6" t="n"/>
+      <c r="BB102" s="6" t="n"/>
+      <c r="BC102" s="6" t="n"/>
+      <c r="BD102" s="6" t="n"/>
+      <c r="BE102" s="6" t="n"/>
+      <c r="BF102" s="6" t="n"/>
+      <c r="BG102" s="6" t="n"/>
+      <c r="BH102" s="6" t="n"/>
+      <c r="BI102" s="6" t="n"/>
+      <c r="BJ102" s="6" t="n"/>
+      <c r="BK102" s="6" t="n"/>
+      <c r="BL102" s="6" t="n"/>
+      <c r="BM102" s="6" t="n"/>
+      <c r="BN102" s="6" t="n"/>
+      <c r="BO102" s="6" t="n"/>
+      <c r="BP102" s="6" t="n"/>
+      <c r="BQ102" s="6" t="n"/>
+      <c r="BR102" s="6" t="n"/>
+      <c r="BS102" s="6" t="n"/>
+      <c r="BT102" s="6" t="n"/>
+      <c r="BU102" s="6" t="n"/>
+      <c r="BV102" s="6" t="n"/>
+      <c r="BW102" s="6" t="n"/>
+      <c r="BX102" s="6" t="n"/>
+      <c r="BY102" s="6" t="n"/>
+      <c r="BZ102" s="6" t="n"/>
+      <c r="CA102" s="6" t="n"/>
+      <c r="CB102" s="6" t="n"/>
+      <c r="CC102" s="6" t="n"/>
+      <c r="CD102" s="6" t="n"/>
+      <c r="CE102" s="6" t="n"/>
+      <c r="CF102" s="6" t="n"/>
+      <c r="CG102" s="6" t="n"/>
+      <c r="CH102" s="6" t="n"/>
+      <c r="CI102" s="6" t="n"/>
+      <c r="CJ102" s="6" t="n"/>
+      <c r="CK102" s="6" t="n"/>
+      <c r="CL102" s="6" t="n"/>
+      <c r="CM102" s="6" t="n"/>
+      <c r="CN102" s="6" t="n"/>
+      <c r="CO102" s="6" t="n"/>
+      <c r="CP102" s="6" t="n"/>
+      <c r="CQ102" s="6" t="n"/>
+    </row>
+    <row r="103" spans="1:95">
+      <c r="A103" s="6" t="n"/>
+      <c r="B103" s="6" t="n"/>
+      <c r="C103" s="6" t="n"/>
+      <c r="D103" s="6" t="n"/>
+      <c r="E103" s="6" t="n"/>
+      <c r="F103" s="6" t="n"/>
+      <c r="G103" s="6" t="n"/>
+      <c r="H103" s="6" t="n"/>
+      <c r="I103" s="6" t="n"/>
+      <c r="J103" s="6" t="n"/>
+      <c r="K103" s="6" t="n"/>
+      <c r="L103" s="6" t="n"/>
+      <c r="M103" s="6" t="n"/>
+      <c r="N103" s="6" t="n"/>
+      <c r="O103" s="6" t="n"/>
+      <c r="P103" s="6" t="n"/>
+      <c r="Q103" s="6" t="n"/>
+      <c r="R103" s="6" t="n"/>
+      <c r="S103" s="6" t="n"/>
+      <c r="T103" s="6" t="n"/>
+      <c r="U103" s="6" t="n"/>
+      <c r="V103" s="6" t="n"/>
+      <c r="W103" s="6" t="n"/>
+      <c r="X103" s="6" t="n"/>
+      <c r="Y103" s="6" t="n"/>
+      <c r="Z103" s="6" t="n"/>
+      <c r="AA103" s="6" t="n"/>
+      <c r="AB103" s="6" t="n"/>
+      <c r="AC103" s="6" t="n"/>
+      <c r="AD103" s="6" t="n"/>
+      <c r="AE103" s="6" t="n"/>
+      <c r="AF103" s="6" t="n"/>
+      <c r="AG103" s="6" t="n"/>
+      <c r="AH103" s="6" t="n"/>
+      <c r="AI103" s="6" t="n"/>
+      <c r="AJ103" s="6" t="n"/>
+      <c r="AK103" s="6" t="n"/>
+      <c r="AL103" s="6" t="n"/>
+      <c r="AM103" s="6" t="n"/>
+      <c r="AN103" s="6" t="n"/>
+      <c r="AO103" s="6" t="n"/>
+      <c r="AP103" s="6" t="n"/>
+      <c r="AQ103" s="6" t="n"/>
+      <c r="AR103" s="6" t="n"/>
+      <c r="AS103" s="6" t="n"/>
+      <c r="AT103" s="6" t="n"/>
+      <c r="AU103" s="6" t="n"/>
+      <c r="AV103" s="6" t="n"/>
+      <c r="AW103" s="6" t="n"/>
+      <c r="AX103" s="6" t="n"/>
+      <c r="AY103" s="6" t="n"/>
+      <c r="AZ103" s="6" t="n"/>
+      <c r="BA103" s="6" t="n"/>
+      <c r="BB103" s="6" t="n"/>
+      <c r="BC103" s="6" t="n"/>
+      <c r="BD103" s="6" t="n"/>
+      <c r="BE103" s="6" t="n"/>
+      <c r="BF103" s="6" t="n"/>
+      <c r="BG103" s="6" t="n"/>
+      <c r="BH103" s="6" t="n"/>
+      <c r="BI103" s="6" t="n"/>
+      <c r="BJ103" s="6" t="n"/>
+      <c r="BK103" s="6" t="n"/>
+      <c r="BL103" s="6" t="n"/>
+      <c r="BM103" s="6" t="n"/>
+      <c r="BN103" s="6" t="n"/>
+      <c r="BO103" s="6" t="n"/>
+      <c r="BP103" s="6" t="n"/>
+      <c r="BQ103" s="6" t="n"/>
+      <c r="BR103" s="6" t="n"/>
+      <c r="BS103" s="6" t="n"/>
+      <c r="BT103" s="6" t="n"/>
+      <c r="BU103" s="6" t="n"/>
+      <c r="BV103" s="6" t="n"/>
+      <c r="BW103" s="6" t="n"/>
+      <c r="BX103" s="6" t="n"/>
+      <c r="BY103" s="6" t="n"/>
+      <c r="BZ103" s="6" t="n"/>
+      <c r="CA103" s="6" t="n"/>
+      <c r="CB103" s="6" t="n"/>
+      <c r="CC103" s="6" t="n"/>
+      <c r="CD103" s="6" t="n"/>
+      <c r="CE103" s="6" t="n"/>
+      <c r="CF103" s="6" t="n"/>
+      <c r="CG103" s="6" t="n"/>
+      <c r="CH103" s="6" t="n"/>
+      <c r="CI103" s="6" t="n"/>
+      <c r="CJ103" s="6" t="n"/>
+      <c r="CK103" s="6" t="n"/>
+      <c r="CL103" s="6" t="n"/>
+      <c r="CM103" s="6" t="n"/>
+      <c r="CN103" s="6" t="n"/>
+      <c r="CO103" s="6" t="n"/>
+      <c r="CP103" s="6" t="n"/>
+      <c r="CQ103" s="6" t="n"/>
+    </row>
+    <row r="104" spans="1:95">
+      <c r="A104" s="6" t="n"/>
+      <c r="B104" s="6" t="n"/>
+      <c r="C104" s="6" t="n"/>
+      <c r="D104" s="6" t="n"/>
+      <c r="E104" s="6" t="n"/>
+      <c r="F104" s="6" t="n"/>
+      <c r="G104" s="6" t="n"/>
+      <c r="H104" s="6" t="n"/>
+      <c r="I104" s="6" t="n"/>
+      <c r="J104" s="6" t="n"/>
+      <c r="K104" s="6" t="n"/>
+      <c r="L104" s="6" t="n"/>
+      <c r="M104" s="6" t="n"/>
+      <c r="N104" s="6" t="n"/>
+      <c r="O104" s="6" t="n"/>
+      <c r="P104" s="6" t="n"/>
+      <c r="Q104" s="6" t="n"/>
+      <c r="R104" s="6" t="n"/>
+      <c r="S104" s="6" t="n"/>
+      <c r="T104" s="6" t="n"/>
+      <c r="U104" s="6" t="n"/>
+      <c r="V104" s="6" t="n"/>
+      <c r="W104" s="6" t="n"/>
+      <c r="X104" s="6" t="n"/>
+      <c r="Y104" s="6" t="n"/>
+      <c r="Z104" s="6" t="n"/>
+      <c r="AA104" s="6" t="n"/>
+      <c r="AB104" s="6" t="n"/>
+      <c r="AC104" s="6" t="n"/>
+      <c r="AD104" s="6" t="n"/>
+      <c r="AE104" s="6" t="n"/>
+      <c r="AF104" s="6" t="n"/>
+      <c r="AG104" s="6" t="n"/>
+      <c r="AH104" s="6" t="n"/>
+      <c r="AI104" s="6" t="n"/>
+      <c r="AJ104" s="6" t="n"/>
+      <c r="AK104" s="6" t="n"/>
+      <c r="AL104" s="6" t="n"/>
+      <c r="AM104" s="6" t="n"/>
+      <c r="AN104" s="6" t="n"/>
+      <c r="AO104" s="6" t="n"/>
+      <c r="AP104" s="6" t="n"/>
+      <c r="AQ104" s="6" t="n"/>
+      <c r="AR104" s="6" t="n"/>
+      <c r="AS104" s="6" t="n"/>
+      <c r="AT104" s="6" t="n"/>
+      <c r="AU104" s="6" t="n"/>
+      <c r="AV104" s="6" t="n"/>
+      <c r="AW104" s="6" t="n"/>
+      <c r="AX104" s="6" t="n"/>
+      <c r="AY104" s="6" t="n"/>
+      <c r="AZ104" s="6" t="n"/>
+      <c r="BA104" s="6" t="n"/>
+      <c r="BB104" s="6" t="n"/>
+      <c r="BC104" s="6" t="n"/>
+      <c r="BD104" s="6" t="n"/>
+      <c r="BE104" s="6" t="n"/>
+      <c r="BF104" s="6" t="n"/>
+      <c r="BG104" s="6" t="n"/>
+      <c r="BH104" s="6" t="n"/>
+      <c r="BI104" s="6" t="n"/>
+      <c r="BJ104" s="6" t="n"/>
+      <c r="BK104" s="6" t="n"/>
+      <c r="BL104" s="6" t="n"/>
+      <c r="BM104" s="6" t="n"/>
+      <c r="BN104" s="6" t="n"/>
+      <c r="BO104" s="6" t="n"/>
+      <c r="BP104" s="6" t="n"/>
+      <c r="BQ104" s="6" t="n"/>
+      <c r="BR104" s="6" t="n"/>
+      <c r="BS104" s="6" t="n"/>
+      <c r="BT104" s="6" t="n"/>
+      <c r="BU104" s="6" t="n"/>
+      <c r="BV104" s="6" t="n"/>
+      <c r="BW104" s="6" t="n"/>
+      <c r="BX104" s="6" t="n"/>
+      <c r="BY104" s="6" t="n"/>
+      <c r="BZ104" s="6" t="n"/>
+      <c r="CA104" s="6" t="n"/>
+      <c r="CB104" s="6" t="n"/>
+      <c r="CC104" s="6" t="n"/>
+      <c r="CD104" s="6" t="n"/>
+      <c r="CE104" s="6" t="n"/>
+      <c r="CF104" s="6" t="n"/>
+      <c r="CG104" s="6" t="n"/>
+      <c r="CH104" s="6" t="n"/>
+      <c r="CI104" s="6" t="n"/>
+      <c r="CJ104" s="6" t="n"/>
+      <c r="CK104" s="6" t="n"/>
+      <c r="CL104" s="6" t="n"/>
+      <c r="CM104" s="6" t="n"/>
+      <c r="CN104" s="6" t="n"/>
+      <c r="CO104" s="6" t="n"/>
+      <c r="CP104" s="6" t="n"/>
+      <c r="CQ104" s="6" t="n"/>
+    </row>
+    <row r="105" spans="1:95">
+      <c r="A105" s="6" t="n"/>
+      <c r="B105" s="6" t="n"/>
+      <c r="C105" s="6" t="n"/>
+      <c r="D105" s="6" t="n"/>
+      <c r="E105" s="6" t="n"/>
+      <c r="F105" s="6" t="n"/>
+      <c r="G105" s="6" t="n"/>
+      <c r="H105" s="6" t="n"/>
+      <c r="I105" s="6" t="n"/>
+      <c r="J105" s="6" t="n"/>
+      <c r="K105" s="6" t="n"/>
+      <c r="L105" s="6" t="n"/>
+      <c r="M105" s="6" t="n"/>
+      <c r="N105" s="6" t="n"/>
+      <c r="O105" s="6" t="n"/>
+      <c r="P105" s="6" t="n"/>
+      <c r="Q105" s="6" t="n"/>
+      <c r="R105" s="6" t="n"/>
+      <c r="S105" s="6" t="n"/>
+      <c r="T105" s="6" t="n"/>
+      <c r="U105" s="6" t="n"/>
+      <c r="V105" s="6" t="n"/>
+      <c r="W105" s="6" t="n"/>
+      <c r="X105" s="6" t="n"/>
+      <c r="Y105" s="6" t="n"/>
+      <c r="Z105" s="6" t="n"/>
+      <c r="AA105" s="6" t="n"/>
+      <c r="AB105" s="6" t="n"/>
+      <c r="AC105" s="6" t="n"/>
+      <c r="AD105" s="6" t="n"/>
+      <c r="AE105" s="6" t="n"/>
+      <c r="AF105" s="6" t="n"/>
+      <c r="AG105" s="6" t="n"/>
+      <c r="AH105" s="6" t="n"/>
+      <c r="AI105" s="6" t="n"/>
+      <c r="AJ105" s="6" t="n"/>
+      <c r="AK105" s="6" t="n"/>
+      <c r="AL105" s="6" t="n"/>
+      <c r="AM105" s="6" t="n"/>
+      <c r="AN105" s="6" t="n"/>
+      <c r="AO105" s="6" t="n"/>
+      <c r="AP105" s="6" t="n"/>
+      <c r="AQ105" s="6" t="n"/>
+      <c r="AR105" s="6" t="n"/>
+      <c r="AS105" s="6" t="n"/>
+      <c r="AT105" s="6" t="n"/>
+      <c r="AU105" s="6" t="n"/>
+      <c r="AV105" s="6" t="n"/>
+      <c r="AW105" s="6" t="n"/>
+      <c r="AX105" s="6" t="n"/>
+      <c r="AY105" s="6" t="n"/>
+      <c r="AZ105" s="6" t="n"/>
+      <c r="BA105" s="6" t="n"/>
+      <c r="BB105" s="6" t="n"/>
+      <c r="BC105" s="6" t="n"/>
+      <c r="BD105" s="6" t="n"/>
+      <c r="BE105" s="6" t="n"/>
+      <c r="BF105" s="6" t="n"/>
+      <c r="BG105" s="6" t="n"/>
+      <c r="BH105" s="6" t="n"/>
+      <c r="BI105" s="6" t="n"/>
+      <c r="BJ105" s="6" t="n"/>
+      <c r="BK105" s="6" t="n"/>
+      <c r="BL105" s="6" t="n"/>
+      <c r="BM105" s="6" t="n"/>
+      <c r="BN105" s="6" t="n"/>
+      <c r="BO105" s="6" t="n"/>
+      <c r="BP105" s="6" t="n"/>
+      <c r="BQ105" s="6" t="n"/>
+      <c r="BR105" s="6" t="n"/>
+      <c r="BS105" s="6" t="n"/>
+      <c r="BT105" s="6" t="n"/>
+      <c r="BU105" s="6" t="n"/>
+      <c r="BV105" s="6" t="n"/>
+      <c r="BW105" s="6" t="n"/>
+      <c r="BX105" s="6" t="n"/>
+      <c r="BY105" s="6" t="n"/>
+      <c r="BZ105" s="6" t="n"/>
+      <c r="CA105" s="6" t="n"/>
+      <c r="CB105" s="6" t="n"/>
+      <c r="CC105" s="6" t="n"/>
+      <c r="CD105" s="6" t="n"/>
+      <c r="CE105" s="6" t="n"/>
+      <c r="CF105" s="6" t="n"/>
+      <c r="CG105" s="6" t="n"/>
+      <c r="CH105" s="6" t="n"/>
+      <c r="CI105" s="6" t="n"/>
+      <c r="CJ105" s="6" t="n"/>
+      <c r="CK105" s="6" t="n"/>
+      <c r="CL105" s="6" t="n"/>
+      <c r="CM105" s="6" t="n"/>
+      <c r="CN105" s="6" t="n"/>
+      <c r="CO105" s="6" t="n"/>
+      <c r="CP105" s="6" t="n"/>
+      <c r="CQ105" s="6" t="n"/>
+    </row>
+    <row r="106" spans="1:95">
+      <c r="A106" s="6" t="n"/>
+      <c r="B106" s="6" t="n"/>
+      <c r="C106" s="6" t="n"/>
+      <c r="D106" s="6" t="n"/>
+      <c r="E106" s="6" t="n"/>
+      <c r="F106" s="6" t="n"/>
+      <c r="G106" s="6" t="n"/>
+      <c r="H106" s="6" t="n"/>
+      <c r="I106" s="6" t="n"/>
+      <c r="J106" s="6" t="n"/>
+      <c r="K106" s="6" t="n"/>
+      <c r="L106" s="6" t="n"/>
+      <c r="M106" s="6" t="n"/>
+      <c r="N106" s="6" t="n"/>
+      <c r="O106" s="6" t="n"/>
+      <c r="P106" s="6" t="n"/>
+      <c r="Q106" s="6" t="n"/>
+      <c r="R106" s="6" t="n"/>
+      <c r="S106" s="6" t="n"/>
+      <c r="T106" s="6" t="n"/>
+      <c r="U106" s="6" t="n"/>
+      <c r="V106" s="6" t="n"/>
+      <c r="W106" s="6" t="n"/>
+      <c r="X106" s="6" t="n"/>
+      <c r="Y106" s="6" t="n"/>
+      <c r="Z106" s="6" t="n"/>
+      <c r="AA106" s="6" t="n"/>
+      <c r="AB106" s="6" t="n"/>
+      <c r="AC106" s="6" t="n"/>
+      <c r="AD106" s="6" t="n"/>
+      <c r="AE106" s="6" t="n"/>
+      <c r="AF106" s="6" t="n"/>
+      <c r="AG106" s="6" t="n"/>
+      <c r="AH106" s="6" t="n"/>
+      <c r="AI106" s="6" t="n"/>
+      <c r="AJ106" s="6" t="n"/>
+      <c r="AK106" s="6" t="n"/>
+      <c r="AL106" s="6" t="n"/>
+      <c r="AM106" s="6" t="n"/>
+      <c r="AN106" s="6" t="n"/>
+      <c r="AO106" s="6" t="n"/>
+      <c r="AP106" s="6" t="n"/>
+      <c r="AQ106" s="6" t="n"/>
+      <c r="AR106" s="6" t="n"/>
+      <c r="AS106" s="6" t="n"/>
+      <c r="AT106" s="6" t="n"/>
+      <c r="AU106" s="6" t="n"/>
+      <c r="AV106" s="6" t="n"/>
+      <c r="AW106" s="6" t="n"/>
+      <c r="AX106" s="6" t="n"/>
+      <c r="AY106" s="6" t="n"/>
+      <c r="AZ106" s="6" t="n"/>
+      <c r="BA106" s="6" t="n"/>
+      <c r="BB106" s="6" t="n"/>
+      <c r="BC106" s="6" t="n"/>
+      <c r="BD106" s="6" t="n"/>
+      <c r="BE106" s="6" t="n"/>
+      <c r="BF106" s="6" t="n"/>
+      <c r="BG106" s="6" t="n"/>
+      <c r="BH106" s="6" t="n"/>
+      <c r="BI106" s="6" t="n"/>
+      <c r="BJ106" s="6" t="n"/>
+      <c r="BK106" s="6" t="n"/>
+      <c r="BL106" s="6" t="n"/>
+      <c r="BM106" s="6" t="n"/>
+      <c r="BN106" s="6" t="n"/>
+      <c r="BO106" s="6" t="n"/>
+      <c r="BP106" s="6" t="n"/>
+      <c r="BQ106" s="6" t="n"/>
+      <c r="BR106" s="6" t="n"/>
+      <c r="BS106" s="6" t="n"/>
+      <c r="BT106" s="6" t="n"/>
+      <c r="BU106" s="6" t="n"/>
+      <c r="BV106" s="6" t="n"/>
+      <c r="BW106" s="6" t="n"/>
+      <c r="BX106" s="6" t="n"/>
+      <c r="BY106" s="6" t="n"/>
+      <c r="BZ106" s="6" t="n"/>
+      <c r="CA106" s="6" t="n"/>
+      <c r="CB106" s="6" t="n"/>
+      <c r="CC106" s="6" t="n"/>
+      <c r="CD106" s="6" t="n"/>
+      <c r="CE106" s="6" t="n"/>
+      <c r="CF106" s="6" t="n"/>
+      <c r="CG106" s="6" t="n"/>
+      <c r="CH106" s="6" t="n"/>
+      <c r="CI106" s="6" t="n"/>
+      <c r="CJ106" s="6" t="n"/>
+      <c r="CK106" s="6" t="n"/>
+      <c r="CL106" s="6" t="n"/>
+      <c r="CM106" s="6" t="n"/>
+      <c r="CN106" s="6" t="n"/>
+      <c r="CO106" s="6" t="n"/>
+      <c r="CP106" s="6" t="n"/>
+      <c r="CQ106" s="6" t="n"/>
+    </row>
+    <row r="107" spans="1:95">
+      <c r="A107" s="6" t="n"/>
+      <c r="B107" s="6" t="n"/>
+      <c r="C107" s="6" t="n"/>
+      <c r="D107" s="6" t="n"/>
+      <c r="E107" s="6" t="n"/>
+      <c r="F107" s="6" t="n"/>
+      <c r="G107" s="6" t="n"/>
+      <c r="H107" s="6" t="n"/>
+      <c r="I107" s="6" t="n"/>
+      <c r="J107" s="6" t="n"/>
+      <c r="K107" s="6" t="n"/>
+      <c r="L107" s="6" t="n"/>
+      <c r="M107" s="6" t="n"/>
+      <c r="N107" s="6" t="n"/>
+      <c r="O107" s="6" t="n"/>
+      <c r="P107" s="6" t="n"/>
+      <c r="Q107" s="6" t="n"/>
+      <c r="R107" s="6" t="n"/>
+      <c r="S107" s="6" t="n"/>
+      <c r="T107" s="6" t="n"/>
+      <c r="U107" s="6" t="n"/>
+      <c r="V107" s="6" t="n"/>
+      <c r="W107" s="6" t="n"/>
+      <c r="X107" s="6" t="n"/>
+      <c r="Y107" s="6" t="n"/>
+      <c r="Z107" s="6" t="n"/>
+      <c r="AA107" s="6" t="n"/>
+      <c r="AB107" s="6" t="n"/>
+      <c r="AC107" s="6" t="n"/>
+      <c r="AD107" s="6" t="n"/>
+      <c r="AE107" s="6" t="n"/>
+      <c r="AF107" s="6" t="n"/>
+      <c r="AG107" s="6" t="n"/>
+      <c r="AH107" s="6" t="n"/>
+      <c r="AI107" s="6" t="n"/>
+      <c r="AJ107" s="6" t="n"/>
+      <c r="AK107" s="6" t="n"/>
+      <c r="AL107" s="6" t="n"/>
+      <c r="AM107" s="6" t="n"/>
+      <c r="AN107" s="6" t="n"/>
+      <c r="AO107" s="6" t="n"/>
+      <c r="AP107" s="6" t="n"/>
+      <c r="AQ107" s="6" t="n"/>
+      <c r="AR107" s="6" t="n"/>
+      <c r="AS107" s="6" t="n"/>
+      <c r="AT107" s="6" t="n"/>
+      <c r="AU107" s="6" t="n"/>
+      <c r="AV107" s="6" t="n"/>
+      <c r="AW107" s="6" t="n"/>
+      <c r="AX107" s="6" t="n"/>
+      <c r="AY107" s="6" t="n"/>
+      <c r="AZ107" s="6" t="n"/>
+      <c r="BA107" s="6" t="n"/>
+      <c r="BB107" s="6" t="n"/>
+      <c r="BC107" s="6" t="n"/>
+      <c r="BD107" s="6" t="n"/>
+      <c r="BE107" s="6" t="n"/>
+      <c r="BF107" s="6" t="n"/>
+      <c r="BG107" s="6" t="n"/>
+      <c r="BH107" s="6" t="n"/>
+      <c r="BI107" s="6" t="n"/>
+      <c r="BJ107" s="6" t="n"/>
+      <c r="BK107" s="6" t="n"/>
+      <c r="BL107" s="6" t="n"/>
+      <c r="BM107" s="6" t="n"/>
+      <c r="BN107" s="6" t="n"/>
+      <c r="BO107" s="6" t="n"/>
+      <c r="BP107" s="6" t="n"/>
+      <c r="BQ107" s="6" t="n"/>
+      <c r="BR107" s="6" t="n"/>
+      <c r="BS107" s="6" t="n"/>
+      <c r="BT107" s="6" t="n"/>
+      <c r="BU107" s="6" t="n"/>
+      <c r="BV107" s="6" t="n"/>
+      <c r="BW107" s="6" t="n"/>
+      <c r="BX107" s="6" t="n"/>
+      <c r="BY107" s="6" t="n"/>
+      <c r="BZ107" s="6" t="n"/>
+      <c r="CA107" s="6" t="n"/>
+      <c r="CB107" s="6" t="n"/>
+      <c r="CC107" s="6" t="n"/>
+      <c r="CD107" s="6" t="n"/>
+      <c r="CE107" s="6" t="n"/>
+      <c r="CF107" s="6" t="n"/>
+      <c r="CG107" s="6" t="n"/>
+      <c r="CH107" s="6" t="n"/>
+      <c r="CI107" s="6" t="n"/>
+      <c r="CJ107" s="6" t="n"/>
+      <c r="CK107" s="6" t="n"/>
+      <c r="CL107" s="6" t="n"/>
+      <c r="CM107" s="6" t="n"/>
+      <c r="CN107" s="6" t="n"/>
+      <c r="CO107" s="6" t="n"/>
+      <c r="CP107" s="6" t="n"/>
+      <c r="CQ107" s="6" t="n"/>
+    </row>
+    <row r="108" spans="1:95">
+      <c r="A108" s="6" t="n"/>
+      <c r="B108" s="6" t="n"/>
+      <c r="C108" s="6" t="n"/>
+      <c r="D108" s="6" t="n"/>
+      <c r="E108" s="6" t="n"/>
+      <c r="F108" s="6" t="n"/>
+      <c r="G108" s="6" t="n"/>
+      <c r="H108" s="6" t="n"/>
+      <c r="I108" s="6" t="n"/>
+      <c r="J108" s="6" t="n"/>
+      <c r="K108" s="6" t="n"/>
+      <c r="L108" s="6" t="n"/>
+      <c r="M108" s="6" t="n"/>
+      <c r="N108" s="6" t="n"/>
+      <c r="O108" s="6" t="n"/>
+      <c r="P108" s="6" t="n"/>
+      <c r="Q108" s="6" t="n"/>
+      <c r="R108" s="6" t="n"/>
+      <c r="S108" s="6" t="n"/>
+      <c r="T108" s="6" t="n"/>
+      <c r="U108" s="6" t="n"/>
+      <c r="V108" s="6" t="n"/>
+      <c r="W108" s="6" t="n"/>
+      <c r="X108" s="6" t="n"/>
+      <c r="Y108" s="6" t="n"/>
+      <c r="Z108" s="6" t="n"/>
+      <c r="AA108" s="6" t="n"/>
+      <c r="AB108" s="6" t="n"/>
+      <c r="AC108" s="6" t="n"/>
+      <c r="AD108" s="6" t="n"/>
+      <c r="AE108" s="6" t="n"/>
+      <c r="AF108" s="6" t="n"/>
+      <c r="AG108" s="6" t="n"/>
+      <c r="AH108" s="6" t="n"/>
+      <c r="AI108" s="6" t="n"/>
+      <c r="AJ108" s="6" t="n"/>
+      <c r="AK108" s="6" t="n"/>
+      <c r="AL108" s="6" t="n"/>
+      <c r="AM108" s="6" t="n"/>
+      <c r="AN108" s="6" t="n"/>
+      <c r="AO108" s="6" t="n"/>
+      <c r="AP108" s="6" t="n"/>
+      <c r="AQ108" s="6" t="n"/>
+      <c r="AR108" s="6" t="n"/>
+      <c r="AS108" s="6" t="n"/>
+      <c r="AT108" s="6" t="n"/>
+      <c r="AU108" s="6" t="n"/>
+      <c r="AV108" s="6" t="n"/>
+      <c r="AW108" s="6" t="n"/>
+      <c r="AX108" s="6" t="n"/>
+      <c r="AY108" s="6" t="n"/>
+      <c r="AZ108" s="6" t="n"/>
+      <c r="BA108" s="6" t="n"/>
+      <c r="BB108" s="6" t="n"/>
+      <c r="BC108" s="6" t="n"/>
+      <c r="BD108" s="6" t="n"/>
+      <c r="BE108" s="6" t="n"/>
+      <c r="BF108" s="6" t="n"/>
+      <c r="BG108" s="6" t="n"/>
+      <c r="BH108" s="6" t="n"/>
+      <c r="BI108" s="6" t="n"/>
+      <c r="BJ108" s="6" t="n"/>
+      <c r="BK108" s="6" t="n"/>
+      <c r="BL108" s="6" t="n"/>
+      <c r="BM108" s="6" t="n"/>
+      <c r="BN108" s="6" t="n"/>
+      <c r="BO108" s="6" t="n"/>
+      <c r="BP108" s="6" t="n"/>
+      <c r="BQ108" s="6" t="n"/>
+      <c r="BR108" s="6" t="n"/>
+      <c r="BS108" s="6" t="n"/>
+      <c r="BT108" s="6" t="n"/>
+      <c r="BU108" s="6" t="n"/>
+      <c r="BV108" s="6" t="n"/>
+      <c r="BW108" s="6" t="n"/>
+      <c r="BX108" s="6" t="n"/>
+      <c r="BY108" s="6" t="n"/>
+      <c r="BZ108" s="6" t="n"/>
+      <c r="CA108" s="6" t="n"/>
+      <c r="CB108" s="6" t="n"/>
+      <c r="CC108" s="6" t="n"/>
+      <c r="CD108" s="6" t="n"/>
+      <c r="CE108" s="6" t="n"/>
+      <c r="CF108" s="6" t="n"/>
+      <c r="CG108" s="6" t="n"/>
+      <c r="CH108" s="6" t="n"/>
+      <c r="CI108" s="6" t="n"/>
+      <c r="CJ108" s="6" t="n"/>
+      <c r="CK108" s="6" t="n"/>
+      <c r="CL108" s="6" t="n"/>
+      <c r="CM108" s="6" t="n"/>
+      <c r="CN108" s="6" t="n"/>
+      <c r="CO108" s="6" t="n"/>
+      <c r="CP108" s="6" t="n"/>
+      <c r="CQ108" s="6" t="n"/>
+    </row>
+    <row r="109" spans="1:95">
+      <c r="A109" s="6" t="n"/>
+      <c r="B109" s="6" t="n"/>
+      <c r="C109" s="6" t="n"/>
+      <c r="D109" s="6" t="n"/>
+      <c r="E109" s="6" t="n"/>
+      <c r="F109" s="6" t="n"/>
+      <c r="G109" s="6" t="n"/>
+      <c r="H109" s="6" t="n"/>
+      <c r="I109" s="6" t="n"/>
+      <c r="J109" s="6" t="n"/>
+      <c r="K109" s="6" t="n"/>
+      <c r="L109" s="6" t="n"/>
+      <c r="M109" s="6" t="n"/>
+      <c r="N109" s="6" t="n"/>
+      <c r="O109" s="6" t="n"/>
+      <c r="P109" s="6" t="n"/>
+      <c r="Q109" s="6" t="n"/>
+      <c r="R109" s="6" t="n"/>
+      <c r="S109" s="6" t="n"/>
+      <c r="T109" s="6" t="n"/>
+      <c r="U109" s="6" t="n"/>
+      <c r="V109" s="6" t="n"/>
+      <c r="W109" s="6" t="n"/>
+      <c r="X109" s="6" t="n"/>
+      <c r="Y109" s="6" t="n"/>
+      <c r="Z109" s="6" t="n"/>
+      <c r="AA109" s="6" t="n"/>
+      <c r="AB109" s="6" t="n"/>
+      <c r="AC109" s="6" t="n"/>
+      <c r="AD109" s="6" t="n"/>
+      <c r="AE109" s="6" t="n"/>
+      <c r="AF109" s="6" t="n"/>
+      <c r="AG109" s="6" t="n"/>
+      <c r="AH109" s="6" t="n"/>
+      <c r="AI109" s="6" t="n"/>
+      <c r="AJ109" s="6" t="n"/>
+      <c r="AK109" s="6" t="n"/>
+      <c r="AL109" s="6" t="n"/>
+      <c r="AM109" s="6" t="n"/>
+      <c r="AN109" s="6" t="n"/>
+      <c r="AO109" s="6" t="n"/>
+      <c r="AP109" s="6" t="n"/>
+      <c r="AQ109" s="6" t="n"/>
+      <c r="AR109" s="6" t="n"/>
+      <c r="AS109" s="6" t="n"/>
+      <c r="AT109" s="6" t="n"/>
+      <c r="AU109" s="6" t="n"/>
+      <c r="AV109" s="6" t="n"/>
+      <c r="AW109" s="6" t="n"/>
+      <c r="AX109" s="6" t="n"/>
+      <c r="AY109" s="6" t="n"/>
+      <c r="AZ109" s="6" t="n"/>
+      <c r="BA109" s="6" t="n"/>
+      <c r="BB109" s="6" t="n"/>
+      <c r="BC109" s="6" t="n"/>
+      <c r="BD109" s="6" t="n"/>
+      <c r="BE109" s="6" t="n"/>
+      <c r="BF109" s="6" t="n"/>
+      <c r="BG109" s="6" t="n"/>
+      <c r="BH109" s="6" t="n"/>
+      <c r="BI109" s="6" t="n"/>
+      <c r="BJ109" s="6" t="n"/>
+      <c r="BK109" s="6" t="n"/>
+      <c r="BL109" s="6" t="n"/>
+      <c r="BM109" s="6" t="n"/>
+      <c r="BN109" s="6" t="n"/>
+      <c r="BO109" s="6" t="n"/>
+      <c r="BP109" s="6" t="n"/>
+      <c r="BQ109" s="6" t="n"/>
+      <c r="BR109" s="6" t="n"/>
+      <c r="BS109" s="6" t="n"/>
+      <c r="BT109" s="6" t="n"/>
+      <c r="BU109" s="6" t="n"/>
+      <c r="BV109" s="6" t="n"/>
+      <c r="BW109" s="6" t="n"/>
+      <c r="BX109" s="6" t="n"/>
+      <c r="BY109" s="6" t="n"/>
+      <c r="BZ109" s="6" t="n"/>
+      <c r="CA109" s="6" t="n"/>
+      <c r="CB109" s="6" t="n"/>
+      <c r="CC109" s="6" t="n"/>
+      <c r="CD109" s="6" t="n"/>
+      <c r="CE109" s="6" t="n"/>
+      <c r="CF109" s="6" t="n"/>
+      <c r="CG109" s="6" t="n"/>
+      <c r="CH109" s="6" t="n"/>
+      <c r="CI109" s="6" t="n"/>
+      <c r="CJ109" s="6" t="n"/>
+      <c r="CK109" s="6" t="n"/>
+      <c r="CL109" s="6" t="n"/>
+      <c r="CM109" s="6" t="n"/>
+      <c r="CN109" s="6" t="n"/>
+      <c r="CO109" s="6" t="n"/>
+      <c r="CP109" s="6" t="n"/>
+      <c r="CQ109" s="6" t="n"/>
+    </row>
+    <row r="110" spans="1:95">
+      <c r="A110" s="6" t="n"/>
+      <c r="B110" s="6" t="n"/>
+      <c r="C110" s="6" t="n"/>
+      <c r="D110" s="6" t="n"/>
+      <c r="E110" s="6" t="n"/>
+      <c r="F110" s="6" t="n"/>
+      <c r="G110" s="6" t="n"/>
+      <c r="H110" s="6" t="n"/>
+      <c r="I110" s="6" t="n"/>
+      <c r="J110" s="6" t="n"/>
+      <c r="K110" s="6" t="n"/>
+      <c r="L110" s="6" t="n"/>
+      <c r="M110" s="6" t="n"/>
+      <c r="N110" s="6" t="n"/>
+      <c r="O110" s="6" t="n"/>
+      <c r="P110" s="6" t="n"/>
+      <c r="Q110" s="6" t="n"/>
+      <c r="R110" s="6" t="n"/>
+      <c r="S110" s="6" t="n"/>
+      <c r="T110" s="6" t="n"/>
+      <c r="U110" s="6" t="n"/>
+      <c r="V110" s="6" t="n"/>
+      <c r="W110" s="6" t="n"/>
+      <c r="X110" s="6" t="n"/>
+      <c r="Y110" s="6" t="n"/>
+      <c r="Z110" s="6" t="n"/>
+      <c r="AA110" s="6" t="n"/>
+      <c r="AB110" s="6" t="n"/>
+      <c r="AC110" s="6" t="n"/>
+      <c r="AD110" s="6" t="n"/>
+      <c r="AE110" s="6" t="n"/>
+      <c r="AF110" s="6" t="n"/>
+      <c r="AG110" s="6" t="n"/>
+      <c r="AH110" s="6" t="n"/>
+      <c r="AI110" s="6" t="n"/>
+      <c r="AJ110" s="6" t="n"/>
+      <c r="AK110" s="6" t="n"/>
+      <c r="AL110" s="6" t="n"/>
+      <c r="AM110" s="6" t="n"/>
+      <c r="AN110" s="6" t="n"/>
+      <c r="AO110" s="6" t="n"/>
+      <c r="AP110" s="6" t="n"/>
+      <c r="AQ110" s="6" t="n"/>
+      <c r="AR110" s="6" t="n"/>
+      <c r="AS110" s="6" t="n"/>
+      <c r="AT110" s="6" t="n"/>
+      <c r="AU110" s="6" t="n"/>
+      <c r="AV110" s="6" t="n"/>
+      <c r="AW110" s="6" t="n"/>
+      <c r="AX110" s="6" t="n"/>
+      <c r="AY110" s="6" t="n"/>
+      <c r="AZ110" s="6" t="n"/>
+      <c r="BA110" s="6" t="n"/>
+      <c r="BB110" s="6" t="n"/>
+      <c r="BC110" s="6" t="n"/>
+      <c r="BD110" s="6" t="n"/>
+      <c r="BE110" s="6" t="n"/>
+      <c r="BF110" s="6" t="n"/>
+      <c r="BG110" s="6" t="n"/>
+      <c r="BH110" s="6" t="n"/>
+      <c r="BI110" s="6" t="n"/>
+      <c r="BJ110" s="6" t="n"/>
+      <c r="BK110" s="6" t="n"/>
+      <c r="BL110" s="6" t="n"/>
+      <c r="BM110" s="6" t="n"/>
+      <c r="BN110" s="6" t="n"/>
+      <c r="BO110" s="6" t="n"/>
+      <c r="BP110" s="6" t="n"/>
+      <c r="BQ110" s="6" t="n"/>
+      <c r="BR110" s="6" t="n"/>
+      <c r="BS110" s="6" t="n"/>
+      <c r="BT110" s="6" t="n"/>
+      <c r="BU110" s="6" t="n"/>
+      <c r="BV110" s="6" t="n"/>
+      <c r="BW110" s="6" t="n"/>
+      <c r="BX110" s="6" t="n"/>
+      <c r="BY110" s="6" t="n"/>
+      <c r="BZ110" s="6" t="n"/>
+      <c r="CA110" s="6" t="n"/>
+      <c r="CB110" s="6" t="n"/>
+      <c r="CC110" s="6" t="n"/>
+      <c r="CD110" s="6" t="n"/>
+      <c r="CE110" s="6" t="n"/>
+      <c r="CF110" s="6" t="n"/>
+      <c r="CG110" s="6" t="n"/>
+      <c r="CH110" s="6" t="n"/>
+      <c r="CI110" s="6" t="n"/>
+      <c r="CJ110" s="6" t="n"/>
+      <c r="CK110" s="6" t="n"/>
+      <c r="CL110" s="6" t="n"/>
+      <c r="CM110" s="6" t="n"/>
+      <c r="CN110" s="6" t="n"/>
+      <c r="CO110" s="6" t="n"/>
+      <c r="CP110" s="6" t="n"/>
+      <c r="CQ110" s="6" t="n"/>
+    </row>
+    <row r="111" spans="1:95">
+      <c r="A111" s="6" t="n"/>
+      <c r="B111" s="6" t="n"/>
+      <c r="C111" s="6" t="n"/>
+      <c r="D111" s="6" t="n"/>
+      <c r="E111" s="6" t="n"/>
+      <c r="F111" s="6" t="n"/>
+      <c r="G111" s="6" t="n"/>
+      <c r="H111" s="6" t="n"/>
+      <c r="I111" s="6" t="n"/>
+      <c r="J111" s="6" t="n"/>
+      <c r="K111" s="6" t="n"/>
+      <c r="L111" s="6" t="n"/>
+      <c r="M111" s="6" t="n"/>
+      <c r="N111" s="6" t="n"/>
+      <c r="O111" s="6" t="n"/>
+      <c r="P111" s="6" t="n"/>
+      <c r="Q111" s="6" t="n"/>
+      <c r="R111" s="6" t="n"/>
+      <c r="S111" s="6" t="n"/>
+      <c r="T111" s="6" t="n"/>
+      <c r="U111" s="6" t="n"/>
+      <c r="V111" s="6" t="n"/>
+      <c r="W111" s="6" t="n"/>
+      <c r="X111" s="6" t="n"/>
+      <c r="Y111" s="6" t="n"/>
+      <c r="Z111" s="6" t="n"/>
+      <c r="AA111" s="6" t="n"/>
+      <c r="AB111" s="6" t="n"/>
+      <c r="AC111" s="6" t="n"/>
+      <c r="AD111" s="6" t="n"/>
+      <c r="AE111" s="6" t="n"/>
+      <c r="AF111" s="6" t="n"/>
+      <c r="AG111" s="6" t="n"/>
+      <c r="AH111" s="6" t="n"/>
+      <c r="AI111" s="6" t="n"/>
+      <c r="AJ111" s="6" t="n"/>
+      <c r="AK111" s="6" t="n"/>
+      <c r="AL111" s="6" t="n"/>
+      <c r="AM111" s="6" t="n"/>
+      <c r="AN111" s="6" t="n"/>
+      <c r="AO111" s="6" t="n"/>
+      <c r="AP111" s="6" t="n"/>
+      <c r="AQ111" s="6" t="n"/>
+      <c r="AR111" s="6" t="n"/>
+      <c r="AS111" s="6" t="n"/>
+      <c r="AT111" s="6" t="n"/>
+      <c r="AU111" s="6" t="n"/>
+      <c r="AV111" s="6" t="n"/>
+      <c r="AW111" s="6" t="n"/>
+      <c r="AX111" s="6" t="n"/>
+      <c r="AY111" s="6" t="n"/>
+      <c r="AZ111" s="6" t="n"/>
+      <c r="BA111" s="6" t="n"/>
+      <c r="BB111" s="6" t="n"/>
+      <c r="BC111" s="6" t="n"/>
+      <c r="BD111" s="6" t="n"/>
+      <c r="BE111" s="6" t="n"/>
+      <c r="BF111" s="6" t="n"/>
+      <c r="BG111" s="6" t="n"/>
+      <c r="BH111" s="6" t="n"/>
+      <c r="BI111" s="6" t="n"/>
+      <c r="BJ111" s="6" t="n"/>
+      <c r="BK111" s="6" t="n"/>
+      <c r="BL111" s="6" t="n"/>
+      <c r="BM111" s="6" t="n"/>
+      <c r="BN111" s="6" t="n"/>
+      <c r="BO111" s="6" t="n"/>
+      <c r="BP111" s="6" t="n"/>
+      <c r="BQ111" s="6" t="n"/>
+      <c r="BR111" s="6" t="n"/>
+      <c r="BS111" s="6" t="n"/>
+      <c r="BT111" s="6" t="n"/>
+      <c r="BU111" s="6" t="n"/>
+      <c r="BV111" s="6" t="n"/>
+      <c r="BW111" s="6" t="n"/>
+      <c r="BX111" s="6" t="n"/>
+      <c r="BY111" s="6" t="n"/>
+      <c r="BZ111" s="6" t="n"/>
+      <c r="CA111" s="6" t="n"/>
+      <c r="CB111" s="6" t="n"/>
+      <c r="CC111" s="6" t="n"/>
+      <c r="CD111" s="6" t="n"/>
+      <c r="CE111" s="6" t="n"/>
+      <c r="CF111" s="6" t="n"/>
+      <c r="CG111" s="6" t="n"/>
+      <c r="CH111" s="6" t="n"/>
+      <c r="CI111" s="6" t="n"/>
+      <c r="CJ111" s="6" t="n"/>
+      <c r="CK111" s="6" t="n"/>
+      <c r="CL111" s="6" t="n"/>
+      <c r="CM111" s="6" t="n"/>
+      <c r="CN111" s="6" t="n"/>
+      <c r="CO111" s="6" t="n"/>
+      <c r="CP111" s="6" t="n"/>
+      <c r="CQ111" s="6" t="n"/>
+    </row>
+    <row r="112" spans="1:95">
+      <c r="A112" s="6" t="n"/>
+      <c r="B112" s="6" t="n"/>
+      <c r="C112" s="6" t="n"/>
+      <c r="D112" s="6" t="n"/>
+      <c r="E112" s="6" t="n"/>
+      <c r="F112" s="6" t="n"/>
+      <c r="G112" s="6" t="n"/>
+      <c r="H112" s="6" t="n"/>
+      <c r="I112" s="6" t="n"/>
+      <c r="J112" s="6" t="n"/>
+      <c r="K112" s="6" t="n"/>
+      <c r="L112" s="6" t="n"/>
+      <c r="M112" s="6" t="n"/>
+      <c r="N112" s="6" t="n"/>
+      <c r="O112" s="6" t="n"/>
+      <c r="P112" s="6" t="n"/>
+      <c r="Q112" s="6" t="n"/>
+      <c r="R112" s="6" t="n"/>
+      <c r="S112" s="6" t="n"/>
+      <c r="T112" s="6" t="n"/>
+      <c r="U112" s="6" t="n"/>
+      <c r="V112" s="6" t="n"/>
+      <c r="W112" s="6" t="n"/>
+      <c r="X112" s="6" t="n"/>
+      <c r="Y112" s="6" t="n"/>
+      <c r="Z112" s="6" t="n"/>
+      <c r="AA112" s="6" t="n"/>
+      <c r="AB112" s="6" t="n"/>
+      <c r="AC112" s="6" t="n"/>
+      <c r="AD112" s="6" t="n"/>
+      <c r="AE112" s="6" t="n"/>
+      <c r="AF112" s="6" t="n"/>
+      <c r="AG112" s="6" t="n"/>
+      <c r="AH112" s="6" t="n"/>
+      <c r="AI112" s="6" t="n"/>
+      <c r="AJ112" s="6" t="n"/>
+      <c r="AK112" s="6" t="n"/>
+      <c r="AL112" s="6" t="n"/>
+      <c r="AM112" s="6" t="n"/>
+      <c r="AN112" s="6" t="n"/>
+      <c r="AO112" s="6" t="n"/>
+      <c r="AP112" s="6" t="n"/>
+      <c r="AQ112" s="6" t="n"/>
+      <c r="AR112" s="6" t="n"/>
+      <c r="AS112" s="6" t="n"/>
+      <c r="AT112" s="6" t="n"/>
+      <c r="AU112" s="6" t="n"/>
+      <c r="AV112" s="6" t="n"/>
+      <c r="AW112" s="6" t="n"/>
+      <c r="AX112" s="6" t="n"/>
+      <c r="AY112" s="6" t="n"/>
+      <c r="AZ112" s="6" t="n"/>
+      <c r="BA112" s="6" t="n"/>
+      <c r="BB112" s="6" t="n"/>
+      <c r="BC112" s="6" t="n"/>
+      <c r="BD112" s="6" t="n"/>
+      <c r="BE112" s="6" t="n"/>
+      <c r="BF112" s="6" t="n"/>
+      <c r="BG112" s="6" t="n"/>
+      <c r="BH112" s="6" t="n"/>
+      <c r="BI112" s="6" t="n"/>
+      <c r="BJ112" s="6" t="n"/>
+      <c r="BK112" s="6" t="n"/>
+      <c r="BL112" s="6" t="n"/>
+      <c r="BM112" s="6" t="n"/>
+      <c r="BN112" s="6" t="n"/>
+      <c r="BO112" s="6" t="n"/>
+      <c r="BP112" s="6" t="n"/>
+      <c r="BQ112" s="6" t="n"/>
+      <c r="BR112" s="6" t="n"/>
+      <c r="BS112" s="6" t="n"/>
+      <c r="BT112" s="6" t="n"/>
+      <c r="BU112" s="6" t="n"/>
+      <c r="BV112" s="6" t="n"/>
+      <c r="BW112" s="6" t="n"/>
+      <c r="BX112" s="6" t="n"/>
+      <c r="BY112" s="6" t="n"/>
+      <c r="BZ112" s="6" t="n"/>
+      <c r="CA112" s="6" t="n"/>
+      <c r="CB112" s="6" t="n"/>
+      <c r="CC112" s="6" t="n"/>
+      <c r="CD112" s="6" t="n"/>
+      <c r="CE112" s="6" t="n"/>
+      <c r="CF112" s="6" t="n"/>
+      <c r="CG112" s="6" t="n"/>
+      <c r="CH112" s="6" t="n"/>
+      <c r="CI112" s="6" t="n"/>
+      <c r="CJ112" s="6" t="n"/>
+      <c r="CK112" s="6" t="n"/>
+      <c r="CL112" s="6" t="n"/>
+      <c r="CM112" s="6" t="n"/>
+      <c r="CN112" s="6" t="n"/>
+      <c r="CO112" s="6" t="n"/>
+      <c r="CP112" s="6" t="n"/>
+      <c r="CQ112" s="6" t="n"/>
+    </row>
+    <row r="113" spans="1:95">
+      <c r="A113" s="6" t="n"/>
+      <c r="B113" s="6" t="n"/>
+      <c r="C113" s="6" t="n"/>
+      <c r="D113" s="6" t="n"/>
+      <c r="E113" s="6" t="n"/>
+      <c r="F113" s="6" t="n"/>
+      <c r="G113" s="6" t="n"/>
+      <c r="H113" s="6" t="n"/>
+      <c r="I113" s="6" t="n"/>
+      <c r="J113" s="6" t="n"/>
+      <c r="K113" s="6" t="n"/>
+      <c r="L113" s="6" t="n"/>
+      <c r="M113" s="6" t="n"/>
+      <c r="N113" s="6" t="n"/>
+      <c r="O113" s="6" t="n"/>
+      <c r="P113" s="6" t="n"/>
+      <c r="Q113" s="6" t="n"/>
+      <c r="R113" s="6" t="n"/>
+      <c r="S113" s="6" t="n"/>
+      <c r="T113" s="6" t="n"/>
+      <c r="U113" s="6" t="n"/>
+      <c r="V113" s="6" t="n"/>
+      <c r="W113" s="6" t="n"/>
+      <c r="X113" s="6" t="n"/>
+      <c r="Y113" s="6" t="n"/>
+      <c r="Z113" s="6" t="n"/>
+      <c r="AA113" s="6" t="n"/>
+      <c r="AB113" s="6" t="n"/>
+      <c r="AC113" s="6" t="n"/>
+      <c r="AD113" s="6" t="n"/>
+      <c r="AE113" s="6" t="n"/>
+      <c r="AF113" s="6" t="n"/>
+      <c r="AG113" s="6" t="n"/>
+      <c r="AH113" s="6" t="n"/>
+      <c r="AI113" s="6" t="n"/>
+      <c r="AJ113" s="6" t="n"/>
+      <c r="AK113" s="6" t="n"/>
+      <c r="AL113" s="6" t="n"/>
+      <c r="AM113" s="6" t="n"/>
+      <c r="AN113" s="6" t="n"/>
+      <c r="AO113" s="6" t="n"/>
+      <c r="AP113" s="6" t="n"/>
+      <c r="AQ113" s="6" t="n"/>
+      <c r="AR113" s="6" t="n"/>
+      <c r="AS113" s="6" t="n"/>
+      <c r="AT113" s="6" t="n"/>
+      <c r="AU113" s="6" t="n"/>
+      <c r="AV113" s="6" t="n"/>
+      <c r="AW113" s="6" t="n"/>
+      <c r="AX113" s="6" t="n"/>
+      <c r="AY113" s="6" t="n"/>
+      <c r="AZ113" s="6" t="n"/>
+      <c r="BA113" s="6" t="n"/>
+      <c r="BB113" s="6" t="n"/>
+      <c r="BC113" s="6" t="n"/>
+      <c r="BD113" s="6" t="n"/>
+      <c r="BE113" s="6" t="n"/>
+      <c r="BF113" s="6" t="n"/>
+      <c r="BG113" s="6" t="n"/>
+      <c r="BH113" s="6" t="n"/>
+      <c r="BI113" s="6" t="n"/>
+      <c r="BJ113" s="6" t="n"/>
+      <c r="BK113" s="6" t="n"/>
+      <c r="BL113" s="6" t="n"/>
+      <c r="BM113" s="6" t="n"/>
+      <c r="BN113" s="6" t="n"/>
+      <c r="BO113" s="6" t="n"/>
+      <c r="BP113" s="6" t="n"/>
+      <c r="BQ113" s="6" t="n"/>
+      <c r="BR113" s="6" t="n"/>
+      <c r="BS113" s="6" t="n"/>
+      <c r="BT113" s="6" t="n"/>
+      <c r="BU113" s="6" t="n"/>
+      <c r="BV113" s="6" t="n"/>
+      <c r="BW113" s="6" t="n"/>
+      <c r="BX113" s="6" t="n"/>
+      <c r="BY113" s="6" t="n"/>
+      <c r="BZ113" s="6" t="n"/>
+      <c r="CA113" s="6" t="n"/>
+      <c r="CB113" s="6" t="n"/>
+      <c r="CC113" s="6" t="n"/>
+      <c r="CD113" s="6" t="n"/>
+      <c r="CE113" s="6" t="n"/>
+      <c r="CF113" s="6" t="n"/>
+      <c r="CG113" s="6" t="n"/>
+      <c r="CH113" s="6" t="n"/>
+      <c r="CI113" s="6" t="n"/>
+      <c r="CJ113" s="6" t="n"/>
+      <c r="CK113" s="6" t="n"/>
+      <c r="CL113" s="6" t="n"/>
+      <c r="CM113" s="6" t="n"/>
+      <c r="CN113" s="6" t="n"/>
+      <c r="CO113" s="6" t="n"/>
+      <c r="CP113" s="6" t="n"/>
+      <c r="CQ113" s="6" t="n"/>
+    </row>
   </sheetData>
   <mergeCells count="353">
     <mergeCell ref="BX30:CA30"/>
@@ -6568,7 +10953,7 @@
       <c r="B1" s="16" t="n"/>
       <c r="C1" s="16" t="n"/>
       <c r="D1" s="16" t="s">
-        <v>61</v>
+        <v>0</v>
       </c>
       <c r="E1" s="16" t="n"/>
       <c r="F1" s="16" t="n"/>
@@ -6591,10 +10976,10 @@
       <c r="W1" s="16" t="n"/>
       <c r="X1" s="16" t="n"/>
       <c r="Y1" s="85" t="s">
-        <v>62</v>
+        <v>1</v>
       </c>
       <c r="BO1" s="16" t="s">
-        <v>63</v>
+        <v>2</v>
       </c>
       <c r="BP1" s="16" t="n"/>
       <c r="BQ1" s="16" t="n"/>
@@ -6630,7 +11015,7 @@
       <c r="B2" s="16" t="n"/>
       <c r="C2" s="16" t="n"/>
       <c r="D2" s="16" t="s">
-        <v>64</v>
+        <v>4</v>
       </c>
       <c r="E2" s="16" t="n"/>
       <c r="F2" s="16" t="n"/>
@@ -6644,7 +11029,7 @@
       <c r="N2" s="16" t="n"/>
       <c r="O2" s="85" t="n"/>
       <c r="BO2" s="16" t="s">
-        <v>65</v>
+        <v>5</v>
       </c>
       <c r="BP2" s="16" t="n"/>
       <c r="BQ2" s="16" t="n"/>
@@ -6691,7 +11076,7 @@
       <c r="M3" s="16" t="n"/>
       <c r="N3" s="16" t="n"/>
       <c r="O3" s="31" t="s">
-        <v>66</v>
+        <v>7</v>
       </c>
       <c r="BO3" s="16" t="n"/>
       <c r="BP3" s="16" t="n"/>
@@ -6900,7 +11285,7 @@
       <c r="BY5" s="16" t="n"/>
       <c r="BZ5" s="16" t="n"/>
       <c r="CA5" s="87" t="s">
-        <v>67</v>
+        <v>9</v>
       </c>
     </row>
     <row customHeight="1" ht="15.75" r="6" s="51" spans="1:95">
@@ -6933,7 +11318,7 @@
       <c r="AA6" s="16" t="n"/>
       <c r="AB6" s="16" t="n"/>
       <c r="AC6" s="16" t="s">
-        <v>68</v>
+        <v>11</v>
       </c>
       <c r="AD6" s="16" t="n"/>
       <c r="AE6" s="16" t="n"/>
@@ -6946,7 +11331,7 @@
       <c r="AL6" s="16" t="n"/>
       <c r="AM6" s="16" t="n"/>
       <c r="AN6" s="84" t="s">
-        <v>67</v>
+        <v>9</v>
       </c>
       <c r="BZ6" s="16" t="n"/>
     </row>
@@ -6991,11 +11376,11 @@
       <c r="AL7" s="16" t="n"/>
       <c r="AM7" s="16" t="n"/>
       <c r="AN7" s="31" t="s">
-        <v>66</v>
+        <v>7</v>
       </c>
       <c r="BZ7" s="16" t="n"/>
       <c r="CA7" s="87" t="s">
-        <v>67</v>
+        <v>9</v>
       </c>
     </row>
     <row customHeight="1" ht="8.25" r="8" s="51" spans="1:95">
@@ -7003,7 +11388,7 @@
       <c r="B8" s="16" t="n"/>
       <c r="C8" s="16" t="n"/>
       <c r="D8" s="16" t="s">
-        <v>69</v>
+        <v>16</v>
       </c>
       <c r="E8" s="16" t="n"/>
       <c r="F8" s="16" t="n"/>
@@ -7012,11 +11397,11 @@
       <c r="I8" s="16" t="n"/>
       <c r="J8" s="16" t="n"/>
       <c r="K8" s="84" t="s">
-        <v>67</v>
+        <v>9</v>
       </c>
       <c r="AB8" s="16" t="n"/>
       <c r="AC8" s="16" t="s">
-        <v>70</v>
+        <v>17</v>
       </c>
       <c r="AD8" s="16" t="n"/>
       <c r="AE8" s="16" t="n"/>
@@ -7029,7 +11414,7 @@
       <c r="AL8" s="16" t="n"/>
       <c r="AM8" s="16" t="n"/>
       <c r="AN8" s="84" t="s">
-        <v>67</v>
+        <v>9</v>
       </c>
       <c r="BZ8" s="16" t="n"/>
     </row>
@@ -7045,7 +11430,7 @@
       <c r="I9" s="16" t="n"/>
       <c r="J9" s="16" t="n"/>
       <c r="K9" s="31" t="s">
-        <v>66</v>
+        <v>7</v>
       </c>
       <c r="AB9" s="86" t="n"/>
       <c r="AC9" s="16" t="n"/>
@@ -7060,7 +11445,7 @@
       <c r="AL9" s="16" t="n"/>
       <c r="AM9" s="16" t="n"/>
       <c r="AN9" s="31" t="s">
-        <v>66</v>
+        <v>7</v>
       </c>
       <c r="BZ9" s="16" t="n"/>
       <c r="CA9" s="16" t="n"/>
@@ -7180,7 +11565,7 @@
     </row>
     <row customHeight="1" ht="9" r="11" s="51" spans="1:95">
       <c r="A11" s="98" t="s">
-        <v>71</v>
+        <v>20</v>
       </c>
       <c r="B11" s="98" t="n"/>
       <c r="C11" s="98" t="n"/>
@@ -7207,7 +11592,7 @@
       <c r="X11" s="88" t="n"/>
       <c r="AR11" s="98" t="n"/>
       <c r="AS11" s="98" t="s">
-        <v>63</v>
+        <v>2</v>
       </c>
       <c r="AT11" s="98" t="n"/>
       <c r="AU11" s="98" t="n"/>
@@ -7215,7 +11600,7 @@
       <c r="AW11" s="98" t="n"/>
       <c r="AX11" s="98" t="n"/>
       <c r="AY11" s="98" t="s">
-        <v>72</v>
+        <v>21</v>
       </c>
       <c r="AZ11" s="98" t="n"/>
       <c r="BA11" s="98" t="n"/>
@@ -7230,17 +11615,17 @@
       <c r="BV11" s="98" t="n"/>
       <c r="BW11" s="98" t="n"/>
       <c r="BX11" s="90" t="s">
-        <v>73</v>
+        <v>22</v>
       </c>
       <c r="BY11" s="81" t="n"/>
       <c r="CA11" s="89" t="s">
-        <v>74</v>
+        <v>23</v>
       </c>
       <c r="CB11" s="98" t="n"/>
       <c r="CC11" s="88" t="n"/>
       <c r="CK11" s="89" t="n"/>
       <c r="CN11" s="90" t="s">
-        <v>75</v>
+        <v>24</v>
       </c>
       <c r="CQ11" s="98" t="n"/>
     </row>
@@ -7269,7 +11654,7 @@
       <c r="V12" s="98" t="n"/>
       <c r="W12" s="98" t="n"/>
       <c r="X12" s="82" t="s">
-        <v>66</v>
+        <v>7</v>
       </c>
       <c r="AR12" s="98" t="n"/>
       <c r="AS12" s="98" t="n"/>
@@ -7326,7 +11711,7 @@
     </row>
     <row customHeight="1" ht="8.25" r="13" s="51" spans="1:95">
       <c r="A13" s="98" t="s">
-        <v>76</v>
+        <v>26</v>
       </c>
       <c r="B13" s="98" t="n"/>
       <c r="C13" s="98" t="n"/>
@@ -7347,7 +11732,7 @@
       <c r="AW13" s="98" t="n"/>
       <c r="AX13" s="98" t="n"/>
       <c r="AY13" s="98" t="s">
-        <v>77</v>
+        <v>28</v>
       </c>
       <c r="AZ13" s="98" t="n"/>
       <c r="BA13" s="98" t="n"/>
@@ -7379,7 +11764,7 @@
       <c r="T14" s="98" t="n"/>
       <c r="U14" s="98" t="n"/>
       <c r="V14" s="92" t="s">
-        <v>66</v>
+        <v>7</v>
       </c>
       <c r="W14" s="98" t="n"/>
       <c r="X14" s="98" t="n"/>
@@ -7416,7 +11801,7 @@
       <c r="BC14" s="98" t="n"/>
       <c r="BD14" s="98" t="n"/>
       <c r="BE14" s="82" t="s">
-        <v>78</v>
+        <v>30</v>
       </c>
     </row>
     <row customHeight="1" ht="8.25" r="15" s="51" spans="1:95">
@@ -7427,7 +11812,7 @@
     </row>
     <row customHeight="1" ht="11.25" r="16" s="51" spans="1:95">
       <c r="A16" s="95" t="s">
-        <v>79</v>
+        <v>31</v>
       </c>
       <c r="AT16" s="81" t="n"/>
       <c r="AW16" s="98" t="n"/>
@@ -7532,7 +11917,7 @@
     </row>
     <row customHeight="1" ht="10.5" r="18" s="51" spans="1:95">
       <c r="A18" s="98" t="s">
-        <v>80</v>
+        <v>34</v>
       </c>
       <c r="B18" s="98" t="n"/>
       <c r="C18" s="98" t="n"/>
@@ -7562,15 +11947,15 @@
       <c r="H19" s="98" t="n"/>
       <c r="I19" s="98" t="n"/>
       <c r="J19" s="82" t="s">
-        <v>81</v>
+        <v>36</v>
       </c>
       <c r="U19" s="98" t="n"/>
       <c r="V19" s="82" t="s">
-        <v>82</v>
+        <v>38</v>
       </c>
       <c r="AF19" s="81" t="n"/>
       <c r="AG19" s="82" t="s">
-        <v>83</v>
+        <v>39</v>
       </c>
       <c r="AV19" s="18" t="n"/>
       <c r="AW19" s="98" t="n"/>
@@ -7623,7 +12008,7 @@
     </row>
     <row customHeight="1" ht="10.5" r="20" s="51" spans="1:95">
       <c r="A20" s="98" t="s">
-        <v>84</v>
+        <v>41</v>
       </c>
       <c r="B20" s="98" t="n"/>
       <c r="C20" s="98" t="n"/>
@@ -7652,7 +12037,7 @@
       <c r="AW20" s="98" t="n"/>
       <c r="AX20" s="98" t="n"/>
       <c r="AY20" s="98" t="s">
-        <v>85</v>
+        <v>42</v>
       </c>
       <c r="AZ20" s="98" t="n"/>
       <c r="BA20" s="98" t="n"/>
@@ -7689,11 +12074,11 @@
       <c r="T21" s="98" t="n"/>
       <c r="U21" s="98" t="n"/>
       <c r="V21" s="82" t="s">
-        <v>82</v>
+        <v>38</v>
       </c>
       <c r="AF21" s="98" t="n"/>
       <c r="AG21" s="82" t="s">
-        <v>83</v>
+        <v>39</v>
       </c>
       <c r="AV21" s="18" t="n"/>
       <c r="AW21" s="98" t="n"/>
@@ -7706,20 +12091,20 @@
       <c r="BD21" s="98" t="n"/>
       <c r="BE21" s="98" t="n"/>
       <c r="BF21" s="82" t="s">
-        <v>81</v>
+        <v>36</v>
       </c>
       <c r="BO21" s="22" t="n"/>
       <c r="BP21" s="82" t="s">
-        <v>82</v>
+        <v>38</v>
       </c>
       <c r="BX21" s="22" t="n"/>
       <c r="BY21" s="82" t="s">
-        <v>83</v>
+        <v>39</v>
       </c>
     </row>
     <row customHeight="1" ht="15.75" r="22" s="51" spans="1:95">
       <c r="A22" s="98" t="s">
-        <v>86</v>
+        <v>44</v>
       </c>
       <c r="B22" s="98" t="n"/>
       <c r="C22" s="98" t="n"/>
@@ -7740,7 +12125,7 @@
       <c r="AW22" s="98" t="n"/>
       <c r="AX22" s="98" t="n"/>
       <c r="AY22" s="98" t="s">
-        <v>87</v>
+        <v>45</v>
       </c>
       <c r="AZ22" s="98" t="n"/>
       <c r="BA22" s="98" t="n"/>
@@ -7776,15 +12161,15 @@
       <c r="J23" s="98" t="n"/>
       <c r="K23" s="98" t="n"/>
       <c r="L23" s="82" t="s">
-        <v>81</v>
+        <v>36</v>
       </c>
       <c r="U23" s="98" t="n"/>
       <c r="V23" s="82" t="s">
-        <v>82</v>
+        <v>38</v>
       </c>
       <c r="AF23" s="81" t="n"/>
       <c r="AG23" s="82" t="s">
-        <v>83</v>
+        <v>39</v>
       </c>
       <c r="AV23" s="18" t="n"/>
       <c r="AW23" s="98" t="n"/>
@@ -7806,15 +12191,15 @@
       <c r="BM23" s="98" t="n"/>
       <c r="BN23" s="98" t="n"/>
       <c r="BO23" s="82" t="s">
-        <v>81</v>
+        <v>36</v>
       </c>
       <c r="BX23" s="22" t="n"/>
       <c r="BY23" s="82" t="s">
-        <v>82</v>
+        <v>38</v>
       </c>
       <c r="CE23" s="22" t="n"/>
       <c r="CF23" s="82" t="s">
-        <v>83</v>
+        <v>39</v>
       </c>
     </row>
     <row r="24" spans="1:95">
@@ -7825,7 +12210,7 @@
       <c r="E24" s="98" t="n"/>
       <c r="F24" s="98" t="n"/>
       <c r="G24" s="21" t="s">
-        <v>88</v>
+        <v>47</v>
       </c>
       <c r="H24" s="98" t="n"/>
       <c r="I24" s="98" t="n"/>
@@ -7871,7 +12256,7 @@
       <c r="AW24" s="98" t="n"/>
       <c r="AX24" s="98" t="n"/>
       <c r="AY24" s="98" t="s">
-        <v>88</v>
+        <v>47</v>
       </c>
       <c r="AZ24" s="98" t="n"/>
       <c r="BA24" s="98" t="n"/>
